--- a/data/nzd0543/nzd0543.xlsx
+++ b/data/nzd0543/nzd0543.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H401"/>
+  <dimension ref="A1:H403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10923,6 +10923,62 @@
       <c r="H401" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>285.9299999999999</v>
+      </c>
+      <c r="C402" t="n">
+        <v>265.66</v>
+      </c>
+      <c r="D402" t="n">
+        <v>254.87</v>
+      </c>
+      <c r="E402" t="n">
+        <v>226.33</v>
+      </c>
+      <c r="F402" t="n">
+        <v>216.72</v>
+      </c>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>290.87</v>
+      </c>
+      <c r="C403" t="n">
+        <v>268.15</v>
+      </c>
+      <c r="D403" t="n">
+        <v>250.0011111111111</v>
+      </c>
+      <c r="E403" t="n">
+        <v>215.66</v>
+      </c>
+      <c r="F403" t="n">
+        <v>183.1333333333333</v>
+      </c>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10937,7 +10993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B491"/>
+  <dimension ref="A1:B493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15855,6 +15911,26 @@
       </c>
       <c r="B491" t="n">
         <v>-0.98</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>-0.54</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -16023,28 +16099,28 @@
         <v>0.0336</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1423316803961529</v>
+        <v>-0.128996956359745</v>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K2" t="n">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003512863306365022</v>
+        <v>0.002926204669774668</v>
       </c>
       <c r="M2" t="n">
-        <v>13.93379846481327</v>
+        <v>13.89010868122764</v>
       </c>
       <c r="N2" t="n">
-        <v>322.8151374877705</v>
+        <v>320.8696325016992</v>
       </c>
       <c r="O2" t="n">
-        <v>17.96705700686038</v>
+        <v>17.91283429560211</v>
       </c>
       <c r="P2" t="n">
-        <v>283.003350456522</v>
+        <v>282.8802581749388</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -16100,28 +16176,28 @@
         <v>0.0223</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2521209976225774</v>
+        <v>-0.2394124611561683</v>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K3" t="n">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L3" t="n">
-        <v>0.009279490035555393</v>
+        <v>0.00847892197693767</v>
       </c>
       <c r="M3" t="n">
-        <v>15.25115849570026</v>
+        <v>15.20801824778373</v>
       </c>
       <c r="N3" t="n">
-        <v>375.4570073465206</v>
+        <v>373.3392428124141</v>
       </c>
       <c r="O3" t="n">
-        <v>19.37671301708627</v>
+        <v>19.32198858328029</v>
       </c>
       <c r="P3" t="n">
-        <v>263.8474599951239</v>
+        <v>263.7288571069204</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -16171,28 +16247,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.2498778540934838</v>
+        <v>-0.2322194318024373</v>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K4" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008915734938938491</v>
+        <v>0.007792272005905376</v>
       </c>
       <c r="M4" t="n">
-        <v>15.51607507483008</v>
+        <v>15.49875923360205</v>
       </c>
       <c r="N4" t="n">
-        <v>385.6052233518276</v>
+        <v>384.2275192285054</v>
       </c>
       <c r="O4" t="n">
-        <v>19.63683333309695</v>
+        <v>19.60172235362253</v>
       </c>
       <c r="P4" t="n">
-        <v>245.1589418607926</v>
+        <v>244.9977627419542</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -16248,28 +16324,28 @@
         <v>0.0276</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.345475792323211</v>
+        <v>-0.3445727998574762</v>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K5" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01230081861645105</v>
+        <v>0.01240024238623061</v>
       </c>
       <c r="M5" t="n">
-        <v>17.52350357930044</v>
+        <v>17.43622326230791</v>
       </c>
       <c r="N5" t="n">
-        <v>516.0813858046367</v>
+        <v>512.5884208601993</v>
       </c>
       <c r="O5" t="n">
-        <v>22.71742471770594</v>
+        <v>22.64041565122423</v>
       </c>
       <c r="P5" t="n">
-        <v>228.9506633919305</v>
+        <v>228.9421675713507</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -16325,28 +16401,28 @@
         <v>0.0376</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.334558266875006</v>
+        <v>-0.3288750458763655</v>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K6" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006457181137408008</v>
+        <v>0.006319416721985438</v>
       </c>
       <c r="M6" t="n">
-        <v>22.91026399649317</v>
+        <v>22.86340263030943</v>
       </c>
       <c r="N6" t="n">
-        <v>893.4976595336766</v>
+        <v>888.9766157708175</v>
       </c>
       <c r="O6" t="n">
-        <v>29.89143120584353</v>
+        <v>29.81571088823504</v>
       </c>
       <c r="P6" t="n">
-        <v>204.3751928124241</v>
+        <v>204.3202543533495</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -16405,7 +16481,7 @@
         <v>0.3820014297074181</v>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K7" t="n">
         <v>283</v>
@@ -16460,7 +16536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H401"/>
+  <dimension ref="A1:H403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30206,6 +30282,82 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>-46.54105135541846,169.61511297826155</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>-46.541618492685984,169.61468551744525</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>-46.542204159390884,169.61437863544512</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>-46.542755109323785,169.61384597166486</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>-46.54334306838922,169.61355409149712</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:20:57+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>-46.54106101480367,169.61517581302607</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>-46.541623361600166,169.61471718950384</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>-46.542194638651004,169.61431670403792</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>-46.54273424431518,169.61371025003402</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>-46.54327738868968,169.61312686766573</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0543/nzd0543.xlsx
+++ b/data/nzd0543/nzd0543.xlsx
@@ -15944,7 +15944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16035,35 +16035,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -16122,27 +16127,28 @@
       <c r="P2" t="n">
         <v>282.8802581749388</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (169.61147610764687 -46.54049220680613, 169.6226125921954 -46.54220398050935)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>169.6114761076469</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-46.54049220680613</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>169.6226125921954</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-46.54220398050935</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>169.6170443499211</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-46.54134809365774</v>
       </c>
     </row>
@@ -16199,27 +16205,28 @@
       <c r="P3" t="n">
         <v>263.7288571069204</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (169.61130643661397 -46.541098974903726, 169.62244300076927 -46.5428107567342)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>169.611306436614</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-46.54109897490373</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>169.6224430007693</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-46.5428107567342</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>169.6168747186916</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-46.54195486581897</v>
       </c>
     </row>
@@ -16270,27 +16277,28 @@
       <c r="P4" t="n">
         <v>244.9977627419542</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (169.61113676558048 -46.54170573622011, 169.62227340934425 -46.54341752617798)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>169.6111367655805</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-46.54170573622011</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>169.6222734093442</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-46.54341752617798</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>169.6167050874624</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-46.54256163119905</v>
       </c>
     </row>
@@ -16347,27 +16355,28 @@
       <c r="P5" t="n">
         <v>228.9421675713507</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (169.61096709454657 -46.542312490755265, 169.62210381792022 -46.54402428884075)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>169.6109670945466</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-46.54231249075526</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>169.6221038179202</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-46.54402428884075</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>169.6165354562334</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-46.54316838979801</v>
       </c>
     </row>
@@ -16424,27 +16433,28 @@
       <c r="P6" t="n">
         <v>204.3202543533495</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (169.61079742351205 -46.54291923850917, 169.62193422649722 -46.54463104472254)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>169.6107974235121</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-46.54291923850917</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>169.6219342264972</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-46.54463104472254</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>169.6163658250046</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-46.54377514161585</v>
       </c>
     </row>
@@ -16501,27 +16511,28 @@
       <c r="P7" t="n">
         <v>205.5174114958496</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (169.610627752477 -46.54352597948186, 169.62176463507524 -46.54523779382329)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>169.610627752477</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-46.54352597948186</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>169.6217646350752</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-46.54523779382329</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>169.6161961937761</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-46.54438188665257</v>
       </c>
     </row>

--- a/data/nzd0543/nzd0543.xlsx
+++ b/data/nzd0543/nzd0543.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H403"/>
+  <dimension ref="A1:H407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10975,8 +10975,126 @@
       <c r="F403" t="n">
         <v>183.1333333333333</v>
       </c>
-      <c r="G403" t="inlineStr"/>
+      <c r="G403" t="n">
+        <v>190.01</v>
+      </c>
       <c r="H403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>299.85</v>
+      </c>
+      <c r="C404" t="n">
+        <v>275.11</v>
+      </c>
+      <c r="D404" t="n">
+        <v>250.1322222222223</v>
+      </c>
+      <c r="E404" t="n">
+        <v>235.32</v>
+      </c>
+      <c r="F404" t="n">
+        <v>209.6266666666667</v>
+      </c>
+      <c r="G404" t="n">
+        <v>218.51</v>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>270.91</v>
+      </c>
+      <c r="C405" t="n">
+        <v>250.46</v>
+      </c>
+      <c r="D405" t="n">
+        <v>230.2977777777778</v>
+      </c>
+      <c r="E405" t="n">
+        <v>212.24</v>
+      </c>
+      <c r="F405" t="n">
+        <v>181.5133333333333</v>
+      </c>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>287.35</v>
+      </c>
+      <c r="C406" t="n">
+        <v>267.55</v>
+      </c>
+      <c r="D406" t="n">
+        <v>243.52</v>
+      </c>
+      <c r="E406" t="n">
+        <v>220.31</v>
+      </c>
+      <c r="F406" t="n">
+        <v>210.77</v>
+      </c>
+      <c r="G406" t="n">
+        <v>221.03</v>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="n">
+        <v>272.75</v>
+      </c>
+      <c r="D407" t="n">
+        <v>255.8444444444445</v>
+      </c>
+      <c r="E407" t="n">
+        <v>241.98</v>
+      </c>
+      <c r="F407" t="n">
+        <v>200.4033333333333</v>
+      </c>
+      <c r="G407" t="n">
+        <v>228.47</v>
+      </c>
+      <c r="H407" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -10993,7 +11111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B493"/>
+  <dimension ref="A1:B497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15931,6 +16049,46 @@
       </c>
       <c r="B493" t="n">
         <v>0.16</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>
@@ -16104,28 +16262,28 @@
         <v>0.0336</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.128996956359745</v>
+        <v>-0.1148663215485824</v>
       </c>
       <c r="J2" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K2" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002926204669774668</v>
+        <v>0.002360976517951197</v>
       </c>
       <c r="M2" t="n">
-        <v>13.89010868122764</v>
+        <v>13.86593326251496</v>
       </c>
       <c r="N2" t="n">
-        <v>320.8696325016992</v>
+        <v>319.1674222468295</v>
       </c>
       <c r="O2" t="n">
-        <v>17.91283429560211</v>
+        <v>17.86525740779655</v>
       </c>
       <c r="P2" t="n">
-        <v>282.8802581749388</v>
+        <v>282.7481835435549</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16182,28 +16340,28 @@
         <v>0.0223</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2394124611561683</v>
+        <v>-0.215867913232603</v>
       </c>
       <c r="J3" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K3" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00847892197693767</v>
+        <v>0.007057695548624232</v>
       </c>
       <c r="M3" t="n">
-        <v>15.20801824778373</v>
+        <v>15.1669446436346</v>
       </c>
       <c r="N3" t="n">
-        <v>373.3392428124141</v>
+        <v>370.3503102249958</v>
       </c>
       <c r="O3" t="n">
-        <v>19.32198858328029</v>
+        <v>19.24448778806534</v>
       </c>
       <c r="P3" t="n">
-        <v>263.7288571069204</v>
+        <v>263.5054994238938</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16254,28 +16412,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.2322194318024373</v>
+        <v>-0.2171619927427826</v>
       </c>
       <c r="J4" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K4" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007792272005905376</v>
+        <v>0.00698694673293454</v>
       </c>
       <c r="M4" t="n">
-        <v>15.49875923360205</v>
+        <v>15.4235468118108</v>
       </c>
       <c r="N4" t="n">
-        <v>384.2275192285054</v>
+        <v>380.6888170097615</v>
       </c>
       <c r="O4" t="n">
-        <v>19.60172235362253</v>
+        <v>19.5112484738871</v>
       </c>
       <c r="P4" t="n">
-        <v>244.9977627419542</v>
+        <v>244.8578941478598</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16332,28 +16490,28 @@
         <v>0.0276</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3445727998574762</v>
+        <v>-0.3253401991761155</v>
       </c>
       <c r="J5" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K5" t="n">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01240024238623061</v>
+        <v>0.01132158392857541</v>
       </c>
       <c r="M5" t="n">
-        <v>17.43622326230791</v>
+        <v>17.35129566408498</v>
       </c>
       <c r="N5" t="n">
-        <v>512.5884208601993</v>
+        <v>508.0190537609123</v>
       </c>
       <c r="O5" t="n">
-        <v>22.64041565122423</v>
+        <v>22.53927802217525</v>
       </c>
       <c r="P5" t="n">
-        <v>228.9421675713507</v>
+        <v>228.7554887949995</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16410,28 +16568,28 @@
         <v>0.0376</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3288750458763655</v>
+        <v>-0.3156460921466256</v>
       </c>
       <c r="J6" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K6" t="n">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006319416721985438</v>
+        <v>0.005988149887467986</v>
       </c>
       <c r="M6" t="n">
-        <v>22.86340263030943</v>
+        <v>22.69737771947739</v>
       </c>
       <c r="N6" t="n">
-        <v>888.9766157708175</v>
+        <v>878.0569828102426</v>
       </c>
       <c r="O6" t="n">
-        <v>29.81571088823504</v>
+        <v>29.63202630280695</v>
       </c>
       <c r="P6" t="n">
-        <v>204.3202543533495</v>
+        <v>204.1896088149625</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16488,28 +16646,28 @@
         <v>0.0269</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3820014297074181</v>
+        <v>0.3806298308351527</v>
       </c>
       <c r="J7" t="n">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K7" t="n">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01874374836221593</v>
+        <v>0.01903768860205846</v>
       </c>
       <c r="M7" t="n">
-        <v>15.96485334192223</v>
+        <v>15.90762085898517</v>
       </c>
       <c r="N7" t="n">
-        <v>391.2134483130215</v>
+        <v>388.7212727602418</v>
       </c>
       <c r="O7" t="n">
-        <v>19.7791164694741</v>
+        <v>19.7160156411036</v>
       </c>
       <c r="P7" t="n">
-        <v>205.5174114958496</v>
+        <v>205.5283415226754</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16547,7 +16705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H403"/>
+  <dimension ref="A1:H407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30362,8 +30520,172 @@
           <t>-46.54327738868968,169.61312686766573</t>
         </is>
       </c>
-      <c r="G403" t="inlineStr"/>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>-46.54389758038041,169.61304469379144</t>
+        </is>
+      </c>
       <c r="H403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:38+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>-46.54107857368,169.61529003498782</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-46.541636971049414,169.614805718664</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>-46.5421948950292,169.6143183717478</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-46.54277268899707,169.61396032390428</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>-46.54332919730131,169.61346386390179</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>-46.54395331324419,169.61340721899202</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-03 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>-46.54102198598582,169.6149219301988</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>-46.541588770612925,169.61449217810434</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>-46.54215610995229,169.61406608135567</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>-46.54272755652815,169.6136667479044</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>-46.54327422069304,169.61310626122494</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:22+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>-46.54105413200636,169.61513104007398</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>-46.54162218836861,169.61470955768195</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>-46.542181965282644,169.61423426548507</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>-46.542743337332794,169.61376939768496</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>-46.5433314331064,169.61347840716215</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>-46.54395824114821,169.61343927389058</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:29+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr"/>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>-46.541632356358654,169.6147757001503</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>-46.54220606483851,169.61439103020925</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>-46.54278571235319,169.6140450387406</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>-46.54331116087119,169.6133465426622</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>-46.543972790146626,169.6135339121992</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0543/nzd0543.xlsx
+++ b/data/nzd0543/nzd0543.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H407"/>
+  <dimension ref="A1:H409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11095,6 +11095,50 @@
         <v>228.47</v>
       </c>
       <c r="H407" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:27+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>253.82</v>
+      </c>
+      <c r="C408" t="n">
+        <v>238.18</v>
+      </c>
+      <c r="D408" t="n">
+        <v>223.0744444444445</v>
+      </c>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" t="inlineStr"/>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:27+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr"/>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="n">
+        <v>277.62</v>
+      </c>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11111,7 +11155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B497"/>
+  <dimension ref="A1:B499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16089,6 +16133,26 @@
       </c>
       <c r="B497" t="n">
         <v>0.55</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-0.88</v>
       </c>
     </row>
   </sheetData>
@@ -16262,28 +16326,28 @@
         <v>0.0336</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1148663215485824</v>
+        <v>-0.1340713218930832</v>
       </c>
       <c r="J2" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K2" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002360976517951197</v>
+        <v>0.00321198094883135</v>
       </c>
       <c r="M2" t="n">
-        <v>13.86593326251496</v>
+        <v>13.91883208342522</v>
       </c>
       <c r="N2" t="n">
-        <v>319.1674222468295</v>
+        <v>320.5693011199188</v>
       </c>
       <c r="O2" t="n">
-        <v>17.86525740779655</v>
+        <v>17.90444919900969</v>
       </c>
       <c r="P2" t="n">
-        <v>282.7481835435549</v>
+        <v>282.9296326230328</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16340,28 +16404,28 @@
         <v>0.0223</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.215867913232603</v>
+        <v>-0.2291416929163569</v>
       </c>
       <c r="J3" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K3" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007057695548624232</v>
+        <v>0.007971178437163773</v>
       </c>
       <c r="M3" t="n">
-        <v>15.1669446436346</v>
+        <v>15.18251838961234</v>
       </c>
       <c r="N3" t="n">
-        <v>370.3503102249958</v>
+        <v>370.4179116544549</v>
       </c>
       <c r="O3" t="n">
-        <v>19.24448778806534</v>
+        <v>19.24624409214574</v>
       </c>
       <c r="P3" t="n">
-        <v>263.5054994238938</v>
+        <v>263.632264613725</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16412,28 +16476,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.2171619927427826</v>
+        <v>-0.2276385510844152</v>
       </c>
       <c r="J4" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K4" t="n">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00698694673293454</v>
+        <v>0.007708160162398392</v>
       </c>
       <c r="M4" t="n">
-        <v>15.4235468118108</v>
+        <v>15.42829138038708</v>
       </c>
       <c r="N4" t="n">
-        <v>380.6888170097615</v>
+        <v>380.2861787838086</v>
       </c>
       <c r="O4" t="n">
-        <v>19.5112484738871</v>
+        <v>19.50092763905883</v>
       </c>
       <c r="P4" t="n">
-        <v>244.8578941478598</v>
+        <v>244.9557109528117</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16490,28 +16554,28 @@
         <v>0.0276</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3253401991761155</v>
+        <v>-0.2873714091890572</v>
       </c>
       <c r="J5" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K5" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01132158392857541</v>
+        <v>0.00872220596954576</v>
       </c>
       <c r="M5" t="n">
-        <v>17.35129566408498</v>
+        <v>17.49848138457775</v>
       </c>
       <c r="N5" t="n">
-        <v>508.0190537609123</v>
+        <v>517.6118001925577</v>
       </c>
       <c r="O5" t="n">
-        <v>22.53927802217525</v>
+        <v>22.75108349491421</v>
       </c>
       <c r="P5" t="n">
-        <v>228.7554887949995</v>
+        <v>228.3845271036231</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16571,7 +16635,7 @@
         <v>-0.3156460921466256</v>
       </c>
       <c r="J6" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K6" t="n">
         <v>268</v>
@@ -16649,7 +16713,7 @@
         <v>0.3806298308351527</v>
       </c>
       <c r="J7" t="n">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K7" t="n">
         <v>287</v>
@@ -16705,7 +16769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H407"/>
+  <dimension ref="A1:H409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30691,6 +30755,58 @@
         </is>
       </c>
     </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:14:27+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>-46.54098856858607,169.61470455288105</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>-46.54156475807152,169.61433598043538</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>-46.54214198501728,169.6139742020149</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" t="inlineStr"/>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:14:27+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr"/>
+      <c r="C409" t="inlineStr"/>
+      <c r="D409" t="inlineStr"/>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>-46.54285540385751,169.61449837834078</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0543/nzd0543.xlsx
+++ b/data/nzd0543/nzd0543.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0543/nzd0543.xlsx
+++ b/data/nzd0543/nzd0543.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H409"/>
+  <dimension ref="A1:H410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11130,7 +11130,9 @@
           <t>2025-05-29 22:14:27+00:00</t>
         </is>
       </c>
-      <c r="B409" t="inlineStr"/>
+      <c r="B409" t="n">
+        <v>316.56</v>
+      </c>
       <c r="C409" t="inlineStr"/>
       <c r="D409" t="inlineStr"/>
       <c r="E409" t="n">
@@ -11141,6 +11143,32 @@
       <c r="H409" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>289.76</v>
+      </c>
+      <c r="C410" t="n">
+        <v>284.83</v>
+      </c>
+      <c r="D410" t="n">
+        <v>222.0388888888889</v>
+      </c>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="n">
+        <v>189.7366666666667</v>
+      </c>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -11155,7 +11183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B499"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16153,6 +16181,16 @@
       </c>
       <c r="B499" t="n">
         <v>-0.88</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>-0.7</v>
       </c>
     </row>
   </sheetData>
@@ -16326,28 +16364,28 @@
         <v>0.0336</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1340713218930832</v>
+        <v>-0.09985262436146257</v>
       </c>
       <c r="J2" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K2" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00321198094883135</v>
+        <v>0.001779687833230681</v>
       </c>
       <c r="M2" t="n">
-        <v>13.91883208342522</v>
+        <v>13.98581759456159</v>
       </c>
       <c r="N2" t="n">
-        <v>320.5693011199188</v>
+        <v>323.7980858865524</v>
       </c>
       <c r="O2" t="n">
-        <v>17.90444919900969</v>
+        <v>17.99439040052628</v>
       </c>
       <c r="P2" t="n">
-        <v>282.9296326230328</v>
+        <v>282.6057979753117</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16404,28 +16442,28 @@
         <v>0.0223</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2291416929163569</v>
+        <v>-0.2111241863641622</v>
       </c>
       <c r="J3" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K3" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007971178437163773</v>
+        <v>0.006775342916028548</v>
       </c>
       <c r="M3" t="n">
-        <v>15.18251838961234</v>
+        <v>15.22621406912138</v>
       </c>
       <c r="N3" t="n">
-        <v>370.4179116544549</v>
+        <v>371.6885333293067</v>
       </c>
       <c r="O3" t="n">
-        <v>19.24624409214574</v>
+        <v>19.27922543385254</v>
       </c>
       <c r="P3" t="n">
-        <v>263.632264613725</v>
+        <v>263.4596178719447</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16476,28 +16514,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.2276385510844152</v>
+        <v>-0.2386133976166284</v>
       </c>
       <c r="J4" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K4" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007708160162398392</v>
+        <v>0.008500486228421811</v>
       </c>
       <c r="M4" t="n">
-        <v>15.42829138038708</v>
+        <v>15.43614231225999</v>
       </c>
       <c r="N4" t="n">
-        <v>380.2861787838086</v>
+        <v>379.9810365961974</v>
       </c>
       <c r="O4" t="n">
-        <v>19.50092763905883</v>
+        <v>19.49310228250489</v>
       </c>
       <c r="P4" t="n">
-        <v>244.9557109528117</v>
+        <v>245.0585113456604</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16557,7 +16595,7 @@
         <v>-0.2873714091890572</v>
       </c>
       <c r="J5" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K5" t="n">
         <v>284</v>
@@ -16632,28 +16670,28 @@
         <v>0.0376</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3156460921466256</v>
+        <v>-0.3202985480387205</v>
       </c>
       <c r="J6" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K6" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005988149887467986</v>
+        <v>0.006210786144726033</v>
       </c>
       <c r="M6" t="n">
-        <v>22.69737771947739</v>
+        <v>22.6369827808749</v>
       </c>
       <c r="N6" t="n">
-        <v>878.0569828102426</v>
+        <v>874.9433155084813</v>
       </c>
       <c r="O6" t="n">
-        <v>29.63202630280695</v>
+        <v>29.57944075719623</v>
       </c>
       <c r="P6" t="n">
-        <v>204.1896088149625</v>
+        <v>204.2360367431776</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16713,7 +16751,7 @@
         <v>0.3806298308351527</v>
       </c>
       <c r="J7" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K7" t="n">
         <v>287</v>
@@ -16769,7 +16807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H409"/>
+  <dimension ref="A1:H410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30791,7 +30829,11 @@
           <t>2025-05-29 22:14:27+00:00</t>
         </is>
       </c>
-      <c r="B409" t="inlineStr"/>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>-46.541111246969386,169.61550257963026</t>
+        </is>
+      </c>
       <c r="C409" t="inlineStr"/>
       <c r="D409" t="inlineStr"/>
       <c r="E409" t="inlineStr">
@@ -30804,6 +30846,40 @@
       <c r="H409" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:24+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>-46.54105884437796,169.61516169428134</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>-46.541655977236324,169.6149293542955</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>-46.54213996002448,169.6139610299617</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>-46.54329030182338,169.61321086225894</t>
+        </is>
+      </c>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0543/nzd0543.xlsx
+++ b/data/nzd0543/nzd0543.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H410"/>
+  <dimension ref="A1:H412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11130,9 +11130,7 @@
           <t>2025-05-29 22:14:27+00:00</t>
         </is>
       </c>
-      <c r="B409" t="n">
-        <v>316.56</v>
-      </c>
+      <c r="B409" t="inlineStr"/>
       <c r="C409" t="inlineStr"/>
       <c r="D409" t="inlineStr"/>
       <c r="E409" t="n">
@@ -11155,9 +11153,7 @@
       <c r="B410" t="n">
         <v>289.76</v>
       </c>
-      <c r="C410" t="n">
-        <v>284.83</v>
-      </c>
+      <c r="C410" t="inlineStr"/>
       <c r="D410" t="n">
         <v>222.0388888888889</v>
       </c>
@@ -11169,6 +11165,48 @@
       <c r="H410" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="n">
+        <v>210.63</v>
+      </c>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="n">
+        <v>335.06</v>
+      </c>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr"/>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="n">
+        <v>167.37</v>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -11183,7 +11221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:B503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16191,6 +16229,36 @@
       </c>
       <c r="B500" t="n">
         <v>-0.7</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-06-29 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -16364,28 +16432,28 @@
         <v>0.0336</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.09985262436146257</v>
+        <v>-0.1265448982711639</v>
       </c>
       <c r="J2" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K2" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001779687833230681</v>
+        <v>0.002881196145898102</v>
       </c>
       <c r="M2" t="n">
-        <v>13.98581759456159</v>
+        <v>13.90206468898687</v>
       </c>
       <c r="N2" t="n">
-        <v>323.7980858865524</v>
+        <v>319.7024422382831</v>
       </c>
       <c r="O2" t="n">
-        <v>17.99439040052628</v>
+        <v>17.88022489339223</v>
       </c>
       <c r="P2" t="n">
-        <v>282.6057979753117</v>
+        <v>282.8582804468482</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16442,28 +16510,28 @@
         <v>0.0223</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2111241863641622</v>
+        <v>-0.2607395063959291</v>
       </c>
       <c r="J3" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K3" t="n">
         <v>278</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006775342916028548</v>
+        <v>0.01015482047367244</v>
       </c>
       <c r="M3" t="n">
-        <v>15.22621406912138</v>
+        <v>15.29660408876738</v>
       </c>
       <c r="N3" t="n">
-        <v>371.6885333293067</v>
+        <v>376.9934579703437</v>
       </c>
       <c r="O3" t="n">
-        <v>19.27922543385254</v>
+        <v>19.41631937238219</v>
       </c>
       <c r="P3" t="n">
-        <v>263.4596178719447</v>
+        <v>263.9360863993741</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16517,7 +16585,7 @@
         <v>-0.2386133976166284</v>
       </c>
       <c r="J4" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K4" t="n">
         <v>297</v>
@@ -16592,28 +16660,28 @@
         <v>0.0276</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2873714091890572</v>
+        <v>-0.2116423818884051</v>
       </c>
       <c r="J5" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K5" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00872220596954576</v>
+        <v>0.004399851715254588</v>
       </c>
       <c r="M5" t="n">
-        <v>17.49848138457775</v>
+        <v>17.85421104138528</v>
       </c>
       <c r="N5" t="n">
-        <v>517.6118001925577</v>
+        <v>560.9398744678314</v>
       </c>
       <c r="O5" t="n">
-        <v>22.75108349491421</v>
+        <v>23.68416927966508</v>
       </c>
       <c r="P5" t="n">
-        <v>228.3845271036231</v>
+        <v>227.6405643290622</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16673,7 +16741,7 @@
         <v>-0.3202985480387205</v>
       </c>
       <c r="J6" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K6" t="n">
         <v>269</v>
@@ -16748,28 +16816,28 @@
         <v>0.0269</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3806298308351527</v>
+        <v>0.3461000422586982</v>
       </c>
       <c r="J7" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K7" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01903768860205846</v>
+        <v>0.01560305645040638</v>
       </c>
       <c r="M7" t="n">
-        <v>15.90762085898517</v>
+        <v>16.00954189286929</v>
       </c>
       <c r="N7" t="n">
-        <v>388.7212727602418</v>
+        <v>395.2499422469836</v>
       </c>
       <c r="O7" t="n">
-        <v>19.7160156411036</v>
+        <v>19.88089389959575</v>
       </c>
       <c r="P7" t="n">
-        <v>205.5283415226754</v>
+        <v>205.8713207899067</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16807,7 +16875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H410"/>
+  <dimension ref="A1:H412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30829,11 +30897,7 @@
           <t>2025-05-29 22:14:27+00:00</t>
         </is>
       </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>-46.541111246969386,169.61550257963026</t>
-        </is>
-      </c>
+      <c r="B409" t="inlineStr"/>
       <c r="C409" t="inlineStr"/>
       <c r="D409" t="inlineStr"/>
       <c r="E409" t="inlineStr">
@@ -30860,11 +30924,7 @@
           <t>-46.54105884437796,169.61516169428134</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>-46.541655977236324,169.6149293542955</t>
-        </is>
-      </c>
+      <c r="C410" t="inlineStr"/>
       <c r="D410" t="inlineStr">
         <is>
           <t>-46.54213996002448,169.6139610299617</t>
@@ -30880,6 +30940,54 @@
       <c r="H410" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:30+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>-46.54151088552262,169.6139855537979</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr"/>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>-46.54296771999925,169.61522901585386</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-16 22:14:48+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr"/>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr"/>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>-46.54385330616922,169.6127567094334</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0543/nzd0543.xlsx
+++ b/data/nzd0543/nzd0543.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H412"/>
+  <dimension ref="A1:H414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11179,9 +11179,7 @@
         <v>210.63</v>
       </c>
       <c r="D411" t="inlineStr"/>
-      <c r="E411" t="n">
-        <v>335.06</v>
-      </c>
+      <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
       <c r="H411" t="inlineStr">
@@ -11193,18 +11191,84 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>2025-07-16 22:14:48+00:00</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr"/>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr"/>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>265.34</v>
+      </c>
+      <c r="C412" t="n">
+        <v>246.72</v>
+      </c>
+      <c r="D412" t="n">
+        <v>223.0611111111111</v>
+      </c>
+      <c r="E412" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="F412" t="n">
+        <v>227.2333333333333</v>
+      </c>
       <c r="G412" t="n">
-        <v>167.37</v>
+        <v>247.64</v>
       </c>
       <c r="H412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:15:08+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>277.12</v>
+      </c>
+      <c r="C413" t="n">
+        <v>260.24</v>
+      </c>
+      <c r="D413" t="n">
+        <v>245.0522222222222</v>
+      </c>
+      <c r="E413" t="n">
+        <v>232.09</v>
+      </c>
+      <c r="F413" t="n">
+        <v>228.6566666666667</v>
+      </c>
+      <c r="G413" t="n">
+        <v>224.65</v>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:15:13+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>268.28</v>
+      </c>
+      <c r="C414" t="n">
+        <v>250.28</v>
+      </c>
+      <c r="D414" t="n">
+        <v>218.9855555555555</v>
+      </c>
+      <c r="E414" t="n">
+        <v>214.92</v>
+      </c>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11221,7 +11285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B503"/>
+  <dimension ref="A1:B506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16259,6 +16323,36 @@
       </c>
       <c r="B503" t="n">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>-0.83</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -16432,28 +16526,28 @@
         <v>0.0336</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1265448982711639</v>
+        <v>-0.1468536929016027</v>
       </c>
       <c r="J2" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K2" t="n">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002881196145898102</v>
+        <v>0.003953131278145228</v>
       </c>
       <c r="M2" t="n">
-        <v>13.90206468898687</v>
+        <v>13.85022486712701</v>
       </c>
       <c r="N2" t="n">
-        <v>319.7024422382831</v>
+        <v>317.2097032797178</v>
       </c>
       <c r="O2" t="n">
-        <v>17.88022489339223</v>
+        <v>17.81038189595377</v>
       </c>
       <c r="P2" t="n">
-        <v>282.8582804468482</v>
+        <v>283.0531648159907</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16510,28 +16604,28 @@
         <v>0.0223</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2607395063959291</v>
+        <v>-0.2702386868502335</v>
       </c>
       <c r="J3" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K3" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01015482047367244</v>
+        <v>0.01111733533815451</v>
       </c>
       <c r="M3" t="n">
-        <v>15.29660408876738</v>
+        <v>15.20542077264945</v>
       </c>
       <c r="N3" t="n">
-        <v>376.9934579703437</v>
+        <v>373.5575018767477</v>
       </c>
       <c r="O3" t="n">
-        <v>19.41631937238219</v>
+        <v>19.3276357032294</v>
       </c>
       <c r="P3" t="n">
-        <v>263.9360863993741</v>
+        <v>264.0281634548264</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16582,28 +16676,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.2386133976166284</v>
+        <v>-0.2574357744082317</v>
       </c>
       <c r="J4" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K4" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008500486228421811</v>
+        <v>0.01003314920627019</v>
       </c>
       <c r="M4" t="n">
-        <v>15.43614231225999</v>
+        <v>15.42420771709202</v>
       </c>
       <c r="N4" t="n">
-        <v>379.9810365961974</v>
+        <v>378.4380377292158</v>
       </c>
       <c r="O4" t="n">
-        <v>19.49310228250489</v>
+        <v>19.45348394836297</v>
       </c>
       <c r="P4" t="n">
-        <v>245.0585113456604</v>
+        <v>245.2369027489207</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16660,28 +16754,28 @@
         <v>0.0276</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2116423818884051</v>
+        <v>-0.2825871806476064</v>
       </c>
       <c r="J5" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K5" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004399851715254588</v>
+        <v>0.008608005768707683</v>
       </c>
       <c r="M5" t="n">
-        <v>17.85421104138528</v>
+        <v>17.3840238565852</v>
       </c>
       <c r="N5" t="n">
-        <v>560.9398744678314</v>
+        <v>512.7739674347678</v>
       </c>
       <c r="O5" t="n">
-        <v>23.68416927966508</v>
+        <v>22.64451296528075</v>
       </c>
       <c r="P5" t="n">
-        <v>227.6405643290622</v>
+        <v>228.3371839163742</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16738,28 +16832,28 @@
         <v>0.0376</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.3202985480387205</v>
+        <v>-0.2739201801957963</v>
       </c>
       <c r="J6" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K6" t="n">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006210786144726033</v>
+        <v>0.004582371475598146</v>
       </c>
       <c r="M6" t="n">
-        <v>22.6369827808749</v>
+        <v>22.70111487935743</v>
       </c>
       <c r="N6" t="n">
-        <v>874.9433155084813</v>
+        <v>875.8537903512797</v>
       </c>
       <c r="O6" t="n">
-        <v>29.57944075719623</v>
+        <v>29.59482708770706</v>
       </c>
       <c r="P6" t="n">
-        <v>204.2360367431776</v>
+        <v>203.768266154116</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16816,28 +16910,28 @@
         <v>0.0269</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3461000422586982</v>
+        <v>0.4106216152913603</v>
       </c>
       <c r="J7" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K7" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01560305645040638</v>
+        <v>0.02221956456585572</v>
       </c>
       <c r="M7" t="n">
-        <v>16.00954189286929</v>
+        <v>15.94469284988632</v>
       </c>
       <c r="N7" t="n">
-        <v>395.2499422469836</v>
+        <v>389.8786437497442</v>
       </c>
       <c r="O7" t="n">
-        <v>19.88089389959575</v>
+        <v>19.74534486277067</v>
       </c>
       <c r="P7" t="n">
-        <v>205.8713207899067</v>
+        <v>205.2288883985591</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -16875,7 +16969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H412"/>
+  <dimension ref="A1:H414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30956,11 +31050,7 @@
         </is>
       </c>
       <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr">
-        <is>
-          <t>-46.54296771999925,169.61522901585386</t>
-        </is>
-      </c>
+      <c r="E411" t="inlineStr"/>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
       <c r="H411" t="inlineStr">
@@ -30972,20 +31062,116 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>2025-07-16 22:14:48+00:00</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr"/>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr"/>
+          <t>2025-08-25 22:14:39+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>-46.5410110945784,169.61485108220566</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>-46.541581457369304,169.61444460648576</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>-46.54214195894442,169.61397403241767</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>-46.54274898867697,169.6138061582788</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>-46.54336362719416,169.61368782177473</t>
+        </is>
+      </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>-46.54385330616922,169.6127567094334</t>
+          <t>-46.54401027692831,169.6137777587388</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-10 22:15:08+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>-46.5410341287787,169.6150009187516</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>-46.54160789445737,169.61461657668036</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>-46.54218496144342,169.61425375506892</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>-46.54276637284266,169.61391923849646</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>-46.54336641050817,169.6137059266749</t>
+        </is>
+      </c>
+      <c r="G413" t="inlineStr">
+        <is>
+          <t>-46.543965320106004,169.61348532101775</t>
+        </is>
+      </c>
+      <c r="H413" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:15:13+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>-46.54101684336976,169.61488847773143</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>-46.541588418639094,169.61448988856088</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>-46.54213398932888,169.61392219219718</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>-46.542732797251524,169.61370083729153</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0543/nzd0543.xlsx
+++ b/data/nzd0543/nzd0543.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H414"/>
+  <dimension ref="A1:H416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11266,9 +11266,69 @@
       <c r="E414" t="n">
         <v>214.92</v>
       </c>
-      <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr"/>
+      <c r="F414" t="n">
+        <v>183.3266666666667</v>
+      </c>
+      <c r="G414" t="n">
+        <v>178.2</v>
+      </c>
       <c r="H414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:14:50+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>268.73</v>
+      </c>
+      <c r="C415" t="n">
+        <v>245.9100000000001</v>
+      </c>
+      <c r="D415" t="n">
+        <v>232.2833333333333</v>
+      </c>
+      <c r="E415" t="n">
+        <v>217.38</v>
+      </c>
+      <c r="F415" t="inlineStr"/>
+      <c r="G415" t="inlineStr"/>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>251.78</v>
+      </c>
+      <c r="C416" t="n">
+        <v>227.21</v>
+      </c>
+      <c r="D416" t="n">
+        <v>214.2088888888889</v>
+      </c>
+      <c r="E416" t="n">
+        <v>211.64</v>
+      </c>
+      <c r="F416" t="n">
+        <v>206.7166666666667</v>
+      </c>
+      <c r="G416" t="n">
+        <v>191.37</v>
+      </c>
+      <c r="H416" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -11285,7 +11345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B506"/>
+  <dimension ref="A1:B508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16353,6 +16413,26 @@
       </c>
       <c r="B506" t="n">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -16969,7 +17049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H414"/>
+  <dimension ref="A1:H416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31169,9 +31249,93 @@
           <t>-46.542732797251524,169.61370083729153</t>
         </is>
       </c>
-      <c r="F414" t="inlineStr"/>
-      <c r="G414" t="inlineStr"/>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>-46.54327776676312,169.6131293268708</t>
+        </is>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>-46.54387448513229,169.61289446867207</t>
+        </is>
+      </c>
       <c r="H414" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:14:50+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>-46.54101772328573,169.61489420153714</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>-46.54157987348242,169.61443430354348</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>-46.542159992612824,169.61409133723026</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>-46.542737607757466,169.61373212830242</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr"/>
+      <c r="G415" t="inlineStr"/>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-10-11 22:21:09+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>-46.54098457958901,169.61467860499351</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-46.54154330695095,169.61419644567337</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>-46.54212464868407,169.61386143400986</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-46.542726383230516,169.61365911595306</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>-46.543323506745445,169.61342684855398</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>-46.54390023993926,169.6130619932213</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0543/nzd0543.xlsx
+++ b/data/nzd0543/nzd0543.xlsx
@@ -16606,28 +16606,28 @@
         <v>0.0336</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1468536929016027</v>
+        <v>-0.1739510876083342</v>
       </c>
       <c r="J2" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K2" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003953131278145228</v>
+        <v>0.005564984884907864</v>
       </c>
       <c r="M2" t="n">
-        <v>13.85022486712701</v>
+        <v>13.89195572427089</v>
       </c>
       <c r="N2" t="n">
-        <v>317.2097032797178</v>
+        <v>318.0523827986429</v>
       </c>
       <c r="O2" t="n">
-        <v>17.81038189595377</v>
+        <v>17.83402318038874</v>
       </c>
       <c r="P2" t="n">
-        <v>283.0531648159907</v>
+        <v>283.314389476321</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -16684,28 +16684,28 @@
         <v>0.0223</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2702386868502335</v>
+        <v>-0.2968983095797893</v>
       </c>
       <c r="J3" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K3" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01111733533815451</v>
+        <v>0.01344903923072649</v>
       </c>
       <c r="M3" t="n">
-        <v>15.20542077264945</v>
+        <v>15.24059587023834</v>
       </c>
       <c r="N3" t="n">
-        <v>373.5575018767477</v>
+        <v>374.4393566730537</v>
       </c>
       <c r="O3" t="n">
-        <v>19.3276357032294</v>
+        <v>19.35043556804481</v>
       </c>
       <c r="P3" t="n">
-        <v>264.0281634548264</v>
+        <v>264.2878579110752</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -16756,28 +16756,28 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.2574357744082317</v>
+        <v>-0.2766703609554956</v>
       </c>
       <c r="J4" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K4" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01003314920627019</v>
+        <v>0.01166818550424675</v>
       </c>
       <c r="M4" t="n">
-        <v>15.42420771709202</v>
+        <v>15.42458114814747</v>
       </c>
       <c r="N4" t="n">
-        <v>378.4380377292158</v>
+        <v>377.999073828578</v>
       </c>
       <c r="O4" t="n">
-        <v>19.45348394836297</v>
+        <v>19.44219827665015</v>
       </c>
       <c r="P4" t="n">
-        <v>245.2369027489207</v>
+        <v>245.4199770291826</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16834,28 +16834,28 @@
         <v>0.0276</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2825871806476064</v>
+        <v>-0.291100312611788</v>
       </c>
       <c r="J5" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K5" t="n">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L5" t="n">
-        <v>0.008608005768707683</v>
+        <v>0.009250601817377135</v>
       </c>
       <c r="M5" t="n">
-        <v>17.3840238565852</v>
+        <v>17.30628630967858</v>
       </c>
       <c r="N5" t="n">
-        <v>512.7739674347678</v>
+        <v>509.5710616766045</v>
       </c>
       <c r="O5" t="n">
-        <v>22.64451296528075</v>
+        <v>22.57368072948239</v>
       </c>
       <c r="P5" t="n">
-        <v>228.3371839163742</v>
+        <v>228.4218712576737</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -16912,28 +16912,28 @@
         <v>0.0376</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2739201801957963</v>
+        <v>-0.2762647968004361</v>
       </c>
       <c r="J6" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K6" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004582371475598146</v>
+        <v>0.004726886126991459</v>
       </c>
       <c r="M6" t="n">
-        <v>22.70111487935743</v>
+        <v>22.62049758736753</v>
       </c>
       <c r="N6" t="n">
-        <v>875.8537903512797</v>
+        <v>870.4608796899329</v>
       </c>
       <c r="O6" t="n">
-        <v>29.59482708770706</v>
+        <v>29.50357401553129</v>
       </c>
       <c r="P6" t="n">
-        <v>203.768266154116</v>
+        <v>203.7917421406275</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16990,28 +16990,28 @@
         <v>0.0269</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4106216152913603</v>
+        <v>0.3665819840863597</v>
       </c>
       <c r="J7" t="n">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="K7" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02221956456585572</v>
+        <v>0.01776193763565537</v>
       </c>
       <c r="M7" t="n">
-        <v>15.94469284988632</v>
+        <v>16.03915954342848</v>
       </c>
       <c r="N7" t="n">
-        <v>389.8786437497442</v>
+        <v>393.9709797851561</v>
       </c>
       <c r="O7" t="n">
-        <v>19.74534486277067</v>
+        <v>19.84870221916677</v>
       </c>
       <c r="P7" t="n">
-        <v>205.2288883985591</v>
+        <v>205.6701494175188</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">

--- a/data/nzd0543/nzd0543.xlsx
+++ b/data/nzd0543/nzd0543.xlsx
@@ -491,7 +491,7 @@
         <v>267.54</v>
       </c>
       <c r="D2" t="n">
-        <v>251.0488888888889</v>
+        <v>251.05</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -515,7 +515,7 @@
         <v>267.8</v>
       </c>
       <c r="D3" t="n">
-        <v>235.6466666666666</v>
+        <v>235.65</v>
       </c>
       <c r="E3" t="n">
         <v>213.17</v>
@@ -539,7 +539,7 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>207.1177777777777</v>
+        <v>207.12</v>
       </c>
       <c r="E4" t="n">
         <v>180.7</v>
@@ -607,7 +607,7 @@
         <v>235.07</v>
       </c>
       <c r="D7" t="n">
-        <v>218.8044444444445</v>
+        <v>218.8</v>
       </c>
       <c r="E7" t="n">
         <v>215.13</v>
@@ -635,13 +635,13 @@
         <v>263.8</v>
       </c>
       <c r="D8" t="n">
-        <v>241.4622222222222</v>
+        <v>241.46</v>
       </c>
       <c r="E8" t="n">
         <v>221.68</v>
       </c>
       <c r="F8" t="n">
-        <v>195.2966666666667</v>
+        <v>195.3</v>
       </c>
       <c r="G8" t="n">
         <v>193.58</v>
@@ -663,13 +663,13 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>224.7977777777778</v>
+        <v>224.8</v>
       </c>
       <c r="E9" t="n">
         <v>185.12</v>
       </c>
       <c r="F9" t="n">
-        <v>225.5233333333333</v>
+        <v>225.52</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
@@ -691,16 +691,16 @@
         <v>281.24</v>
       </c>
       <c r="D10" t="n">
-        <v>254.2455555555556</v>
+        <v>254.25</v>
       </c>
       <c r="E10" t="n">
-        <v>228.9100000000001</v>
+        <v>228.91</v>
       </c>
       <c r="F10" t="n">
-        <v>199.0266666666667</v>
+        <v>199.03</v>
       </c>
       <c r="G10" t="n">
-        <v>208.6600000000001</v>
+        <v>208.66</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -745,13 +745,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>309.4299999999999</v>
+        <v>309.43</v>
       </c>
       <c r="C12" t="n">
         <v>288.36</v>
       </c>
       <c r="D12" t="n">
-        <v>266.7733333333333</v>
+        <v>266.77</v>
       </c>
       <c r="E12" t="n">
         <v>243.32</v>
@@ -781,13 +781,13 @@
         <v>261.42</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6711111111111</v>
+        <v>247.67</v>
       </c>
       <c r="E13" t="n">
         <v>226.27</v>
       </c>
       <c r="F13" t="n">
-        <v>204.9533333333333</v>
+        <v>204.95</v>
       </c>
       <c r="G13" t="n">
         <v>211.14</v>
@@ -833,13 +833,13 @@
         <v>239.84</v>
       </c>
       <c r="D15" t="n">
-        <v>221.6988888888889</v>
+        <v>221.7</v>
       </c>
       <c r="E15" t="n">
         <v>195.81</v>
       </c>
       <c r="F15" t="n">
-        <v>158.5766666666667</v>
+        <v>158.58</v>
       </c>
       <c r="G15" t="n">
         <v>199.38</v>
@@ -863,7 +863,7 @@
         <v>245.51</v>
       </c>
       <c r="D16" t="n">
-        <v>232.1033333333333</v>
+        <v>232.1</v>
       </c>
       <c r="E16" t="n">
         <v>212</v>
@@ -891,11 +891,11 @@
         <v>232.47</v>
       </c>
       <c r="D17" t="n">
-        <v>234.4111111111112</v>
+        <v>234.41</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>201.5733333333333</v>
+        <v>201.57</v>
       </c>
       <c r="G17" t="n">
         <v>227.03</v>
@@ -919,7 +919,7 @@
         <v>273.74</v>
       </c>
       <c r="D18" t="n">
-        <v>252.5366666666666</v>
+        <v>252.54</v>
       </c>
       <c r="E18" t="n">
         <v>234.09</v>
@@ -979,13 +979,13 @@
         <v>252.3</v>
       </c>
       <c r="D20" t="n">
-        <v>238.5355555555556</v>
+        <v>238.54</v>
       </c>
       <c r="E20" t="n">
         <v>224.24</v>
       </c>
       <c r="F20" t="n">
-        <v>232.7466666666667</v>
+        <v>232.75</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
@@ -1007,7 +1007,7 @@
         <v>248.4</v>
       </c>
       <c r="D21" t="n">
-        <v>233.3633333333333</v>
+        <v>233.36</v>
       </c>
       <c r="E21" t="n">
         <v>217.96</v>
@@ -1035,13 +1035,13 @@
         <v>238.51</v>
       </c>
       <c r="D22" t="n">
-        <v>225.8855555555556</v>
+        <v>225.89</v>
       </c>
       <c r="E22" t="n">
         <v>234.6</v>
       </c>
       <c r="F22" t="n">
-        <v>246.6066666666666</v>
+        <v>246.61</v>
       </c>
       <c r="G22" t="n">
         <v>202.42</v>
@@ -1063,7 +1063,7 @@
         <v>204.6</v>
       </c>
       <c r="D23" t="n">
-        <v>212.5933333333333</v>
+        <v>212.59</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
         <v>229.84</v>
       </c>
       <c r="D25" t="n">
-        <v>210.8988888888889</v>
+        <v>210.9</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -1133,7 +1133,7 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>176.2588888888889</v>
+        <v>176.26</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -1159,7 +1159,7 @@
         <v>264.83</v>
       </c>
       <c r="D27" t="n">
-        <v>243.1633333333333</v>
+        <v>243.16</v>
       </c>
       <c r="E27" t="n">
         <v>226.9</v>
@@ -1189,13 +1189,13 @@
         <v>292.7</v>
       </c>
       <c r="D28" t="n">
-        <v>270.2344444444444</v>
+        <v>270.23</v>
       </c>
       <c r="E28" t="n">
         <v>246.57</v>
       </c>
       <c r="F28" t="n">
-        <v>197.1133333333333</v>
+        <v>197.11</v>
       </c>
       <c r="G28" t="n">
         <v>217.82</v>
@@ -1219,13 +1219,13 @@
         <v>287.74</v>
       </c>
       <c r="D29" t="n">
-        <v>261.6011111111111</v>
+        <v>261.6</v>
       </c>
       <c r="E29" t="n">
         <v>239.15</v>
       </c>
       <c r="F29" t="n">
-        <v>207.4333333333333</v>
+        <v>207.43</v>
       </c>
       <c r="G29" t="n">
         <v>207.3</v>
@@ -1249,13 +1249,13 @@
         <v>294.03</v>
       </c>
       <c r="D30" t="n">
-        <v>282.2055555555555</v>
+        <v>282.21</v>
       </c>
       <c r="E30" t="n">
         <v>254.48</v>
       </c>
       <c r="F30" t="n">
-        <v>236.1066666666666</v>
+        <v>236.11</v>
       </c>
       <c r="G30" t="n">
         <v>170.44</v>
@@ -1275,13 +1275,13 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>239.3955555555555</v>
+        <v>239.4</v>
       </c>
       <c r="E31" t="n">
         <v>239.48</v>
       </c>
       <c r="F31" t="n">
-        <v>240.9166666666666</v>
+        <v>240.92</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
@@ -1301,7 +1301,7 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>278.5966666666667</v>
+        <v>278.6</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
@@ -1323,7 +1323,7 @@
         <v>277.15</v>
       </c>
       <c r="D33" t="n">
-        <v>256.8711111111111</v>
+        <v>256.87</v>
       </c>
       <c r="E33" t="n">
         <v>242.73</v>
@@ -1375,7 +1375,7 @@
         <v>267.34</v>
       </c>
       <c r="D35" t="n">
-        <v>255.0566666666666</v>
+        <v>255.06</v>
       </c>
       <c r="E35" t="n">
         <v>235.33</v>
@@ -1403,13 +1403,13 @@
         <v>274.66</v>
       </c>
       <c r="D36" t="n">
-        <v>273.3377777777778</v>
+        <v>273.34</v>
       </c>
       <c r="E36" t="n">
         <v>262.36</v>
       </c>
       <c r="F36" t="n">
-        <v>261.9933333333333</v>
+        <v>261.99</v>
       </c>
       <c r="G36" t="n">
         <v>248.68</v>
@@ -1453,13 +1453,13 @@
         <v>297.09</v>
       </c>
       <c r="D38" t="n">
-        <v>290.9355555555555</v>
+        <v>290.94</v>
       </c>
       <c r="E38" t="n">
         <v>260.1</v>
       </c>
       <c r="F38" t="n">
-        <v>251.6266666666666</v>
+        <v>251.63</v>
       </c>
       <c r="G38" t="n">
         <v>209.67</v>
@@ -1483,7 +1483,7 @@
         <v>268.31</v>
       </c>
       <c r="D39" t="n">
-        <v>252.5666666666666</v>
+        <v>252.57</v>
       </c>
       <c r="E39" t="n">
         <v>221.86</v>
@@ -1509,7 +1509,7 @@
         <v>247.85</v>
       </c>
       <c r="D40" t="n">
-        <v>227.3966666666666</v>
+        <v>227.4</v>
       </c>
       <c r="E40" t="n">
         <v>200.04</v>
@@ -1537,13 +1537,13 @@
         <v>274.82</v>
       </c>
       <c r="D41" t="n">
-        <v>256.8055555555555</v>
+        <v>256.81</v>
       </c>
       <c r="E41" t="n">
         <v>231.93</v>
       </c>
       <c r="F41" t="n">
-        <v>239.7866666666666</v>
+        <v>239.79</v>
       </c>
       <c r="G41" t="n">
         <v>222.57</v>
@@ -1567,7 +1567,7 @@
         <v>291.97</v>
       </c>
       <c r="D42" t="n">
-        <v>268.9733333333333</v>
+        <v>268.97</v>
       </c>
       <c r="E42" t="n">
         <v>265.09</v>
@@ -1589,13 +1589,13 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>256.0122222222222</v>
+        <v>256.01</v>
       </c>
       <c r="E43" t="n">
         <v>237.9</v>
       </c>
       <c r="F43" t="n">
-        <v>210.4966666666667</v>
+        <v>210.5</v>
       </c>
       <c r="G43" t="n">
         <v>228.71</v>
@@ -1615,13 +1615,13 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>231.7844444444445</v>
+        <v>231.78</v>
       </c>
       <c r="E44" t="n">
         <v>210.78</v>
       </c>
       <c r="F44" t="n">
-        <v>191.4533333333333</v>
+        <v>191.45</v>
       </c>
       <c r="G44" t="n">
         <v>200.48</v>
@@ -1643,7 +1643,7 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>167.9266666666666</v>
+        <v>167.93</v>
       </c>
       <c r="G45" t="n">
         <v>227.52</v>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>270.5711111111111</v>
+        <v>270.57</v>
       </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
@@ -1731,7 +1731,7 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
-        <v>194.9366666666667</v>
+        <v>194.94</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
@@ -1753,7 +1753,7 @@
         <v>271.55</v>
       </c>
       <c r="D50" t="n">
-        <v>243.5833333333333</v>
+        <v>243.58</v>
       </c>
       <c r="E50" t="n">
         <v>222.58</v>
@@ -1801,13 +1801,13 @@
         <v>248.58</v>
       </c>
       <c r="D52" t="n">
-        <v>240.2644444444445</v>
+        <v>240.26</v>
       </c>
       <c r="E52" t="n">
         <v>221.86</v>
       </c>
       <c r="F52" t="n">
-        <v>184.9833333333333</v>
+        <v>184.98</v>
       </c>
       <c r="G52" t="n">
         <v>179.62</v>
@@ -1831,13 +1831,13 @@
         <v>274.75</v>
       </c>
       <c r="D53" t="n">
-        <v>249.9377777777778</v>
+        <v>249.94</v>
       </c>
       <c r="E53" t="n">
         <v>229.31</v>
       </c>
       <c r="F53" t="n">
-        <v>191.7933333333333</v>
+        <v>191.79</v>
       </c>
       <c r="G53" t="n">
         <v>193.8</v>
@@ -1861,7 +1861,7 @@
         <v>269.21</v>
       </c>
       <c r="D54" t="n">
-        <v>249.0911111111111</v>
+        <v>249.09</v>
       </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
@@ -1885,7 +1885,7 @@
         <v>285.18</v>
       </c>
       <c r="D55" t="n">
-        <v>269.7333333333333</v>
+        <v>269.73</v>
       </c>
       <c r="E55" t="n">
         <v>259.67</v>
@@ -1909,7 +1909,7 @@
         <v>241.98</v>
       </c>
       <c r="D56" t="n">
-        <v>230.8333333333333</v>
+        <v>230.83</v>
       </c>
       <c r="E56" t="n">
         <v>284.44</v>
@@ -1935,13 +1935,13 @@
         <v>280.99</v>
       </c>
       <c r="D57" t="n">
-        <v>254.8722222222222</v>
+        <v>254.87</v>
       </c>
       <c r="E57" t="n">
         <v>238.27</v>
       </c>
       <c r="F57" t="n">
-        <v>218.0166666666667</v>
+        <v>218.02</v>
       </c>
       <c r="G57" t="n">
         <v>196.53</v>
@@ -1965,13 +1965,13 @@
         <v>278.61</v>
       </c>
       <c r="D58" t="n">
-        <v>262.0888888888889</v>
+        <v>262.09</v>
       </c>
       <c r="E58" t="n">
         <v>243.8</v>
       </c>
       <c r="F58" t="n">
-        <v>209.5566666666666</v>
+        <v>209.56</v>
       </c>
       <c r="G58" t="n">
         <v>202.95</v>
@@ -1993,13 +1993,13 @@
         <v>274.43</v>
       </c>
       <c r="D59" t="n">
-        <v>244.3544444444445</v>
+        <v>244.35</v>
       </c>
       <c r="E59" t="n">
         <v>219.04</v>
       </c>
       <c r="F59" t="n">
-        <v>174.2933333333334</v>
+        <v>174.29</v>
       </c>
       <c r="G59" t="n">
         <v>187</v>
@@ -2047,7 +2047,7 @@
         <v>249.34</v>
       </c>
       <c r="D61" t="n">
-        <v>239.1833333333333</v>
+        <v>239.18</v>
       </c>
       <c r="E61" t="n">
         <v>202.29</v>
@@ -2075,13 +2075,13 @@
         <v>250.06</v>
       </c>
       <c r="D62" t="n">
-        <v>238.7277777777778</v>
+        <v>238.73</v>
       </c>
       <c r="E62" t="n">
         <v>223.23</v>
       </c>
       <c r="F62" t="n">
-        <v>203.3033333333333</v>
+        <v>203.3</v>
       </c>
       <c r="G62" t="n">
         <v>226.78</v>
@@ -2105,13 +2105,13 @@
         <v>226.06</v>
       </c>
       <c r="D63" t="n">
-        <v>226.8111111111111</v>
+        <v>226.81</v>
       </c>
       <c r="E63" t="n">
         <v>200.44</v>
       </c>
       <c r="F63" t="n">
-        <v>177.0933333333333</v>
+        <v>177.09</v>
       </c>
       <c r="G63" t="n">
         <v>190.62</v>
@@ -2151,7 +2151,7 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>215.1766666666666</v>
+        <v>215.18</v>
       </c>
       <c r="E65" t="n">
         <v>208.33</v>
@@ -2205,13 +2205,13 @@
         <v>261.34</v>
       </c>
       <c r="D67" t="n">
-        <v>247.4288888888889</v>
+        <v>247.43</v>
       </c>
       <c r="E67" t="n">
         <v>221.02</v>
       </c>
       <c r="F67" t="n">
-        <v>189.5366666666666</v>
+        <v>189.54</v>
       </c>
       <c r="G67" t="n">
         <v>199.33</v>
@@ -2235,13 +2235,13 @@
         <v>267.88</v>
       </c>
       <c r="D68" t="n">
-        <v>258.9444444444445</v>
+        <v>258.94</v>
       </c>
       <c r="E68" t="n">
         <v>231.98</v>
       </c>
       <c r="F68" t="n">
-        <v>184.9033333333333</v>
+        <v>184.9</v>
       </c>
       <c r="G68" t="n">
         <v>220.81</v>
@@ -2265,7 +2265,7 @@
         <v>272.1</v>
       </c>
       <c r="D69" t="n">
-        <v>247.4233333333333</v>
+        <v>247.42</v>
       </c>
       <c r="E69" t="n">
         <v>226.11</v>
@@ -2295,13 +2295,13 @@
         <v>298.05</v>
       </c>
       <c r="D70" t="n">
-        <v>274.5055555555556</v>
+        <v>274.51</v>
       </c>
       <c r="E70" t="n">
         <v>253.97</v>
       </c>
       <c r="F70" t="n">
-        <v>221.9866666666667</v>
+        <v>221.99</v>
       </c>
       <c r="G70" t="n">
         <v>221.21</v>
@@ -2325,13 +2325,13 @@
         <v>285.69</v>
       </c>
       <c r="D71" t="n">
-        <v>260.4588888888889</v>
+        <v>260.46</v>
       </c>
       <c r="E71" t="n">
         <v>242.94</v>
       </c>
       <c r="F71" t="n">
-        <v>226.7566666666666</v>
+        <v>226.76</v>
       </c>
       <c r="G71" t="n">
         <v>208.13</v>
@@ -2355,13 +2355,13 @@
         <v>297.89</v>
       </c>
       <c r="D72" t="n">
-        <v>274.8655555555555</v>
+        <v>274.87</v>
       </c>
       <c r="E72" t="n">
         <v>263.91</v>
       </c>
       <c r="F72" t="n">
-        <v>222.0866666666666</v>
+        <v>222.09</v>
       </c>
       <c r="G72" t="n">
         <v>207.71</v>
@@ -2381,13 +2381,13 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>258.7744444444444</v>
+        <v>258.77</v>
       </c>
       <c r="E73" t="n">
         <v>238.68</v>
       </c>
       <c r="F73" t="n">
-        <v>219.8833333333333</v>
+        <v>219.88</v>
       </c>
       <c r="G73" t="n">
         <v>207.45</v>
@@ -2439,7 +2439,7 @@
         <v>304.5</v>
       </c>
       <c r="D75" t="n">
-        <v>289.2033333333333</v>
+        <v>289.2</v>
       </c>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
@@ -2505,13 +2505,13 @@
         <v>261.3</v>
       </c>
       <c r="D78" t="n">
-        <v>255.0255555555556</v>
+        <v>255.03</v>
       </c>
       <c r="E78" t="n">
         <v>227.62</v>
       </c>
       <c r="F78" t="n">
-        <v>192.2766666666667</v>
+        <v>192.28</v>
       </c>
       <c r="G78" t="n">
         <v>183.54</v>
@@ -2563,7 +2563,7 @@
         <v>265.46</v>
       </c>
       <c r="D80" t="n">
-        <v>266.5022222222222</v>
+        <v>266.5</v>
       </c>
       <c r="E80" t="n">
         <v>262.96</v>
@@ -2585,7 +2585,7 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>185.0488888888889</v>
+        <v>185.05</v>
       </c>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
@@ -2631,7 +2631,7 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
-        <v>195.6866666666667</v>
+        <v>195.69</v>
       </c>
       <c r="G83" t="n">
         <v>205.07</v>
@@ -2701,7 +2701,7 @@
         <v>230.73</v>
       </c>
       <c r="F86" t="n">
-        <v>207.2066666666666</v>
+        <v>207.21</v>
       </c>
       <c r="G86" t="n">
         <v>211.54</v>
@@ -2723,7 +2723,7 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
-        <v>236.7566666666666</v>
+        <v>236.76</v>
       </c>
       <c r="G87" t="n">
         <v>212.23</v>
@@ -2747,7 +2747,7 @@
         <v>244.61</v>
       </c>
       <c r="D88" t="n">
-        <v>237.2166666666667</v>
+        <v>237.22</v>
       </c>
       <c r="E88" t="n">
         <v>224.98</v>
@@ -2777,13 +2777,13 @@
         <v>289.14</v>
       </c>
       <c r="D89" t="n">
-        <v>272.4822222222222</v>
+        <v>272.48</v>
       </c>
       <c r="E89" t="n">
         <v>248.41</v>
       </c>
       <c r="F89" t="n">
-        <v>239.1266666666667</v>
+        <v>239.13</v>
       </c>
       <c r="G89" t="n">
         <v>233.48</v>
@@ -2807,13 +2807,13 @@
         <v>272.04</v>
       </c>
       <c r="D90" t="n">
-        <v>246.2688888888889</v>
+        <v>246.27</v>
       </c>
       <c r="E90" t="n">
         <v>223.21</v>
       </c>
       <c r="F90" t="n">
-        <v>195.3466666666666</v>
+        <v>195.35</v>
       </c>
       <c r="G90" t="n">
         <v>204.52</v>
@@ -2837,7 +2837,7 @@
         <v>253.09</v>
       </c>
       <c r="D91" t="n">
-        <v>231.6266666666667</v>
+        <v>231.63</v>
       </c>
       <c r="E91" t="n">
         <v>212.1</v>
@@ -2865,11 +2865,11 @@
         <v>253.96</v>
       </c>
       <c r="D92" t="n">
-        <v>243.8511111111111</v>
+        <v>243.85</v>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="n">
-        <v>173.7233333333333</v>
+        <v>173.72</v>
       </c>
       <c r="G92" t="n">
         <v>209.37</v>
@@ -2891,7 +2891,7 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
-        <v>204.8633333333333</v>
+        <v>204.86</v>
       </c>
       <c r="G93" t="n">
         <v>226.52</v>
@@ -2915,13 +2915,13 @@
         <v>265.32</v>
       </c>
       <c r="D94" t="n">
-        <v>247.0211111111111</v>
+        <v>247.02</v>
       </c>
       <c r="E94" t="n">
         <v>232.14</v>
       </c>
       <c r="F94" t="n">
-        <v>221.9833333333333</v>
+        <v>221.98</v>
       </c>
       <c r="G94" t="n">
         <v>210.24</v>
@@ -2943,7 +2943,7 @@
         <v>272.29</v>
       </c>
       <c r="D95" t="n">
-        <v>290.7344444444445</v>
+        <v>290.73</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
@@ -2967,13 +2967,13 @@
         <v>286.54</v>
       </c>
       <c r="D96" t="n">
-        <v>269.0122222222222</v>
+        <v>269.01</v>
       </c>
       <c r="E96" t="n">
         <v>243.53</v>
       </c>
       <c r="F96" t="n">
-        <v>207.5766666666667</v>
+        <v>207.58</v>
       </c>
       <c r="G96" t="n">
         <v>221.58</v>
@@ -2997,13 +2997,13 @@
         <v>281.05</v>
       </c>
       <c r="D97" t="n">
-        <v>257.2911111111111</v>
+        <v>257.29</v>
       </c>
       <c r="E97" t="n">
         <v>239.18</v>
       </c>
       <c r="F97" t="n">
-        <v>219.1233333333333</v>
+        <v>219.12</v>
       </c>
       <c r="G97" t="n">
         <v>220.85</v>
@@ -3023,13 +3023,13 @@
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>240.1777777777777</v>
+        <v>240.18</v>
       </c>
       <c r="E98" t="n">
         <v>232.58</v>
       </c>
       <c r="F98" t="n">
-        <v>210.8133333333333</v>
+        <v>210.81</v>
       </c>
       <c r="G98" t="n">
         <v>210.19</v>
@@ -3069,7 +3069,7 @@
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>221.3033333333333</v>
+        <v>221.3</v>
       </c>
       <c r="E100" t="n">
         <v>194.3</v>
@@ -3093,7 +3093,7 @@
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>226.4633333333333</v>
+        <v>226.46</v>
       </c>
       <c r="E101" t="n">
         <v>198.04</v>
@@ -3144,16 +3144,16 @@
         <v>268.63</v>
       </c>
       <c r="C103" t="n">
-        <v>252.4100000000001</v>
+        <v>252.41</v>
       </c>
       <c r="D103" t="n">
-        <v>225.0244444444445</v>
+        <v>225.02</v>
       </c>
       <c r="E103" t="n">
         <v>200.95</v>
       </c>
       <c r="F103" t="n">
-        <v>171.4433333333334</v>
+        <v>171.44</v>
       </c>
       <c r="G103" t="n">
         <v>186.62</v>
@@ -3177,7 +3177,7 @@
         <v>231.86</v>
       </c>
       <c r="D104" t="n">
-        <v>217.9666666666667</v>
+        <v>217.97</v>
       </c>
       <c r="E104" t="n">
         <v>196.72</v>
@@ -3186,7 +3186,7 @@
         <v>169.58</v>
       </c>
       <c r="G104" t="n">
-        <v>193.6600000000001</v>
+        <v>193.66</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         <v>273.22</v>
       </c>
       <c r="D105" t="n">
-        <v>249.0266666666667</v>
+        <v>249.03</v>
       </c>
       <c r="E105" t="n">
         <v>226.8</v>
@@ -3237,7 +3237,7 @@
         <v>271.54</v>
       </c>
       <c r="D106" t="n">
-        <v>242.3666666666667</v>
+        <v>242.37</v>
       </c>
       <c r="E106" t="n">
         <v>219.57</v>
@@ -3263,7 +3263,7 @@
         <v>243.71</v>
       </c>
       <c r="D107" t="n">
-        <v>229.6944444444445</v>
+        <v>229.69</v>
       </c>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
@@ -3287,13 +3287,13 @@
         <v>256.98</v>
       </c>
       <c r="D108" t="n">
-        <v>238.6322222222223</v>
+        <v>238.63</v>
       </c>
       <c r="E108" t="n">
         <v>223.38</v>
       </c>
       <c r="F108" t="n">
-        <v>209.9766666666666</v>
+        <v>209.98</v>
       </c>
       <c r="G108" t="n">
         <v>226.57</v>
@@ -3317,7 +3317,7 @@
         <v>258.73</v>
       </c>
       <c r="D109" t="n">
-        <v>232.3833333333333</v>
+        <v>232.38</v>
       </c>
       <c r="E109" t="n">
         <v>210.47</v>
@@ -3326,7 +3326,7 @@
         <v>171.33</v>
       </c>
       <c r="G109" t="n">
-        <v>209.9100000000001</v>
+        <v>209.91</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
-        <v>170.9833333333333</v>
+        <v>170.98</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
@@ -3365,7 +3365,7 @@
         <v>214.52</v>
       </c>
       <c r="D111" t="n">
-        <v>216.6922222222222</v>
+        <v>216.69</v>
       </c>
       <c r="E111" t="n">
         <v>198.68</v>
@@ -3387,11 +3387,11 @@
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>192.3511111111111</v>
+        <v>192.35</v>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
-        <v>150.3433333333333</v>
+        <v>150.34</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
@@ -3409,13 +3409,13 @@
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>221.1022222222223</v>
+        <v>221.1</v>
       </c>
       <c r="E113" t="n">
         <v>203.23</v>
       </c>
       <c r="F113" t="n">
-        <v>175.9266666666666</v>
+        <v>175.93</v>
       </c>
       <c r="G113" t="n">
         <v>195.71</v>
@@ -3439,7 +3439,7 @@
         <v>254.03</v>
       </c>
       <c r="D114" t="n">
-        <v>240.4033333333333</v>
+        <v>240.4</v>
       </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
@@ -3465,7 +3465,7 @@
         <v>264.31</v>
       </c>
       <c r="D115" t="n">
-        <v>234.1611111111112</v>
+        <v>234.16</v>
       </c>
       <c r="E115" t="n">
         <v>221.76</v>
@@ -3491,7 +3491,7 @@
         <v>259.94</v>
       </c>
       <c r="D116" t="n">
-        <v>256.6822222222222</v>
+        <v>256.68</v>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
@@ -3513,7 +3513,7 @@
         <v>264.68</v>
       </c>
       <c r="D117" t="n">
-        <v>277.2377777777777</v>
+        <v>277.24</v>
       </c>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
@@ -3537,13 +3537,13 @@
         <v>261.12</v>
       </c>
       <c r="D118" t="n">
-        <v>239.9522222222222</v>
+        <v>239.95</v>
       </c>
       <c r="E118" t="n">
         <v>234.6</v>
       </c>
       <c r="F118" t="n">
-        <v>212.7866666666666</v>
+        <v>212.79</v>
       </c>
       <c r="G118" t="n">
         <v>212.83</v>
@@ -3565,7 +3565,7 @@
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="n">
-        <v>247.4533333333333</v>
+        <v>247.45</v>
       </c>
       <c r="G119" t="n">
         <v>230.04</v>
@@ -3609,7 +3609,7 @@
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>261.8588888888889</v>
+        <v>261.86</v>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
@@ -3697,13 +3697,13 @@
         <v>287.53</v>
       </c>
       <c r="D125" t="n">
-        <v>262.1644444444444</v>
+        <v>262.16</v>
       </c>
       <c r="E125" t="n">
         <v>247.8</v>
       </c>
       <c r="F125" t="n">
-        <v>221.7033333333333</v>
+        <v>221.7</v>
       </c>
       <c r="G125" t="n">
         <v>237.53</v>
@@ -3727,7 +3727,7 @@
         <v>265.1</v>
       </c>
       <c r="F126" t="n">
-        <v>251.2766666666667</v>
+        <v>251.28</v>
       </c>
       <c r="G126" t="n">
         <v>236.41</v>
@@ -3751,7 +3751,7 @@
         <v>241.62</v>
       </c>
       <c r="F127" t="n">
-        <v>219.1366666666666</v>
+        <v>219.14</v>
       </c>
       <c r="G127" t="n">
         <v>211.42</v>
@@ -3815,7 +3815,7 @@
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>226.0388888888889</v>
+        <v>226.04</v>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
@@ -3839,7 +3839,7 @@
         <v>259.9</v>
       </c>
       <c r="D131" t="n">
-        <v>246.2833333333333</v>
+        <v>246.28</v>
       </c>
       <c r="E131" t="n">
         <v>213.88</v>
@@ -3869,7 +3869,7 @@
         <v>248.76</v>
       </c>
       <c r="F132" t="n">
-        <v>242.0033333333334</v>
+        <v>242</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
@@ -3891,13 +3891,13 @@
         <v>263.79</v>
       </c>
       <c r="D133" t="n">
-        <v>253.7777777777778</v>
+        <v>253.78</v>
       </c>
       <c r="E133" t="n">
         <v>237.42</v>
       </c>
       <c r="F133" t="n">
-        <v>210.5233333333333</v>
+        <v>210.52</v>
       </c>
       <c r="G133" t="n">
         <v>187.2</v>
@@ -3921,13 +3921,13 @@
         <v>266.54</v>
       </c>
       <c r="D134" t="n">
-        <v>259.2311111111111</v>
+        <v>259.23</v>
       </c>
       <c r="E134" t="n">
         <v>224.47</v>
       </c>
       <c r="F134" t="n">
-        <v>193.1433333333333</v>
+        <v>193.14</v>
       </c>
       <c r="G134" t="n">
         <v>226.47</v>
@@ -3951,7 +3951,7 @@
         <v>264.98</v>
       </c>
       <c r="D135" t="n">
-        <v>247.6366666666666</v>
+        <v>247.64</v>
       </c>
       <c r="E135" t="n">
         <v>225.19</v>
@@ -3981,7 +3981,7 @@
         <v>252.51</v>
       </c>
       <c r="D136" t="n">
-        <v>241.4266666666666</v>
+        <v>241.43</v>
       </c>
       <c r="E136" t="n">
         <v>214.03</v>
@@ -4009,13 +4009,13 @@
         <v>259.22</v>
       </c>
       <c r="D137" t="n">
-        <v>247.4977777777778</v>
+        <v>247.5</v>
       </c>
       <c r="E137" t="n">
         <v>244.23</v>
       </c>
       <c r="F137" t="n">
-        <v>255.3133333333334</v>
+        <v>255.31</v>
       </c>
       <c r="G137" t="n">
         <v>236.82</v>
@@ -4039,13 +4039,13 @@
         <v>268.23</v>
       </c>
       <c r="D138" t="n">
-        <v>252.1488888888889</v>
+        <v>252.15</v>
       </c>
       <c r="E138" t="n">
         <v>237.2</v>
       </c>
       <c r="F138" t="n">
-        <v>224.6466666666666</v>
+        <v>224.65</v>
       </c>
       <c r="G138" t="n">
         <v>201.04</v>
@@ -4093,13 +4093,13 @@
         <v>260.84</v>
       </c>
       <c r="D140" t="n">
-        <v>237.8411111111111</v>
+        <v>237.84</v>
       </c>
       <c r="E140" t="n">
         <v>221.28</v>
       </c>
       <c r="F140" t="n">
-        <v>198.0833333333333</v>
+        <v>198.08</v>
       </c>
       <c r="G140" t="n">
         <v>180.01</v>
@@ -4117,13 +4117,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>248.1600000000001</v>
+        <v>248.16</v>
       </c>
       <c r="C141" t="n">
         <v>237.57</v>
       </c>
       <c r="D141" t="n">
-        <v>218.9655555555556</v>
+        <v>218.97</v>
       </c>
       <c r="E141" t="n">
         <v>193.65</v>
@@ -4177,7 +4177,7 @@
         <v>206.93</v>
       </c>
       <c r="F143" t="n">
-        <v>165.1433333333334</v>
+        <v>165.14</v>
       </c>
       <c r="G143" t="n">
         <v>191.72</v>
@@ -4301,7 +4301,7 @@
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>252.7244444444445</v>
+        <v>252.72</v>
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr"/>
@@ -4323,7 +4323,7 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>238.5366666666666</v>
+        <v>238.54</v>
       </c>
       <c r="E150" t="n">
         <v>222.74</v>
@@ -4397,13 +4397,13 @@
         <v>246.56</v>
       </c>
       <c r="D153" t="n">
-        <v>231.4688888888889</v>
+        <v>231.47</v>
       </c>
       <c r="E153" t="n">
         <v>223.49</v>
       </c>
       <c r="F153" t="n">
-        <v>212.4166666666666</v>
+        <v>212.42</v>
       </c>
       <c r="G153" t="n">
         <v>223.01</v>
@@ -4449,7 +4449,7 @@
         <v>275.23</v>
       </c>
       <c r="D155" t="n">
-        <v>249.0766666666667</v>
+        <v>249.08</v>
       </c>
       <c r="E155" t="n">
         <v>228.78</v>
@@ -4515,13 +4515,13 @@
         <v>287.07</v>
       </c>
       <c r="D158" t="n">
-        <v>272.1144444444445</v>
+        <v>272.11</v>
       </c>
       <c r="E158" t="n">
         <v>289.42</v>
       </c>
       <c r="F158" t="n">
-        <v>213.3533333333333</v>
+        <v>213.35</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
@@ -4541,7 +4541,7 @@
         <v>322.91</v>
       </c>
       <c r="D159" t="n">
-        <v>298.7466666666667</v>
+        <v>298.75</v>
       </c>
       <c r="E159" t="n">
         <v>278.05</v>
@@ -4585,11 +4585,11 @@
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>255.2755555555556</v>
+        <v>255.28</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="n">
-        <v>206.0866666666666</v>
+        <v>206.09</v>
       </c>
       <c r="G161" t="n">
         <v>227.83</v>
@@ -4635,11 +4635,11 @@
         <v>249.07</v>
       </c>
       <c r="D163" t="n">
-        <v>228.8355555555556</v>
+        <v>228.84</v>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
-        <v>175.3866666666667</v>
+        <v>175.39</v>
       </c>
       <c r="G163" t="n">
         <v>198.4</v>
@@ -4751,7 +4751,7 @@
         <v>247.49</v>
       </c>
       <c r="F168" t="n">
-        <v>221.7266666666666</v>
+        <v>221.73</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr">
@@ -4773,7 +4773,7 @@
         <v>262.12</v>
       </c>
       <c r="D169" t="n">
-        <v>238.4066666666667</v>
+        <v>238.41</v>
       </c>
       <c r="E169" t="n">
         <v>218.89</v>
@@ -4803,13 +4803,13 @@
         <v>241.29</v>
       </c>
       <c r="D170" t="n">
-        <v>230.0288888888889</v>
+        <v>230.03</v>
       </c>
       <c r="E170" t="n">
         <v>209.45</v>
       </c>
       <c r="F170" t="n">
-        <v>177.2666666666667</v>
+        <v>177.27</v>
       </c>
       <c r="G170" t="n">
         <v>215.58</v>
@@ -4833,13 +4833,13 @@
         <v>248.52</v>
       </c>
       <c r="D171" t="n">
-        <v>226.6877777777778</v>
+        <v>226.69</v>
       </c>
       <c r="E171" t="n">
         <v>211</v>
       </c>
       <c r="F171" t="n">
-        <v>191.3033333333333</v>
+        <v>191.3</v>
       </c>
       <c r="G171" t="n">
         <v>200.33</v>
@@ -4885,7 +4885,7 @@
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
-        <v>166.5833333333333</v>
+        <v>166.58</v>
       </c>
       <c r="G173" t="n">
         <v>168.59</v>
@@ -4909,7 +4909,7 @@
         <v>269.29</v>
       </c>
       <c r="D174" t="n">
-        <v>248.6955555555556</v>
+        <v>248.7</v>
       </c>
       <c r="E174" t="n">
         <v>247.96</v>
@@ -4937,7 +4937,7 @@
         <v>275.19</v>
       </c>
       <c r="D175" t="n">
-        <v>268.2555555555556</v>
+        <v>268.26</v>
       </c>
       <c r="E175" t="n">
         <v>259.09</v>
@@ -4965,7 +4965,7 @@
         <v>291.02</v>
       </c>
       <c r="D176" t="n">
-        <v>280.2977777777777</v>
+        <v>280.3</v>
       </c>
       <c r="E176" t="n">
         <v>278.87</v>
@@ -4993,7 +4993,7 @@
         <v>251.28</v>
       </c>
       <c r="D177" t="n">
-        <v>234.0633333333333</v>
+        <v>234.06</v>
       </c>
       <c r="E177" t="n">
         <v>212.32</v>
@@ -5021,13 +5021,13 @@
         <v>274.73</v>
       </c>
       <c r="D178" t="n">
-        <v>257.3977777777778</v>
+        <v>257.4</v>
       </c>
       <c r="E178" t="n">
         <v>230.8</v>
       </c>
       <c r="F178" t="n">
-        <v>209.4233333333333</v>
+        <v>209.42</v>
       </c>
       <c r="G178" t="n">
         <v>212.11</v>
@@ -5051,7 +5051,7 @@
         <v>269.09</v>
       </c>
       <c r="D179" t="n">
-        <v>248.8033333333334</v>
+        <v>248.8</v>
       </c>
       <c r="E179" t="n">
         <v>232.96</v>
@@ -5077,7 +5077,7 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>265.5477777777777</v>
+        <v>265.55</v>
       </c>
       <c r="E180" t="n">
         <v>244.43</v>
@@ -5103,7 +5103,7 @@
         <v>248.98</v>
       </c>
       <c r="D181" t="n">
-        <v>223.3255555555556</v>
+        <v>223.33</v>
       </c>
       <c r="E181" t="n">
         <v>212.87</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>238.8233333333333</v>
+        <v>238.82</v>
       </c>
       <c r="E185" t="n">
         <v>232.14</v>
@@ -5215,13 +5215,13 @@
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>219.6244444444445</v>
+        <v>219.62</v>
       </c>
       <c r="E186" t="n">
         <v>215.06</v>
       </c>
       <c r="F186" t="n">
-        <v>204.6933333333334</v>
+        <v>204.69</v>
       </c>
       <c r="G186" t="n">
         <v>206.28</v>
@@ -5245,7 +5245,7 @@
         <v>213.65</v>
       </c>
       <c r="F187" t="n">
-        <v>180.0633333333333</v>
+        <v>180.06</v>
       </c>
       <c r="G187" t="n">
         <v>216.1</v>
@@ -5269,13 +5269,13 @@
         <v>228.8</v>
       </c>
       <c r="D188" t="n">
-        <v>207.7177777777778</v>
+        <v>207.72</v>
       </c>
       <c r="E188" t="n">
         <v>172.4</v>
       </c>
       <c r="F188" t="n">
-        <v>139.5233333333333</v>
+        <v>139.52</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
@@ -5295,13 +5295,13 @@
         <v>234.57</v>
       </c>
       <c r="D189" t="n">
-        <v>211.5744444444445</v>
+        <v>211.57</v>
       </c>
       <c r="E189" t="n">
         <v>175.56</v>
       </c>
       <c r="F189" t="n">
-        <v>138.6133333333333</v>
+        <v>138.61</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
@@ -5323,7 +5323,7 @@
         <v>242.2</v>
       </c>
       <c r="D190" t="n">
-        <v>217.4066666666667</v>
+        <v>217.41</v>
       </c>
       <c r="E190" t="n">
         <v>200.49</v>
@@ -5351,13 +5351,13 @@
         <v>235.62</v>
       </c>
       <c r="D191" t="n">
-        <v>212.4855555555555</v>
+        <v>212.49</v>
       </c>
       <c r="E191" t="n">
         <v>186.64</v>
       </c>
       <c r="F191" t="n">
-        <v>139.9666666666667</v>
+        <v>139.97</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
@@ -5379,7 +5379,7 @@
         <v>265.02</v>
       </c>
       <c r="D192" t="n">
-        <v>249.6966666666666</v>
+        <v>249.7</v>
       </c>
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
@@ -5403,13 +5403,13 @@
         <v>223.84</v>
       </c>
       <c r="D193" t="n">
-        <v>207.9711111111112</v>
+        <v>207.97</v>
       </c>
       <c r="E193" t="n">
         <v>188.28</v>
       </c>
       <c r="F193" t="n">
-        <v>160.1833333333333</v>
+        <v>160.18</v>
       </c>
       <c r="G193" t="n">
         <v>187.82</v>
@@ -5433,13 +5433,13 @@
         <v>240.88</v>
       </c>
       <c r="D194" t="n">
-        <v>224.2188888888889</v>
+        <v>224.22</v>
       </c>
       <c r="E194" t="n">
         <v>204.72</v>
       </c>
       <c r="F194" t="n">
-        <v>170.8566666666666</v>
+        <v>170.86</v>
       </c>
       <c r="G194" t="n">
         <v>198.31</v>
@@ -5463,13 +5463,13 @@
         <v>253.39</v>
       </c>
       <c r="D195" t="n">
-        <v>223.4188888888889</v>
+        <v>223.42</v>
       </c>
       <c r="E195" t="n">
         <v>204.38</v>
       </c>
       <c r="F195" t="n">
-        <v>170.3866666666667</v>
+        <v>170.39</v>
       </c>
       <c r="G195" t="n">
         <v>201.32</v>
@@ -5517,7 +5517,7 @@
         <v>221.78</v>
       </c>
       <c r="F197" t="n">
-        <v>174.9366666666667</v>
+        <v>174.94</v>
       </c>
       <c r="G197" t="n">
         <v>198.49</v>
@@ -5541,13 +5541,13 @@
         <v>277.75</v>
       </c>
       <c r="D198" t="n">
-        <v>251.4955555555556</v>
+        <v>251.5</v>
       </c>
       <c r="E198" t="n">
         <v>227.35</v>
       </c>
       <c r="F198" t="n">
-        <v>186.9766666666666</v>
+        <v>186.98</v>
       </c>
       <c r="G198" t="n">
         <v>227.75</v>
@@ -5567,11 +5567,11 @@
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="n">
-        <v>235.9144444444445</v>
+        <v>235.91</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
-        <v>199.0733333333333</v>
+        <v>199.07</v>
       </c>
       <c r="G199" t="n">
         <v>216.38</v>
@@ -5591,13 +5591,13 @@
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
-        <v>195.7988888888889</v>
+        <v>195.8</v>
       </c>
       <c r="E200" t="n">
         <v>168.47</v>
       </c>
       <c r="F200" t="n">
-        <v>170.9566666666666</v>
+        <v>170.96</v>
       </c>
       <c r="G200" t="n">
         <v>191.23</v>
@@ -5639,7 +5639,7 @@
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
-        <v>183.5633333333333</v>
+        <v>183.56</v>
       </c>
       <c r="G202" t="n">
         <v>165.52</v>
@@ -5683,7 +5683,7 @@
         <v>200.6</v>
       </c>
       <c r="F204" t="n">
-        <v>202.3233333333333</v>
+        <v>202.32</v>
       </c>
       <c r="G204" t="n">
         <v>206.85</v>
@@ -5707,13 +5707,13 @@
         <v>252.62</v>
       </c>
       <c r="D205" t="n">
-        <v>235.1488888888889</v>
+        <v>235.15</v>
       </c>
       <c r="E205" t="n">
         <v>215.68</v>
       </c>
       <c r="F205" t="n">
-        <v>196.0766666666667</v>
+        <v>196.08</v>
       </c>
       <c r="G205" t="n">
         <v>203.38</v>
@@ -5737,7 +5737,7 @@
         <v>241.57</v>
       </c>
       <c r="D206" t="n">
-        <v>211.9522222222222</v>
+        <v>211.95</v>
       </c>
       <c r="E206" t="n">
         <v>192.19</v>
@@ -5763,13 +5763,13 @@
         <v>226.84</v>
       </c>
       <c r="D207" t="n">
-        <v>199.8011111111111</v>
+        <v>199.8</v>
       </c>
       <c r="E207" t="n">
         <v>180.3</v>
       </c>
       <c r="F207" t="n">
-        <v>178.9033333333333</v>
+        <v>178.9</v>
       </c>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
@@ -5791,13 +5791,13 @@
         <v>246.8</v>
       </c>
       <c r="D208" t="n">
-        <v>228.3788888888889</v>
+        <v>228.38</v>
       </c>
       <c r="E208" t="n">
         <v>214.01</v>
       </c>
       <c r="F208" t="n">
-        <v>199.3366666666666</v>
+        <v>199.34</v>
       </c>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr">
@@ -5819,13 +5819,13 @@
         <v>254.24</v>
       </c>
       <c r="D209" t="n">
-        <v>225.1644444444445</v>
+        <v>225.16</v>
       </c>
       <c r="E209" t="n">
         <v>203</v>
       </c>
       <c r="F209" t="n">
-        <v>173.6333333333334</v>
+        <v>173.63</v>
       </c>
       <c r="G209" t="n">
         <v>183.64</v>
@@ -5849,7 +5849,7 @@
         <v>260.51</v>
       </c>
       <c r="D210" t="n">
-        <v>239.3166666666666</v>
+        <v>239.32</v>
       </c>
       <c r="E210" t="n">
         <v>211.3</v>
@@ -5879,13 +5879,13 @@
         <v>264.32</v>
       </c>
       <c r="D211" t="n">
-        <v>242.5911111111111</v>
+        <v>242.59</v>
       </c>
       <c r="E211" t="n">
         <v>224.99</v>
       </c>
       <c r="F211" t="n">
-        <v>196.5033333333333</v>
+        <v>196.5</v>
       </c>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr">
@@ -5907,7 +5907,7 @@
         <v>271.07</v>
       </c>
       <c r="D212" t="n">
-        <v>253.6733333333333</v>
+        <v>253.67</v>
       </c>
       <c r="E212" t="n">
         <v>236.95</v>
@@ -5937,7 +5937,7 @@
         <v>266.76</v>
       </c>
       <c r="D213" t="n">
-        <v>247.1266666666667</v>
+        <v>247.13</v>
       </c>
       <c r="E213" t="n">
         <v>229.21</v>
@@ -5967,13 +5967,13 @@
         <v>279.46</v>
       </c>
       <c r="D214" t="n">
-        <v>264.4744444444444</v>
+        <v>264.47</v>
       </c>
       <c r="E214" t="n">
-        <v>255.1600000000001</v>
+        <v>255.16</v>
       </c>
       <c r="F214" t="n">
-        <v>239.6733333333333</v>
+        <v>239.67</v>
       </c>
       <c r="G214" t="n">
         <v>244.26</v>
@@ -5995,13 +5995,13 @@
         <v>278.86</v>
       </c>
       <c r="D215" t="n">
-        <v>268.5511111111111</v>
+        <v>268.55</v>
       </c>
       <c r="E215" t="n">
         <v>254.37</v>
       </c>
       <c r="F215" t="n">
-        <v>245.8133333333334</v>
+        <v>245.81</v>
       </c>
       <c r="G215" t="n">
         <v>238.57</v>
@@ -6025,7 +6025,7 @@
         <v>250.97</v>
       </c>
       <c r="D216" t="n">
-        <v>227.8666666666666</v>
+        <v>227.87</v>
       </c>
       <c r="E216" t="n">
         <v>214.82</v>
@@ -6055,13 +6055,13 @@
         <v>259.4</v>
       </c>
       <c r="D217" t="n">
-        <v>227.8455555555556</v>
+        <v>227.85</v>
       </c>
       <c r="E217" t="n">
         <v>202.99</v>
       </c>
       <c r="F217" t="n">
-        <v>173.5366666666667</v>
+        <v>173.54</v>
       </c>
       <c r="G217" t="n">
         <v>201.6</v>
@@ -6085,7 +6085,7 @@
         <v>272.14</v>
       </c>
       <c r="D218" t="n">
-        <v>240.7077777777777</v>
+        <v>240.71</v>
       </c>
       <c r="E218" t="n">
         <v>216.37</v>
@@ -6113,7 +6113,7 @@
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="n">
-        <v>196.7066666666666</v>
+        <v>196.71</v>
       </c>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr">
@@ -6131,7 +6131,7 @@
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="n">
-        <v>202.5833333333333</v>
+        <v>202.58</v>
       </c>
       <c r="E220" t="n">
         <v>187.34</v>
@@ -6155,13 +6155,13 @@
         <v>232.77</v>
       </c>
       <c r="D221" t="n">
-        <v>212.9488888888889</v>
+        <v>212.95</v>
       </c>
       <c r="E221" t="n">
         <v>186.55</v>
       </c>
       <c r="F221" t="n">
-        <v>177.6566666666667</v>
+        <v>177.66</v>
       </c>
       <c r="G221" t="n">
         <v>184.59</v>
@@ -6285,13 +6285,13 @@
         <v>250.4</v>
       </c>
       <c r="D227" t="n">
-        <v>233.3311111111112</v>
+        <v>233.33</v>
       </c>
       <c r="E227" t="n">
         <v>206.53</v>
       </c>
       <c r="F227" t="n">
-        <v>189.3633333333333</v>
+        <v>189.36</v>
       </c>
       <c r="G227" t="n">
         <v>210.44</v>
@@ -6315,13 +6315,13 @@
         <v>252.06</v>
       </c>
       <c r="D228" t="n">
-        <v>232.5922222222222</v>
+        <v>232.59</v>
       </c>
       <c r="E228" t="n">
         <v>218.8</v>
       </c>
       <c r="F228" t="n">
-        <v>197.0366666666666</v>
+        <v>197.04</v>
       </c>
       <c r="G228" t="n">
         <v>194.31</v>
@@ -6345,7 +6345,7 @@
         <v>257.11</v>
       </c>
       <c r="D229" t="n">
-        <v>225.9777777777778</v>
+        <v>225.98</v>
       </c>
       <c r="E229" t="n">
         <v>215.83</v>
@@ -6369,7 +6369,7 @@
         <v>240.84</v>
       </c>
       <c r="D230" t="n">
-        <v>236.0266666666667</v>
+        <v>236.03</v>
       </c>
       <c r="E230" t="n">
         <v>213.2</v>
@@ -6397,14 +6397,14 @@
         <v>252.46</v>
       </c>
       <c r="D231" t="n">
-        <v>223.2355555555555</v>
+        <v>223.24</v>
       </c>
       <c r="E231" t="n">
         <v>217.79</v>
       </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="n">
-        <v>237.9100000000001</v>
+        <v>237.91</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>251.13</v>
       </c>
       <c r="D233" t="n">
-        <v>234.4355555555556</v>
+        <v>234.44</v>
       </c>
       <c r="E233" t="n">
         <v>218.55</v>
@@ -6477,7 +6477,7 @@
         <v>179.78</v>
       </c>
       <c r="F234" t="n">
-        <v>147.3433333333333</v>
+        <v>147.34</v>
       </c>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr">
@@ -6495,7 +6495,7 @@
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="n">
-        <v>250.6966666666666</v>
+        <v>250.7</v>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr"/>
@@ -6519,12 +6519,12 @@
         <v>292.86</v>
       </c>
       <c r="D236" t="n">
-        <v>287.9066666666667</v>
+        <v>287.91</v>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="n">
-        <v>256.6900000000001</v>
+        <v>256.69</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
@@ -6545,11 +6545,11 @@
         <v>264.91</v>
       </c>
       <c r="D237" t="n">
-        <v>243.9044444444445</v>
+        <v>243.9</v>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="n">
-        <v>205.6333333333333</v>
+        <v>205.63</v>
       </c>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
@@ -6571,7 +6571,7 @@
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="n">
-        <v>227.1466666666666</v>
+        <v>227.15</v>
       </c>
       <c r="G238" t="n">
         <v>217.17</v>
@@ -6595,11 +6595,11 @@
         <v>276.15</v>
       </c>
       <c r="D239" t="n">
-        <v>253.4488888888889</v>
+        <v>253.45</v>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="n">
-        <v>198.9966666666667</v>
+        <v>199</v>
       </c>
       <c r="G239" t="n">
         <v>197.48</v>
@@ -6643,13 +6643,13 @@
         <v>260.45</v>
       </c>
       <c r="D241" t="n">
-        <v>250.8122222222222</v>
+        <v>250.81</v>
       </c>
       <c r="E241" t="n">
         <v>230.32</v>
       </c>
       <c r="F241" t="n">
-        <v>203.1166666666666</v>
+        <v>203.12</v>
       </c>
       <c r="G241" t="n">
         <v>215.49</v>
@@ -6671,7 +6671,7 @@
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="n">
-        <v>181.7733333333333</v>
+        <v>181.77</v>
       </c>
       <c r="G242" t="n">
         <v>220.33</v>
@@ -6735,13 +6735,13 @@
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="n">
-        <v>217.6488888888889</v>
+        <v>217.65</v>
       </c>
       <c r="E245" t="n">
         <v>200.45</v>
       </c>
       <c r="F245" t="n">
-        <v>185.7966666666667</v>
+        <v>185.8</v>
       </c>
       <c r="G245" t="n">
         <v>197.83</v>
@@ -6761,7 +6761,7 @@
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="n">
-        <v>221.1866666666667</v>
+        <v>221.19</v>
       </c>
       <c r="E246" t="n">
         <v>217.13</v>
@@ -6791,7 +6791,7 @@
         <v>254.85</v>
       </c>
       <c r="D247" t="n">
-        <v>236.5433333333333</v>
+        <v>236.54</v>
       </c>
       <c r="E247" t="n">
         <v>216.39</v>
@@ -6821,7 +6821,7 @@
         <v>243.29</v>
       </c>
       <c r="D248" t="n">
-        <v>228.2555555555556</v>
+        <v>228.26</v>
       </c>
       <c r="E248" t="n">
         <v>240</v>
@@ -6847,13 +6847,13 @@
         <v>259.75</v>
       </c>
       <c r="D249" t="n">
-        <v>225.4755555555556</v>
+        <v>225.48</v>
       </c>
       <c r="E249" t="n">
         <v>207.03</v>
       </c>
       <c r="F249" t="n">
-        <v>166.5166666666667</v>
+        <v>166.52</v>
       </c>
       <c r="G249" t="n">
         <v>195.14</v>
@@ -6877,13 +6877,13 @@
         <v>281.49</v>
       </c>
       <c r="D250" t="n">
-        <v>245.0844444444444</v>
+        <v>245.08</v>
       </c>
       <c r="E250" t="n">
         <v>223.07</v>
       </c>
       <c r="F250" t="n">
-        <v>193.4233333333333</v>
+        <v>193.42</v>
       </c>
       <c r="G250" t="n">
         <v>246.85</v>
@@ -6907,7 +6907,7 @@
         <v>286.32</v>
       </c>
       <c r="D251" t="n">
-        <v>258.2366666666667</v>
+        <v>258.24</v>
       </c>
       <c r="E251" t="n">
         <v>236.45</v>
@@ -6959,7 +6959,7 @@
         <v>278.04</v>
       </c>
       <c r="D253" t="n">
-        <v>256.7866666666667</v>
+        <v>256.79</v>
       </c>
       <c r="E253" t="n">
         <v>236.94</v>
@@ -6985,7 +6985,7 @@
         <v>273.46</v>
       </c>
       <c r="D254" t="n">
-        <v>249.1033333333333</v>
+        <v>249.1</v>
       </c>
       <c r="E254" t="n">
         <v>228.4</v>
@@ -7013,7 +7013,7 @@
       <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>162.1233333333333</v>
+        <v>162.12</v>
       </c>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr">
@@ -7065,7 +7065,7 @@
         <v>274.5</v>
       </c>
       <c r="D257" t="n">
-        <v>260.0666666666667</v>
+        <v>260.07</v>
       </c>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr"/>
@@ -7089,13 +7089,13 @@
         <v>263.06</v>
       </c>
       <c r="D258" t="n">
-        <v>246.7422222222222</v>
+        <v>246.74</v>
       </c>
       <c r="E258" t="n">
         <v>232.89</v>
       </c>
       <c r="F258" t="n">
-        <v>203.2766666666667</v>
+        <v>203.28</v>
       </c>
       <c r="G258" t="n">
         <v>223.24</v>
@@ -7119,13 +7119,13 @@
         <v>262.08</v>
       </c>
       <c r="D259" t="n">
-        <v>243.8588888888889</v>
+        <v>243.86</v>
       </c>
       <c r="E259" t="n">
         <v>234.36</v>
       </c>
       <c r="F259" t="n">
-        <v>188.0966666666666</v>
+        <v>188.1</v>
       </c>
       <c r="G259" t="n">
         <v>221.23</v>
@@ -7149,13 +7149,13 @@
         <v>243.31</v>
       </c>
       <c r="D260" t="n">
-        <v>224.4555555555555</v>
+        <v>224.46</v>
       </c>
       <c r="E260" t="n">
         <v>213.51</v>
       </c>
       <c r="F260" t="n">
-        <v>170.7866666666667</v>
+        <v>170.79</v>
       </c>
       <c r="G260" t="n">
         <v>195.03</v>
@@ -7179,7 +7179,7 @@
         <v>241.24</v>
       </c>
       <c r="D261" t="n">
-        <v>231.7644444444445</v>
+        <v>231.76</v>
       </c>
       <c r="E261" t="n">
         <v>224.1</v>
@@ -7210,7 +7210,7 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="n">
-        <v>230.6600000000001</v>
+        <v>230.66</v>
       </c>
       <c r="H262" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
       <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>147.0133333333333</v>
+        <v>147.01</v>
       </c>
       <c r="G263" t="n">
         <v>203.42</v>
@@ -7273,7 +7273,7 @@
       <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="n">
-        <v>143.3066666666667</v>
+        <v>143.31</v>
       </c>
       <c r="G265" t="n">
         <v>204.16</v>
@@ -7293,7 +7293,7 @@
       <c r="B266" t="inlineStr"/>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="n">
-        <v>251.2011111111111</v>
+        <v>251.2</v>
       </c>
       <c r="E266" t="n">
         <v>228.48</v>
@@ -7345,13 +7345,13 @@
         <v>261.94</v>
       </c>
       <c r="D268" t="n">
-        <v>245.7477777777778</v>
+        <v>245.75</v>
       </c>
       <c r="E268" t="n">
         <v>228.8</v>
       </c>
       <c r="F268" t="n">
-        <v>199.2333333333333</v>
+        <v>199.23</v>
       </c>
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr">
@@ -7373,7 +7373,7 @@
         <v>297.91</v>
       </c>
       <c r="D269" t="n">
-        <v>281.8133333333333</v>
+        <v>281.81</v>
       </c>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
@@ -7399,13 +7399,13 @@
         <v>244.88</v>
       </c>
       <c r="D270" t="n">
-        <v>226.4888888888889</v>
+        <v>226.49</v>
       </c>
       <c r="E270" t="n">
         <v>210.57</v>
       </c>
       <c r="F270" t="n">
-        <v>184.0666666666666</v>
+        <v>184.07</v>
       </c>
       <c r="G270" t="n">
         <v>191.47</v>
@@ -7429,13 +7429,13 @@
         <v>265.88</v>
       </c>
       <c r="D271" t="n">
-        <v>245.3255555555556</v>
+        <v>245.33</v>
       </c>
       <c r="E271" t="n">
         <v>226.59</v>
       </c>
       <c r="F271" t="n">
-        <v>196.2266666666666</v>
+        <v>196.23</v>
       </c>
       <c r="G271" t="n">
         <v>220.83</v>
@@ -7485,13 +7485,13 @@
         <v>267.47</v>
       </c>
       <c r="D273" t="n">
-        <v>234.3688888888889</v>
+        <v>234.37</v>
       </c>
       <c r="E273" t="n">
         <v>209.47</v>
       </c>
       <c r="F273" t="n">
-        <v>169.2566666666667</v>
+        <v>169.26</v>
       </c>
       <c r="G273" t="n">
         <v>203.99</v>
@@ -7545,7 +7545,7 @@
         <v>287.84</v>
       </c>
       <c r="D275" t="n">
-        <v>266.6666666666667</v>
+        <v>266.67</v>
       </c>
       <c r="E275" t="n">
         <v>240.36</v>
@@ -7575,7 +7575,7 @@
         <v>260.81</v>
       </c>
       <c r="D276" t="n">
-        <v>237.9544444444444</v>
+        <v>237.95</v>
       </c>
       <c r="E276" t="n">
         <v>223.87</v>
@@ -7603,7 +7603,7 @@
         <v>284.9</v>
       </c>
       <c r="D277" t="n">
-        <v>272.2733333333333</v>
+        <v>272.27</v>
       </c>
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr"/>
@@ -7703,7 +7703,7 @@
       <c r="B282" t="inlineStr"/>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="n">
-        <v>247.9166666666666</v>
+        <v>247.92</v>
       </c>
       <c r="E282" t="n">
         <v>261.49</v>
@@ -7775,7 +7775,7 @@
         <v>232.19</v>
       </c>
       <c r="D285" t="n">
-        <v>227.8644444444445</v>
+        <v>227.86</v>
       </c>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
@@ -7797,13 +7797,13 @@
         <v>258.57</v>
       </c>
       <c r="D286" t="n">
-        <v>247.9755555555556</v>
+        <v>247.98</v>
       </c>
       <c r="E286" t="n">
         <v>280.81</v>
       </c>
       <c r="F286" t="n">
-        <v>277.8966666666667</v>
+        <v>277.9</v>
       </c>
       <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr">
@@ -7855,13 +7855,13 @@
         <v>273.64</v>
       </c>
       <c r="D288" t="n">
-        <v>260.2955555555556</v>
+        <v>260.3</v>
       </c>
       <c r="E288" t="n">
         <v>246.27</v>
       </c>
       <c r="F288" t="n">
-        <v>229.0966666666666</v>
+        <v>229.1</v>
       </c>
       <c r="G288" t="n">
         <v>227.71</v>
@@ -7945,7 +7945,7 @@
         <v>198.67</v>
       </c>
       <c r="F291" t="n">
-        <v>157.2133333333333</v>
+        <v>157.21</v>
       </c>
       <c r="G291" t="n">
         <v>170.01</v>
@@ -7969,7 +7969,7 @@
         <v>170.27</v>
       </c>
       <c r="F292" t="n">
-        <v>158.1066666666666</v>
+        <v>158.11</v>
       </c>
       <c r="G292" t="n">
         <v>204.17</v>
@@ -7991,7 +7991,7 @@
       <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="n">
-        <v>187.7666666666667</v>
+        <v>187.77</v>
       </c>
       <c r="G293" t="n">
         <v>218.58</v>
@@ -8013,7 +8013,7 @@
       <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="n">
-        <v>210.5766666666667</v>
+        <v>210.58</v>
       </c>
       <c r="G294" t="n">
         <v>215.08</v>
@@ -8057,11 +8057,11 @@
         <v>277.19</v>
       </c>
       <c r="D296" t="n">
-        <v>264.8122222222222</v>
+        <v>264.81</v>
       </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="n">
-        <v>250.0666666666666</v>
+        <v>250.07</v>
       </c>
       <c r="G296" t="n">
         <v>231.21</v>
@@ -8081,7 +8081,7 @@
       <c r="B297" t="inlineStr"/>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="n">
-        <v>213.4866666666667</v>
+        <v>213.49</v>
       </c>
       <c r="E297" t="n">
         <v>203.45</v>
@@ -8141,7 +8141,7 @@
         <v>255.79</v>
       </c>
       <c r="D299" t="n">
-        <v>220.9655555555556</v>
+        <v>220.97</v>
       </c>
       <c r="E299" t="n">
         <v>196.83</v>
@@ -8193,7 +8193,7 @@
         <v>207.9</v>
       </c>
       <c r="F301" t="n">
-        <v>197.7233333333333</v>
+        <v>197.72</v>
       </c>
       <c r="G301" t="n">
         <v>189.16</v>
@@ -8217,13 +8217,13 @@
         <v>260.85</v>
       </c>
       <c r="D302" t="n">
-        <v>239.6077777777778</v>
+        <v>239.61</v>
       </c>
       <c r="E302" t="n">
         <v>211.92</v>
       </c>
       <c r="F302" t="n">
-        <v>198.4133333333334</v>
+        <v>198.41</v>
       </c>
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr">
@@ -8245,7 +8245,7 @@
         <v>278.73</v>
       </c>
       <c r="D303" t="n">
-        <v>252.3133333333333</v>
+        <v>252.31</v>
       </c>
       <c r="E303" t="n">
         <v>233.76</v>
@@ -8273,7 +8273,7 @@
         <v>270.48</v>
       </c>
       <c r="D304" t="n">
-        <v>248.2488888888889</v>
+        <v>248.25</v>
       </c>
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
@@ -8297,7 +8297,7 @@
         <v>290.01</v>
       </c>
       <c r="D305" t="n">
-        <v>273.9133333333333</v>
+        <v>273.91</v>
       </c>
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
@@ -8321,7 +8321,7 @@
         <v>241.22</v>
       </c>
       <c r="D306" t="n">
-        <v>208.0366666666666</v>
+        <v>208.04</v>
       </c>
       <c r="E306" t="n">
         <v>203.11</v>
@@ -8351,13 +8351,13 @@
         <v>266.4</v>
       </c>
       <c r="D307" t="n">
-        <v>242.6377777777778</v>
+        <v>242.64</v>
       </c>
       <c r="E307" t="n">
         <v>222.12</v>
       </c>
       <c r="F307" t="n">
-        <v>202.4633333333333</v>
+        <v>202.46</v>
       </c>
       <c r="G307" t="n">
         <v>202.8</v>
@@ -8377,13 +8377,13 @@
       <c r="B308" t="inlineStr"/>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="n">
-        <v>224.0522222222222</v>
+        <v>224.05</v>
       </c>
       <c r="E308" t="n">
         <v>202.32</v>
       </c>
       <c r="F308" t="n">
-        <v>169.3566666666666</v>
+        <v>169.36</v>
       </c>
       <c r="G308" t="n">
         <v>170.09</v>
@@ -8405,7 +8405,7 @@
       <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="n">
-        <v>166.4966666666667</v>
+        <v>166.5</v>
       </c>
       <c r="G309" t="n">
         <v>207.45</v>
@@ -8483,13 +8483,13 @@
         <v>263.8</v>
       </c>
       <c r="D312" t="n">
-        <v>236.2711111111111</v>
+        <v>236.27</v>
       </c>
       <c r="E312" t="n">
         <v>210.59</v>
       </c>
       <c r="F312" t="n">
-        <v>176.7833333333333</v>
+        <v>176.78</v>
       </c>
       <c r="G312" t="n">
         <v>185.25</v>
@@ -8509,7 +8509,7 @@
       <c r="B313" t="inlineStr"/>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="n">
-        <v>240.0244444444444</v>
+        <v>240.02</v>
       </c>
       <c r="E313" t="n">
         <v>222.84</v>
@@ -8537,7 +8537,7 @@
         <v>267.09</v>
       </c>
       <c r="D314" t="n">
-        <v>255.9877777777777</v>
+        <v>255.99</v>
       </c>
       <c r="E314" t="n">
         <v>251.59</v>
@@ -8561,7 +8561,7 @@
       <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="n">
-        <v>198.5733333333333</v>
+        <v>198.57</v>
       </c>
       <c r="G315" t="n">
         <v>187.08</v>
@@ -8585,13 +8585,13 @@
         <v>250.93</v>
       </c>
       <c r="D316" t="n">
-        <v>225.6844444444445</v>
+        <v>225.68</v>
       </c>
       <c r="E316" t="n">
         <v>207.87</v>
       </c>
       <c r="F316" t="n">
-        <v>184.9133333333334</v>
+        <v>184.91</v>
       </c>
       <c r="G316" t="n">
         <v>192.58</v>
@@ -8615,13 +8615,13 @@
         <v>272.73</v>
       </c>
       <c r="D317" t="n">
-        <v>256.5122222222222</v>
+        <v>256.51</v>
       </c>
       <c r="E317" t="n">
         <v>236.33</v>
       </c>
       <c r="F317" t="n">
-        <v>230.4966666666667</v>
+        <v>230.5</v>
       </c>
       <c r="G317" t="n">
         <v>240</v>
@@ -8699,13 +8699,13 @@
         <v>258.74</v>
       </c>
       <c r="D320" t="n">
-        <v>240.1255555555556</v>
+        <v>240.13</v>
       </c>
       <c r="E320" t="n">
         <v>218.19</v>
       </c>
       <c r="F320" t="n">
-        <v>189.7066666666666</v>
+        <v>189.71</v>
       </c>
       <c r="G320" t="n">
         <v>209.52</v>
@@ -8757,13 +8757,13 @@
         <v>276.98</v>
       </c>
       <c r="D322" t="n">
-        <v>254.9022222222222</v>
+        <v>254.9</v>
       </c>
       <c r="E322" t="n">
         <v>232.53</v>
       </c>
       <c r="F322" t="n">
-        <v>207.6866666666667</v>
+        <v>207.69</v>
       </c>
       <c r="G322" t="n">
         <v>222.96</v>
@@ -8787,13 +8787,13 @@
         <v>278.79</v>
       </c>
       <c r="D323" t="n">
-        <v>257.2122222222222</v>
+        <v>257.21</v>
       </c>
       <c r="E323" t="n">
         <v>235.28</v>
       </c>
       <c r="F323" t="n">
-        <v>207.4466666666666</v>
+        <v>207.45</v>
       </c>
       <c r="G323" t="n">
         <v>229.4</v>
@@ -8817,7 +8817,7 @@
         <v>247.83</v>
       </c>
       <c r="D324" t="n">
-        <v>232.6066666666666</v>
+        <v>232.61</v>
       </c>
       <c r="E324" t="n">
         <v>231.75</v>
@@ -8845,13 +8845,13 @@
         <v>234.37</v>
       </c>
       <c r="D325" t="n">
-        <v>212.5888888888889</v>
+        <v>212.59</v>
       </c>
       <c r="E325" t="n">
         <v>204.99</v>
       </c>
       <c r="F325" t="n">
-        <v>186.1666666666666</v>
+        <v>186.17</v>
       </c>
       <c r="G325" t="n">
         <v>175.81</v>
@@ -8875,13 +8875,13 @@
         <v>270.36</v>
       </c>
       <c r="D326" t="n">
-        <v>246.2511111111111</v>
+        <v>246.25</v>
       </c>
       <c r="E326" t="n">
         <v>278.64</v>
       </c>
       <c r="F326" t="n">
-        <v>257.4933333333333</v>
+        <v>257.49</v>
       </c>
       <c r="G326" t="n">
         <v>222.35</v>
@@ -8905,13 +8905,13 @@
         <v>281.42</v>
       </c>
       <c r="D327" t="n">
-        <v>255.9011111111111</v>
+        <v>255.9</v>
       </c>
       <c r="E327" t="n">
         <v>243.06</v>
       </c>
       <c r="F327" t="n">
-        <v>227.8033333333333</v>
+        <v>227.8</v>
       </c>
       <c r="G327" t="n">
         <v>236.6</v>
@@ -8935,13 +8935,13 @@
         <v>289.78</v>
       </c>
       <c r="D328" t="n">
-        <v>269.1455555555556</v>
+        <v>269.15</v>
       </c>
       <c r="E328" t="n">
         <v>258.51</v>
       </c>
       <c r="F328" t="n">
-        <v>230.2566666666666</v>
+        <v>230.26</v>
       </c>
       <c r="G328" t="n">
         <v>253.01</v>
@@ -8965,13 +8965,13 @@
         <v>273.57</v>
       </c>
       <c r="D329" t="n">
-        <v>253.8422222222222</v>
+        <v>253.84</v>
       </c>
       <c r="E329" t="n">
         <v>238.69</v>
       </c>
       <c r="F329" t="n">
-        <v>207.6466666666666</v>
+        <v>207.65</v>
       </c>
       <c r="G329" t="n">
         <v>227.36</v>
@@ -8995,7 +8995,7 @@
         <v>270.54</v>
       </c>
       <c r="D330" t="n">
-        <v>248.2133333333333</v>
+        <v>248.21</v>
       </c>
       <c r="E330" t="n">
         <v>237.51</v>
@@ -9023,13 +9023,13 @@
         <v>276.73</v>
       </c>
       <c r="D331" t="n">
-        <v>246.3411111111112</v>
+        <v>246.34</v>
       </c>
       <c r="E331" t="n">
         <v>225.85</v>
       </c>
       <c r="F331" t="n">
-        <v>207.4633333333333</v>
+        <v>207.46</v>
       </c>
       <c r="G331" t="n">
         <v>235.36</v>
@@ -9051,7 +9051,7 @@
       <c r="D332" t="inlineStr"/>
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="n">
-        <v>168.6066666666666</v>
+        <v>168.61</v>
       </c>
       <c r="G332" t="n">
         <v>249.01</v>
@@ -9073,13 +9073,13 @@
         <v>253.92</v>
       </c>
       <c r="D333" t="n">
-        <v>222.1755555555555</v>
+        <v>222.18</v>
       </c>
       <c r="E333" t="n">
         <v>241.85</v>
       </c>
       <c r="F333" t="n">
-        <v>209.5766666666667</v>
+        <v>209.58</v>
       </c>
       <c r="G333" t="n">
         <v>225.17</v>
@@ -9103,13 +9103,13 @@
         <v>284.19</v>
       </c>
       <c r="D334" t="n">
-        <v>259.0688888888889</v>
+        <v>259.07</v>
       </c>
       <c r="E334" t="n">
         <v>243.6</v>
       </c>
       <c r="F334" t="n">
-        <v>215.2466666666667</v>
+        <v>215.25</v>
       </c>
       <c r="G334" t="n">
         <v>226.04</v>
@@ -9151,13 +9151,13 @@
         <v>248.69</v>
       </c>
       <c r="D336" t="n">
-        <v>242.2522222222222</v>
+        <v>242.25</v>
       </c>
       <c r="E336" t="n">
         <v>213.68</v>
       </c>
       <c r="F336" t="n">
-        <v>211.3266666666667</v>
+        <v>211.33</v>
       </c>
       <c r="G336" t="n">
         <v>222.61</v>
@@ -9207,13 +9207,13 @@
         <v>242.45</v>
       </c>
       <c r="D338" t="n">
-        <v>253.3922222222222</v>
+        <v>253.39</v>
       </c>
       <c r="E338" t="n">
         <v>242.5</v>
       </c>
       <c r="F338" t="n">
-        <v>240.8466666666666</v>
+        <v>240.85</v>
       </c>
       <c r="G338" t="n">
         <v>234.92</v>
@@ -9285,13 +9285,13 @@
         <v>227.46</v>
       </c>
       <c r="D341" t="n">
-        <v>225.8177777777778</v>
+        <v>225.82</v>
       </c>
       <c r="E341" t="n">
         <v>226.41</v>
       </c>
       <c r="F341" t="n">
-        <v>222.1033333333333</v>
+        <v>222.1</v>
       </c>
       <c r="G341" t="inlineStr"/>
       <c r="H341" t="inlineStr">
@@ -9313,13 +9313,13 @@
         <v>224.42</v>
       </c>
       <c r="D342" t="n">
-        <v>209.9055555555556</v>
+        <v>209.91</v>
       </c>
       <c r="E342" t="n">
         <v>218.15</v>
       </c>
       <c r="F342" t="n">
-        <v>228.0266666666667</v>
+        <v>228.03</v>
       </c>
       <c r="G342" t="n">
         <v>203.83</v>
@@ -9339,7 +9339,7 @@
       <c r="B343" t="inlineStr"/>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="n">
-        <v>232.7355555555555</v>
+        <v>232.74</v>
       </c>
       <c r="E343" t="n">
         <v>216.54</v>
@@ -9397,13 +9397,13 @@
         <v>274.24</v>
       </c>
       <c r="D345" t="n">
-        <v>259.1455555555555</v>
+        <v>259.15</v>
       </c>
       <c r="E345" t="n">
         <v>256.51</v>
       </c>
       <c r="F345" t="n">
-        <v>265.8766666666667</v>
+        <v>265.88</v>
       </c>
       <c r="G345" t="n">
         <v>239.43</v>
@@ -9427,13 +9427,13 @@
         <v>274.06</v>
       </c>
       <c r="D346" t="n">
-        <v>265.6788888888889</v>
+        <v>265.68</v>
       </c>
       <c r="E346" t="n">
         <v>272.38</v>
       </c>
       <c r="F346" t="n">
-        <v>289.7466666666667</v>
+        <v>289.75</v>
       </c>
       <c r="G346" t="n">
         <v>274.14</v>
@@ -9479,13 +9479,13 @@
         <v>241.46</v>
       </c>
       <c r="D348" t="n">
-        <v>218.9788888888889</v>
+        <v>218.98</v>
       </c>
       <c r="E348" t="n">
         <v>193.74</v>
       </c>
       <c r="F348" t="n">
-        <v>153.5666666666667</v>
+        <v>153.57</v>
       </c>
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr">
@@ -9507,13 +9507,13 @@
         <v>248.54</v>
       </c>
       <c r="D349" t="n">
-        <v>233.0011111111111</v>
+        <v>233</v>
       </c>
       <c r="E349" t="n">
         <v>215.63</v>
       </c>
       <c r="F349" t="n">
-        <v>182.2033333333333</v>
+        <v>182.2</v>
       </c>
       <c r="G349" t="inlineStr"/>
       <c r="H349" t="inlineStr">
@@ -9535,13 +9535,13 @@
         <v>238.05</v>
       </c>
       <c r="D350" t="n">
-        <v>217.1155555555556</v>
+        <v>217.12</v>
       </c>
       <c r="E350" t="n">
         <v>190.99</v>
       </c>
       <c r="F350" t="n">
-        <v>145.9866666666667</v>
+        <v>145.99</v>
       </c>
       <c r="G350" t="inlineStr"/>
       <c r="H350" t="inlineStr">
@@ -9563,13 +9563,13 @@
         <v>261.76</v>
       </c>
       <c r="D351" t="n">
-        <v>233.9088888888889</v>
+        <v>233.91</v>
       </c>
       <c r="E351" t="n">
         <v>211.59</v>
       </c>
       <c r="F351" t="n">
-        <v>173.5266666666667</v>
+        <v>173.53</v>
       </c>
       <c r="G351" t="inlineStr"/>
       <c r="H351" t="inlineStr">
@@ -9591,13 +9591,13 @@
         <v>254.78</v>
       </c>
       <c r="D352" t="n">
-        <v>245.3444444444444</v>
+        <v>245.34</v>
       </c>
       <c r="E352" t="n">
         <v>224.02</v>
       </c>
       <c r="F352" t="n">
-        <v>190.8633333333333</v>
+        <v>190.86</v>
       </c>
       <c r="G352" t="n">
         <v>198.74</v>
@@ -9621,7 +9621,7 @@
         <v>274.21</v>
       </c>
       <c r="D353" t="n">
-        <v>244.7633333333333</v>
+        <v>244.76</v>
       </c>
       <c r="E353" t="n">
         <v>223.47</v>
@@ -9681,13 +9681,13 @@
         <v>268.09</v>
       </c>
       <c r="D355" t="n">
-        <v>277.1011111111111</v>
+        <v>277.1</v>
       </c>
       <c r="E355" t="n">
         <v>271.19</v>
       </c>
       <c r="F355" t="n">
-        <v>261.4633333333333</v>
+        <v>261.46</v>
       </c>
       <c r="G355" t="n">
         <v>242.81</v>
@@ -9711,16 +9711,16 @@
         <v>282.59</v>
       </c>
       <c r="D356" t="n">
-        <v>257.5111111111111</v>
+        <v>257.51</v>
       </c>
       <c r="E356" t="n">
         <v>247.07</v>
       </c>
       <c r="F356" t="n">
-        <v>226.7933333333333</v>
+        <v>226.79</v>
       </c>
       <c r="G356" t="n">
-        <v>216.4100000000001</v>
+        <v>216.41</v>
       </c>
       <c r="H356" t="inlineStr">
         <is>
@@ -9741,13 +9741,13 @@
         <v>260.51</v>
       </c>
       <c r="D357" t="n">
-        <v>238.0988888888889</v>
+        <v>238.1</v>
       </c>
       <c r="E357" t="n">
         <v>215.28</v>
       </c>
       <c r="F357" t="n">
-        <v>177.9966666666667</v>
+        <v>178</v>
       </c>
       <c r="G357" t="n">
         <v>200.84</v>
@@ -9771,13 +9771,13 @@
         <v>270.45</v>
       </c>
       <c r="D358" t="n">
-        <v>252.1944444444445</v>
+        <v>252.19</v>
       </c>
       <c r="E358" t="n">
         <v>233.74</v>
       </c>
       <c r="F358" t="n">
-        <v>183.7133333333333</v>
+        <v>183.71</v>
       </c>
       <c r="G358" t="n">
         <v>221.89</v>
@@ -9801,7 +9801,7 @@
         <v>236.17</v>
       </c>
       <c r="F359" t="n">
-        <v>181.7066666666666</v>
+        <v>181.71</v>
       </c>
       <c r="G359" t="n">
         <v>192.53</v>
@@ -9825,13 +9825,13 @@
         <v>264.86</v>
       </c>
       <c r="D360" t="n">
-        <v>247.0944444444445</v>
+        <v>247.09</v>
       </c>
       <c r="E360" t="n">
         <v>218.19</v>
       </c>
       <c r="F360" t="n">
-        <v>190.3033333333333</v>
+        <v>190.3</v>
       </c>
       <c r="G360" t="n">
         <v>208.68</v>
@@ -9855,7 +9855,7 @@
         <v>284.29</v>
       </c>
       <c r="D361" t="n">
-        <v>264.6222222222222</v>
+        <v>264.62</v>
       </c>
       <c r="E361" t="n">
         <v>247.95</v>
@@ -9905,7 +9905,7 @@
         <v>231.37</v>
       </c>
       <c r="D363" t="n">
-        <v>220.2233333333333</v>
+        <v>220.22</v>
       </c>
       <c r="E363" t="n">
         <v>214.92</v>
@@ -9953,13 +9953,13 @@
         <v>270.13</v>
       </c>
       <c r="D365" t="n">
-        <v>251.8788888888889</v>
+        <v>251.88</v>
       </c>
       <c r="E365" t="n">
         <v>239.69</v>
       </c>
       <c r="F365" t="n">
-        <v>201.8766666666667</v>
+        <v>201.88</v>
       </c>
       <c r="G365" t="n">
         <v>227.57</v>
@@ -10007,13 +10007,13 @@
         <v>285.24</v>
       </c>
       <c r="D367" t="n">
-        <v>257.9911111111111</v>
+        <v>257.99</v>
       </c>
       <c r="E367" t="n">
         <v>235.96</v>
       </c>
       <c r="F367" t="n">
-        <v>202.1133333333333</v>
+        <v>202.11</v>
       </c>
       <c r="G367" t="n">
         <v>231.3</v>
@@ -10037,13 +10037,13 @@
         <v>243.11</v>
       </c>
       <c r="D368" t="n">
-        <v>235.7155555555556</v>
+        <v>235.72</v>
       </c>
       <c r="E368" t="n">
         <v>244.38</v>
       </c>
       <c r="F368" t="n">
-        <v>196.6266666666667</v>
+        <v>196.63</v>
       </c>
       <c r="G368" t="n">
         <v>242.97</v>
@@ -10067,13 +10067,13 @@
         <v>254.44</v>
       </c>
       <c r="D369" t="n">
-        <v>230.6177777777777</v>
+        <v>230.62</v>
       </c>
       <c r="E369" t="n">
         <v>215.79</v>
       </c>
       <c r="F369" t="n">
-        <v>198.7833333333333</v>
+        <v>198.78</v>
       </c>
       <c r="G369" t="n">
         <v>209.14</v>
@@ -10139,13 +10139,13 @@
         <v>217.84</v>
       </c>
       <c r="D372" t="n">
-        <v>195.1555555555556</v>
+        <v>195.16</v>
       </c>
       <c r="E372" t="n">
         <v>155.39</v>
       </c>
       <c r="F372" t="n">
-        <v>145.9466666666667</v>
+        <v>145.95</v>
       </c>
       <c r="G372" t="inlineStr"/>
       <c r="H372" t="inlineStr">
@@ -10165,7 +10165,7 @@
       </c>
       <c r="C373" t="inlineStr"/>
       <c r="D373" t="n">
-        <v>236.6366666666666</v>
+        <v>236.64</v>
       </c>
       <c r="E373" t="n">
         <v>209.02</v>
@@ -10195,7 +10195,7 @@
         <v>185.14</v>
       </c>
       <c r="F374" t="n">
-        <v>146.7733333333333</v>
+        <v>146.77</v>
       </c>
       <c r="G374" t="n">
         <v>218.71</v>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="C375" t="inlineStr"/>
       <c r="D375" t="n">
-        <v>244.9222222222222</v>
+        <v>244.92</v>
       </c>
       <c r="E375" t="n">
         <v>223.54</v>
@@ -10263,13 +10263,13 @@
         <v>231.1</v>
       </c>
       <c r="D377" t="n">
-        <v>216.0977777777778</v>
+        <v>216.1</v>
       </c>
       <c r="E377" t="n">
         <v>185.49</v>
       </c>
       <c r="F377" t="n">
-        <v>132.3033333333333</v>
+        <v>132.3</v>
       </c>
       <c r="G377" t="inlineStr"/>
       <c r="H377" t="inlineStr">
@@ -10291,13 +10291,13 @@
         <v>258.68</v>
       </c>
       <c r="D378" t="n">
-        <v>230.5777777777778</v>
+        <v>230.58</v>
       </c>
       <c r="E378" t="n">
         <v>205.71</v>
       </c>
       <c r="F378" t="n">
-        <v>175.1233333333333</v>
+        <v>175.12</v>
       </c>
       <c r="G378" t="inlineStr"/>
       <c r="H378" t="inlineStr">
@@ -10319,7 +10319,7 @@
         <v>250.88</v>
       </c>
       <c r="D379" t="n">
-        <v>227.3466666666666</v>
+        <v>227.35</v>
       </c>
       <c r="E379" t="n">
         <v>212.79</v>
@@ -10349,13 +10349,13 @@
         <v>256.13</v>
       </c>
       <c r="D380" t="n">
-        <v>248.3144444444445</v>
+        <v>248.31</v>
       </c>
       <c r="E380" t="n">
         <v>244.43</v>
       </c>
       <c r="F380" t="n">
-        <v>233.4833333333333</v>
+        <v>233.48</v>
       </c>
       <c r="G380" t="n">
         <v>214.07</v>
@@ -10379,7 +10379,7 @@
         <v>256.77</v>
       </c>
       <c r="D381" t="n">
-        <v>248.2533333333333</v>
+        <v>248.25</v>
       </c>
       <c r="E381" t="n">
         <v>241.01</v>
@@ -10388,7 +10388,7 @@
         <v>213.32</v>
       </c>
       <c r="G381" t="n">
-        <v>238.4100000000001</v>
+        <v>238.41</v>
       </c>
       <c r="H381" t="inlineStr">
         <is>
@@ -10409,13 +10409,13 @@
         <v>251.01</v>
       </c>
       <c r="D382" t="n">
-        <v>240.2977777777777</v>
+        <v>240.3</v>
       </c>
       <c r="E382" t="n">
         <v>222.51</v>
       </c>
       <c r="F382" t="n">
-        <v>213.3033333333333</v>
+        <v>213.3</v>
       </c>
       <c r="G382" t="n">
         <v>224.83</v>
@@ -10463,13 +10463,13 @@
         <v>245.32</v>
       </c>
       <c r="D384" t="n">
-        <v>232.1688888888889</v>
+        <v>232.17</v>
       </c>
       <c r="E384" t="n">
         <v>216.6</v>
       </c>
       <c r="F384" t="n">
-        <v>216.6066666666666</v>
+        <v>216.61</v>
       </c>
       <c r="G384" t="n">
         <v>204.87</v>
@@ -10541,13 +10541,13 @@
         <v>235.37</v>
       </c>
       <c r="D387" t="n">
-        <v>219.3444444444444</v>
+        <v>219.34</v>
       </c>
       <c r="E387" t="n">
         <v>215.99</v>
       </c>
       <c r="F387" t="n">
-        <v>203.0533333333333</v>
+        <v>203.05</v>
       </c>
       <c r="G387" t="n">
         <v>212.49</v>
@@ -10617,7 +10617,7 @@
       <c r="D390" t="inlineStr"/>
       <c r="E390" t="inlineStr"/>
       <c r="F390" t="n">
-        <v>199.2233333333333</v>
+        <v>199.22</v>
       </c>
       <c r="G390" t="n">
         <v>213.61</v>
@@ -10641,7 +10641,7 @@
         <v>271.65</v>
       </c>
       <c r="D391" t="n">
-        <v>245.0744444444445</v>
+        <v>245.07</v>
       </c>
       <c r="E391" t="n">
         <v>227.6</v>
@@ -10667,13 +10667,13 @@
         <v>242.8</v>
       </c>
       <c r="D392" t="n">
-        <v>220.4777777777778</v>
+        <v>220.48</v>
       </c>
       <c r="E392" t="n">
         <v>198.68</v>
       </c>
       <c r="F392" t="n">
-        <v>151.9033333333333</v>
+        <v>151.9</v>
       </c>
       <c r="G392" t="inlineStr"/>
       <c r="H392" t="inlineStr">
@@ -10695,7 +10695,7 @@
         <v>250.28</v>
       </c>
       <c r="D393" t="n">
-        <v>226.5211111111111</v>
+        <v>226.52</v>
       </c>
       <c r="E393" t="n">
         <v>205.85</v>
@@ -10721,13 +10721,13 @@
         <v>245.83</v>
       </c>
       <c r="D394" t="n">
-        <v>227.5188888888889</v>
+        <v>227.52</v>
       </c>
       <c r="E394" t="n">
         <v>217.32</v>
       </c>
       <c r="F394" t="n">
-        <v>187.6866666666667</v>
+        <v>187.69</v>
       </c>
       <c r="G394" t="inlineStr"/>
       <c r="H394" t="inlineStr">
@@ -10749,7 +10749,7 @@
         <v>253.01</v>
       </c>
       <c r="D395" t="n">
-        <v>234.0033333333333</v>
+        <v>234</v>
       </c>
       <c r="E395" t="n">
         <v>211.89</v>
@@ -10779,7 +10779,7 @@
         <v>255.8</v>
       </c>
       <c r="D396" t="n">
-        <v>239.6155555555556</v>
+        <v>239.62</v>
       </c>
       <c r="E396" t="n">
         <v>223.09</v>
@@ -10809,7 +10809,7 @@
         <v>259.91</v>
       </c>
       <c r="F397" t="n">
-        <v>247.4333333333334</v>
+        <v>247.43</v>
       </c>
       <c r="G397" t="n">
         <v>220.94</v>
@@ -10833,7 +10833,7 @@
         <v>252.62</v>
       </c>
       <c r="D398" t="n">
-        <v>233.9122222222222</v>
+        <v>233.91</v>
       </c>
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr"/>
@@ -10857,13 +10857,13 @@
         <v>274.11</v>
       </c>
       <c r="D399" t="n">
-        <v>263.0211111111111</v>
+        <v>263.02</v>
       </c>
       <c r="E399" t="n">
         <v>260.31</v>
       </c>
       <c r="F399" t="n">
-        <v>252.3633333333333</v>
+        <v>252.36</v>
       </c>
       <c r="G399" t="n">
         <v>246.05</v>
@@ -10887,7 +10887,7 @@
         <v>257.91</v>
       </c>
       <c r="D400" t="n">
-        <v>235.3911111111111</v>
+        <v>235.39</v>
       </c>
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr"/>
@@ -10909,13 +10909,13 @@
         <v>278.97</v>
       </c>
       <c r="D401" t="n">
-        <v>259.2844444444444</v>
+        <v>259.28</v>
       </c>
       <c r="E401" t="n">
         <v>270.54</v>
       </c>
       <c r="F401" t="n">
-        <v>272.3333333333333</v>
+        <v>272.33</v>
       </c>
       <c r="G401" t="n">
         <v>251.69</v>
@@ -10933,7 +10933,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>285.9299999999999</v>
+        <v>285.93</v>
       </c>
       <c r="C402" t="n">
         <v>265.66</v>
@@ -10967,13 +10967,13 @@
         <v>268.15</v>
       </c>
       <c r="D403" t="n">
-        <v>250.0011111111111</v>
+        <v>250</v>
       </c>
       <c r="E403" t="n">
         <v>215.66</v>
       </c>
       <c r="F403" t="n">
-        <v>183.1333333333333</v>
+        <v>183.13</v>
       </c>
       <c r="G403" t="n">
         <v>190.01</v>
@@ -10997,13 +10997,13 @@
         <v>275.11</v>
       </c>
       <c r="D404" t="n">
-        <v>250.1322222222223</v>
+        <v>250.13</v>
       </c>
       <c r="E404" t="n">
         <v>235.32</v>
       </c>
       <c r="F404" t="n">
-        <v>209.6266666666667</v>
+        <v>209.63</v>
       </c>
       <c r="G404" t="n">
         <v>218.51</v>
@@ -11027,13 +11027,13 @@
         <v>250.46</v>
       </c>
       <c r="D405" t="n">
-        <v>230.2977777777778</v>
+        <v>230.3</v>
       </c>
       <c r="E405" t="n">
         <v>212.24</v>
       </c>
       <c r="F405" t="n">
-        <v>181.5133333333333</v>
+        <v>181.51</v>
       </c>
       <c r="G405" t="inlineStr"/>
       <c r="H405" t="inlineStr">
@@ -11083,13 +11083,13 @@
         <v>272.75</v>
       </c>
       <c r="D407" t="n">
-        <v>255.8444444444445</v>
+        <v>255.84</v>
       </c>
       <c r="E407" t="n">
         <v>241.98</v>
       </c>
       <c r="F407" t="n">
-        <v>200.4033333333333</v>
+        <v>200.4</v>
       </c>
       <c r="G407" t="n">
         <v>228.47</v>
@@ -11113,7 +11113,7 @@
         <v>238.18</v>
       </c>
       <c r="D408" t="n">
-        <v>223.0744444444445</v>
+        <v>223.07</v>
       </c>
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr"/>
@@ -11155,11 +11155,11 @@
       </c>
       <c r="C410" t="inlineStr"/>
       <c r="D410" t="n">
-        <v>222.0388888888889</v>
+        <v>222.04</v>
       </c>
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="n">
-        <v>189.7366666666667</v>
+        <v>189.74</v>
       </c>
       <c r="G410" t="inlineStr"/>
       <c r="H410" t="inlineStr">
@@ -11201,13 +11201,13 @@
         <v>246.72</v>
       </c>
       <c r="D412" t="n">
-        <v>223.0611111111111</v>
+        <v>223.06</v>
       </c>
       <c r="E412" t="n">
         <v>223.2</v>
       </c>
       <c r="F412" t="n">
-        <v>227.2333333333333</v>
+        <v>227.23</v>
       </c>
       <c r="G412" t="n">
         <v>247.64</v>
@@ -11231,13 +11231,13 @@
         <v>260.24</v>
       </c>
       <c r="D413" t="n">
-        <v>245.0522222222222</v>
+        <v>245.05</v>
       </c>
       <c r="E413" t="n">
         <v>232.09</v>
       </c>
       <c r="F413" t="n">
-        <v>228.6566666666667</v>
+        <v>228.66</v>
       </c>
       <c r="G413" t="n">
         <v>224.65</v>
@@ -11261,13 +11261,13 @@
         <v>250.28</v>
       </c>
       <c r="D414" t="n">
-        <v>218.9855555555555</v>
+        <v>218.99</v>
       </c>
       <c r="E414" t="n">
         <v>214.92</v>
       </c>
       <c r="F414" t="n">
-        <v>183.3266666666667</v>
+        <v>183.33</v>
       </c>
       <c r="G414" t="n">
         <v>178.2</v>
@@ -11288,10 +11288,10 @@
         <v>268.73</v>
       </c>
       <c r="C415" t="n">
-        <v>245.9100000000001</v>
+        <v>245.91</v>
       </c>
       <c r="D415" t="n">
-        <v>232.2833333333333</v>
+        <v>232.28</v>
       </c>
       <c r="E415" t="n">
         <v>217.38</v>
@@ -11317,13 +11317,13 @@
         <v>227.21</v>
       </c>
       <c r="D416" t="n">
-        <v>214.2088888888889</v>
+        <v>214.21</v>
       </c>
       <c r="E416" t="n">
         <v>211.64</v>
       </c>
       <c r="F416" t="n">
-        <v>206.7166666666667</v>
+        <v>206.72</v>
       </c>
       <c r="G416" t="n">
         <v>191.37</v>
@@ -16693,7 +16693,7 @@
         <v>283</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01344903923072649</v>
+        <v>0.0134490392307266</v>
       </c>
       <c r="M3" t="n">
         <v>15.24059587023834</v>
@@ -16756,7 +16756,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>-0.2766703609554956</v>
+        <v>-0.2766678798802349</v>
       </c>
       <c r="J4" t="n">
         <v>415</v>
@@ -16765,19 +16765,19 @@
         <v>302</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01166818550424675</v>
+        <v>0.01166828720452706</v>
       </c>
       <c r="M4" t="n">
-        <v>15.42458114814747</v>
+        <v>15.42430801948656</v>
       </c>
       <c r="N4" t="n">
-        <v>377.999073828578</v>
+        <v>377.9889608935272</v>
       </c>
       <c r="O4" t="n">
-        <v>19.44219827665015</v>
+        <v>19.44193819796594</v>
       </c>
       <c r="P4" t="n">
-        <v>245.4199770291826</v>
+        <v>245.4200433250548</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -16843,16 +16843,16 @@
         <v>289</v>
       </c>
       <c r="L5" t="n">
-        <v>0.009250601817377135</v>
+        <v>0.009250601817377357</v>
       </c>
       <c r="M5" t="n">
         <v>17.30628630967858</v>
       </c>
       <c r="N5" t="n">
-        <v>509.5710616766045</v>
+        <v>509.5710616766044</v>
       </c>
       <c r="O5" t="n">
-        <v>22.57368072948239</v>
+        <v>22.57368072948238</v>
       </c>
       <c r="P5" t="n">
         <v>228.4218712576737</v>
@@ -16912,7 +16912,7 @@
         <v>0.0376</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.2762647968004361</v>
+        <v>-0.2762716924522091</v>
       </c>
       <c r="J6" t="n">
         <v>415</v>
@@ -16921,19 +16921,19 @@
         <v>273</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004726886126991459</v>
+        <v>0.004727067256372841</v>
       </c>
       <c r="M6" t="n">
-        <v>22.62049758736753</v>
+        <v>22.62052475904372</v>
       </c>
       <c r="N6" t="n">
-        <v>870.4608796899329</v>
+        <v>870.4708201957736</v>
       </c>
       <c r="O6" t="n">
-        <v>29.50357401553129</v>
+        <v>29.5037424777904</v>
       </c>
       <c r="P6" t="n">
-        <v>203.7917421406275</v>
+        <v>203.7919693893382</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -16999,7 +16999,7 @@
         <v>291</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01776193763565537</v>
+        <v>0.01776193763565515</v>
       </c>
       <c r="M7" t="n">
         <v>16.03915954342848</v>
@@ -17117,7 +17117,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-46.542196687503115,169.6143300315843</t>
+          <t>-46.542196689675805,169.61433004571745</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -17147,7 +17147,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-46.54216656944047,169.6141341181751</t>
+          <t>-46.542166575958625,169.61413416057442</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -17177,7 +17177,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-46.54211078214596,169.61377123662152</t>
+          <t>-46.5421107864915,169.6137712648877</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -17259,7 +17259,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-46.542133635171496,169.61391988850184</t>
+          <t>-46.54213362648052,169.61391983196944</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -17297,7 +17297,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-46.542177941427056,169.61420809093525</t>
+          <t>-46.54217793708164,169.614208062669</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -17307,7 +17307,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-46.543301174621824,169.6132815856551</t>
+          <t>-46.54330118114028,169.61328162805523</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -17335,7 +17335,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-46.54214535493223,169.61399612246208</t>
+          <t>-46.542145359277704,169.6139961507283</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -17345,7 +17345,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-46.54336028330264,169.61366607045707</t>
+          <t>-46.54336027678432,169.61366602805685</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -17373,7 +17373,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-46.54220293833937,169.6143706926207</t>
+          <t>-46.542202947030134,169.61437074915327</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -17383,7 +17383,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-46.54330846875924,169.61332903140385</t>
+          <t>-46.54330847527766,169.613329073804</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -17457,7 +17457,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-46.542227435309854,169.61453004384276</t>
+          <t>-46.54222742879184,169.61453000144328</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -17499,7 +17499,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-46.542190082502515,169.61428706685751</t>
+          <t>-46.54219008032981,169.6142870527244</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -17509,7 +17509,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-46.543320058510545,169.61340441886853</t>
+          <t>-46.54332005199214,169.61340437646837</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -17567,7 +17567,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-46.54213929516601,169.61395670523197</t>
+          <t>-46.54213929733875,169.6139567193651</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -17577,7 +17577,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-46.543229366422246,169.6128145065261</t>
+          <t>-46.54322937294087,169.6128145489261</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -17609,7 +17609,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-46.54215964063152,169.61408904766566</t>
+          <t>-46.54215963411333,169.6140890052663</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -17647,13 +17647,13 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-46.54216415337612,169.6141184021478</t>
+          <t>-46.54216415120339,169.61411838801467</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-46.543313448838354,169.6133614251133</t>
+          <t>-46.54331344231993,169.61336138271318</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-46.542199596740105,169.6143489558541</t>
+          <t>-46.54219960325819,169.6143489982535</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -17769,7 +17769,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-46.5421722185035,169.6141708642879</t>
+          <t>-46.54217222719437,169.61417092082038</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -17779,7 +17779,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-46.5433744084463,169.6137579517738</t>
+          <t>-46.54337441496458,169.61375799417408</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>-46.54216210449973,169.61410507461866</t>
+          <t>-46.54216209798156,169.6141050322193</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -17845,7 +17845,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-46.54214748203954,169.61400995877423</t>
+          <t>-46.54214749073048,169.61401001530666</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -17855,7 +17855,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-46.54340151131033,169.61393425211006</t>
+          <t>-46.54340151782853,169.61393429451033</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -17883,7 +17883,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-46.54212148950087,169.6138408844908</t>
+          <t>-46.542121482982616,169.61384084209152</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-46.54211817604831,169.61381933152484</t>
+          <t>-46.54211817822107,169.61381934565793</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -17969,7 +17969,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-46.542050437337494,169.6133787188582</t>
+          <t>-46.5420504395103,169.61337873299124</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -18003,7 +18003,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-46.54218126784373,169.61422972875124</t>
+          <t>-46.54218126132562,169.61422968635185</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -18045,7 +18045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-46.54223420317047,169.6145740686202</t>
+          <t>-46.54223419447982,169.61457401208756</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -18055,7 +18055,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-46.54330472717553,169.6133046937258</t>
+          <t>-46.54330472065708,169.61330465132568</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -18087,7 +18087,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-46.54221732150951,169.61446425402892</t>
+          <t>-46.54221731933684,169.61446423989577</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -18097,7 +18097,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-46.54332490820073,169.61343596458963</t>
+          <t>-46.54332490168233,169.61343592218944</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -18129,7 +18129,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-46.54225761136615,169.61472633932226</t>
+          <t>-46.542257620056745,169.61472639585494</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -18139,7 +18139,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-46.54338097886217,169.6138006912318</t>
+          <t>-46.54338098538042,169.61380073363205</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -18163,7 +18163,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-46.542173900183876,169.6141818033246</t>
+          <t>-46.54217390887473,169.6141818598571</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -18173,7 +18173,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-46.54339038469796,169.61386187482054</t>
+          <t>-46.543390391216185,169.61386191722085</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -18195,7 +18195,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-46.54346406588901,169.61434116825868</t>
+          <t>-46.543464072407076,169.61434121065906</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -18223,7 +18223,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-46.542208072401046,169.61440408923204</t>
+          <t>-46.54220807022835,169.61440407509886</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -18291,7 +18291,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-46.542204524402614,169.61438100981266</t>
+          <t>-46.54220453092068,169.61438105221205</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -18329,7 +18329,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-46.54224027141782,169.61461354253186</t>
+          <t>-46.54224027576315,169.61461357079816</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -18339,7 +18339,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-46.543431599217264,169.6141299719942</t>
+          <t>-46.54343159269913,169.61412992959384</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -18393,7 +18393,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-46.54227468179842,169.61483738367627</t>
+          <t>-46.542274690488945,169.61483744020896</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -18403,7 +18403,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-46.54341132772175,169.6139981069685</t>
+          <t>-46.54341133423995,169.6139981493688</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -18435,7 +18435,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-46.54219965540281,169.6143493374488</t>
+          <t>-46.5421996619209,169.6143493798482</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -18469,7 +18469,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-46.54215043695606,169.6140291798022</t>
+          <t>-46.54215044347425,169.61402922220154</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -18507,7 +18507,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-46.542207944212564,169.61440325537666</t>
+          <t>-46.54220795290331,169.6144033119092</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -18517,7 +18517,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-46.543388175013845,169.6138475011272</t>
+          <t>-46.543388181532094,169.61384754352744</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -18549,7 +18549,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-46.5422317371943,169.61455802748802</t>
+          <t>-46.5422317306763,169.61455798508857</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -18575,7 +18575,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-46.54220639291431,169.61439316431355</t>
+          <t>-46.54220638856892,169.61439313604728</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -18585,7 +18585,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-46.54333089859922,169.6134749303476</t>
+          <t>-46.54333090511761,169.61347497274778</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -18609,7 +18609,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-46.54215901705957,169.61408499146177</t>
+          <t>-46.54215900836867,169.61408493492928</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -18619,7 +18619,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-46.54329365883709,169.61323269831624</t>
+          <t>-46.54329365231863,169.6132326559161</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -18645,7 +18645,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-46.543247651095754,169.61293343858503</t>
+          <t>-46.54324765761433,169.61293348098505</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -18673,7 +18673,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-46.54223486148797,169.61457835096675</t>
+          <t>-46.54223485931531,169.61457833683357</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -18749,7 +18749,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-46.543300470628985,169.61327700644148</t>
+          <t>-46.54330047714745,169.6132770488416</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -18777,7 +18777,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-46.54218208912691,169.61423507107332</t>
+          <t>-46.542182082608804,169.61423502867393</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -18837,7 +18837,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-46.542175599244906,169.61419285542706</t>
+          <t>-46.542175590554066,169.61419279889458</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -18847,7 +18847,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-46.54328100645916,169.61315039971552</t>
+          <t>-46.54328099994066,169.61315035731542</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -18879,7 +18879,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-46.54219451480729,169.61431589844926</t>
+          <t>-46.542194519152694,169.6143159267155</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -18889,7 +18889,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-46.54329432372088,169.61323702312794</t>
+          <t>-46.54329431720241,169.6132369807278</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -18921,7 +18921,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-46.54219285921193,169.61430512900117</t>
+          <t>-46.54219285703923,169.61430511486802</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -18951,7 +18951,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-46.54223322329826,169.6145676945666</t>
+          <t>-46.54223321678027,169.61456765216715</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -18981,7 +18981,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-46.54215715720654,169.6140728935162</t>
+          <t>-46.54215715068837,169.61407285111687</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -19015,7 +19015,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-46.54220416373626,169.6143786637114</t>
+          <t>-46.542204159390884,169.61437863544512</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -19025,7 +19025,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-46.543345604026946,169.61357058517478</t>
+          <t>-46.54334561054529,169.613570627575</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -19057,7 +19057,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-46.54221827531526,169.6144704584807</t>
+          <t>-46.54221827748793,169.61447047261385</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -19067,7 +19067,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-46.54332906041523,169.61346297349812</t>
+          <t>-46.543329066933616,169.6134630158983</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -19095,7 +19095,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-46.54218359698481,169.61424487946408</t>
+          <t>-46.542183588293994,169.61424482293157</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -19105,7 +19105,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-46.543260101552406,169.6130144226747</t>
+          <t>-46.54326009503386,169.61301438027462</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -19167,7 +19167,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-46.542173485195676,169.61417910389818</t>
+          <t>-46.542173478677526,169.61417906149882</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -19205,7 +19205,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-46.54217259438306,169.614173309318</t>
+          <t>-46.54217259872849,169.61417333758425</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -19215,7 +19215,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-46.54331683189741,169.61338343079134</t>
+          <t>-46.543316825379,169.61338338839118</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -19247,7 +19247,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-46.542149291926286,169.6140217316536</t>
+          <t>-46.54214928975355,169.6140217175205</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -19257,7 +19257,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-46.54326557712803,169.6130500387268</t>
+          <t>-46.54326557060949,169.61304999632674</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -19303,7 +19303,7 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-46.542126541150374,169.61387374393618</t>
+          <t>-46.54212654766862,169.61387378633546</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -19375,7 +19375,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-46.54218960885384,169.6142839858348</t>
+          <t>-46.54218961102654,169.6142839999679</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -19385,7 +19385,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-46.54328991071473,169.61320831825245</t>
+          <t>-46.5432899172332,169.61320836065255</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -19417,7 +19417,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-46.54221212663002,169.61443046167727</t>
+          <t>-46.542212117939286,169.6144304051447</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -19427,7 +19427,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-46.54328085001517,169.61314938211328</t>
+          <t>-46.543280843496674,169.6131493397132</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -19459,7 +19459,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-46.54218959799033,169.61428391516912</t>
+          <t>-46.54218959147223,169.61428387276973</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -19501,7 +19501,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-46.54224255488302,169.61462839648385</t>
+          <t>-46.542242563573645,169.6146284530165</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -19511,7 +19511,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-46.54335336736592,169.6136210838229</t>
+          <t>-46.543353373884244,169.6136211262231</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -19543,7 +19543,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-46.54221508799499,169.61444972515417</t>
+          <t>-46.54221509016766,169.6144497392873</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -19553,7 +19553,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-46.54336269507666,169.61368175854165</t>
+          <t>-46.543362701594965,169.61368180094186</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -19585,7 +19585,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-46.54224325882432,169.61463297562827</t>
+          <t>-46.54224326751496,169.61463303216092</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -19595,7 +19595,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-46.54335356291574,169.61362235582934</t>
+          <t>-46.54335356943407,169.61362239822955</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -19619,7 +19619,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-46.542211794209535,169.61442829930618</t>
+          <t>-46.542211785518795,169.6144282427736</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -19629,7 +19629,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-46.543349254298214,169.6135943292895</t>
+          <t>-46.54334924777988,169.61359428688928</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -19699,7 +19699,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-46.54227129466114,169.61481535005083</t>
+          <t>-46.54227128814324,169.61481530765127</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-46.54220446356732,169.6143806140847</t>
+          <t>-46.54220447225809,169.6143806706173</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -19787,7 +19787,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>-46.54329526889852,169.61324317114475</t>
+          <t>-46.54329527541699,169.61324321354488</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -19857,7 +19857,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-46.54222690517816,169.61452659535348</t>
+          <t>-46.54222690083282,169.61452656708715</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -19883,7 +19883,7 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-46.54206762638917,169.61349052548184</t>
+          <t>-46.54206762856198,169.6134905396149</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -19937,7 +19937,7 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-46.54330193728054,169.61328654647</t>
+          <t>-46.543301943798994,169.61328658887012</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -20023,7 +20023,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>-46.54332446494985,169.6134330813783</t>
+          <t>-46.54332447146823,169.61343312377846</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -20049,7 +20049,7 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>-46.54338224992293,169.613808959283</t>
+          <t>-46.543382256441184,169.61380900168325</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -20081,7 +20081,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-46.542169639490396,169.61415408827307</t>
+          <t>-46.54216964600855,169.61415413067243</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -20123,7 +20123,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-46.542238598468764,169.61460265999884</t>
+          <t>-46.54223859412343,169.6146026317325</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -20133,7 +20133,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>-46.54338688440108,169.6138391058732</t>
+          <t>-46.543386890919315,169.61383914827348</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -20165,7 +20165,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-46.542187340553525,169.61426923084596</t>
+          <t>-46.542187342726216,169.61426924497908</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -20175,7 +20175,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>-46.5433012723986,169.613282221657</t>
+          <t>-46.54330127891705,169.61328226405712</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -20207,7 +20207,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-46.542158708532625,169.61408298455953</t>
+          <t>-46.54215871505081,169.61408302695887</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -20245,13 +20245,13 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-46.54218261274914,169.6142384771571</t>
+          <t>-46.542182610576425,169.61423846302395</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>-46.54325898688032,169.61300717226501</t>
+          <t>-46.54325898036177,169.61300712986497</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -20277,7 +20277,7 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>-46.54331988251356,169.61340327406427</t>
+          <t>-46.54331987599516,169.6134032316641</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -20309,7 +20309,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-46.54218881147262,169.61427879897553</t>
+          <t>-46.54218880929991,169.6142787848424</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -20319,7 +20319,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-46.5433533608476,169.61362104142268</t>
+          <t>-46.54335335432926,169.61362099902246</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -20347,7 +20347,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-46.54227428855178,169.61483482557077</t>
+          <t>-46.542274279861246,169.61483476903805</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-46.542231813237656,169.61455852214849</t>
+          <t>-46.542231808892325,169.61455849388216</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -20387,7 +20387,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>-46.54332518849171,169.6134377877968</t>
+          <t>-46.54332519501009,169.61343783019697</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -20419,7 +20419,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-46.54220889367621,169.6144094315598</t>
+          <t>-46.542208891503535,169.61440941742666</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -20429,7 +20429,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>-46.54334776811693,169.6135846620424</t>
+          <t>-46.54334776159858,169.61358461964215</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -20453,7 +20453,7 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-46.54217542977339,169.6141917530434</t>
+          <t>-46.5421754341188,169.61419178130967</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -20463,7 +20463,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>-46.54333151784534,169.61347895836445</t>
+          <t>-46.54333151132696,169.61347891596427</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -20509,7 +20509,7 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-46.54213852167034,169.61395167384725</t>
+          <t>-46.54213851515211,169.61395163144795</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -20539,7 +20539,7 @@
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-46.54214861186093,169.61401730799054</t>
+          <t>-46.54214860534273,169.61401726559123</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -20611,7 +20611,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-46.54214579817025,169.61399900561588</t>
+          <t>-46.54214578947932,169.61399894908345</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -20621,7 +20621,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>-46.54325452818743,169.6129781706296</t>
+          <t>-46.543254521668864,169.61297812822954</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -20653,7 +20653,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-46.542131996921384,169.6139092321446</t>
+          <t>-46.542132003439626,169.6139092745439</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -20695,7 +20695,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>-46.54219273319544,169.61430430927942</t>
+          <t>-46.54219273971354,169.6143043516788</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-46.54217971001226,169.6142195952995</t>
+          <t>-46.5421797165304,169.61421963769888</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -20771,7 +20771,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>-46.542154930161246,169.6140584070756</t>
+          <t>-46.54215492147033,169.61405835054313</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -20801,7 +20801,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-46.542172407529655,169.6141720938695</t>
+          <t>-46.54217240318422,169.61417206560327</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -20811,7 +20811,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>-46.54332988173163,169.61346831592013</t>
+          <t>-46.54332988825002,169.61346835832032</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -20843,7 +20843,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-46.54216018815797,169.61409260921062</t>
+          <t>-46.542160181639794,169.61409256681128</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -20879,7 +20879,7 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>-46.54325362862571,169.61297231942305</t>
+          <t>-46.54325362210714,169.612972277023</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -20903,7 +20903,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-46.54212950478041,169.61389302148052</t>
+          <t>-46.54212950043492,169.61389299321436</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -20929,13 +20929,13 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-46.54208190597457,169.61358340799868</t>
+          <t>-46.54208190380178,169.6135833938656</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>-46.543213265378974,169.6127097785459</t>
+          <t>-46.54321325886032,169.61270973614592</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -20955,7 +20955,7 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-46.54213812840418,169.61394911575564</t>
+          <t>-46.542138124058695,169.61394908748943</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -20965,7 +20965,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>-46.5432632956395,169.61303519870415</t>
+          <t>-46.543263302158046,169.6130352411042</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -20997,7 +20997,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-46.54217587083385,169.61419462206754</t>
+          <t>-46.542175864315716,169.61419457966818</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -21031,7 +21031,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-46.542163664513915,169.61411522219643</t>
+          <t>-46.542163662341196,169.6141152080633</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -21065,7 +21065,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-46.54220770304442,169.61440168659786</t>
+          <t>-46.542207698699045,169.6144016583316</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -21091,7 +21091,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-46.542247897445435,169.61466314993163</t>
+          <t>-46.542247901790724,169.61466317819796</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -21121,7 +21121,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-46.54217498871288,169.6141888840193</t>
+          <t>-46.54217498436745,169.61418885575307</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -21131,7 +21131,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>-46.543335376723185,169.61350405927175</t>
+          <t>-46.543335383241555,169.61350410167194</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -21157,7 +21157,7 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>-46.54340316693596,169.6139450217856</t>
+          <t>-46.54340316041775,169.6139449793853</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -21211,7 +21211,7 @@
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-46.5422178255709,169.61446753291912</t>
+          <t>-46.54221782774358,169.61446754705227</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -21315,7 +21315,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-46.54221842305735,169.61447141953477</t>
+          <t>-46.542218414366644,169.61447136300217</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -21325,7 +21325,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>-46.54335281330804,169.61361747980467</t>
+          <t>-46.543352806789706,169.61361743740446</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -21355,7 +21355,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>-46.54341064331174,169.6139936549357</t>
+          <t>-46.54341064982993,169.613993697336</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -21385,7 +21385,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>-46.54334779419029,169.6135848316432</t>
+          <t>-46.54334780070863,169.6135848740434</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -21461,7 +21461,7 @@
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-46.54214778187681,169.61401190914313</t>
+          <t>-46.54214778404954,169.61401192327625</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -21491,7 +21491,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-46.54218736879864,169.61426941457668</t>
+          <t>-46.54218736228054,169.6142693721773</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -21531,7 +21531,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>-46.543392509643226,169.61387569731156</t>
+          <t>-46.54339250312499,169.61387565491128</t>
         </is>
       </c>
       <c r="G132" t="inlineStr"/>
@@ -21559,7 +21559,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-46.542202023636726,169.6143647425692</t>
+          <t>-46.542202027982114,169.6143647708355</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -21569,7 +21569,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>-46.54333095074627,169.613475269549</t>
+          <t>-46.54333094422789,169.61347522714883</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -21601,7 +21601,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-46.54221268718211,169.61443410802855</t>
+          <t>-46.542212685009424,169.6144340938954</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -21611,7 +21611,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>-46.54329696369901,169.6132541951755</t>
+          <t>-46.543296957180544,169.61325415277537</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -21643,7 +21643,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-46.5421900151488,169.61428662873044</t>
+          <t>-46.5421900216669,169.61428667112983</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -21685,7 +21685,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-46.54217787190034,169.61420763867523</t>
+          <t>-46.54217787841847,169.61420768107462</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -21723,7 +21723,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-46.542189743561266,169.61428486208894</t>
+          <t>-46.54218974790666,169.6142848903552</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -21733,7 +21733,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>-46.54341853683024,169.61404500172105</t>
+          <t>-46.54341853031207,169.61404495932072</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -21765,7 +21765,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-46.54219883847027,169.61434402338924</t>
+          <t>-46.54219884064295,169.61434403752236</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -21775,7 +21775,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>-46.5433585689863,169.61365491919787</t>
+          <t>-46.54335857550461,169.6136549615981</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -21837,7 +21837,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>-46.54217086055672,169.61416203108695</t>
+          <t>-46.54217085838402,169.6141620169538</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -21847,7 +21847,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>-46.54330662404178,169.61331703216493</t>
+          <t>-46.543306617523335,169.6133169897648</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -21879,7 +21879,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-46.54213395021948,169.61392193780134</t>
+          <t>-46.54213395891047,169.61392199433374</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -21949,7 +21949,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>-46.54324220807734,169.6128980345584</t>
+          <t>-46.54324220155874,169.6128979921584</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -22091,7 +22091,7 @@
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
-          <t>-46.54219996392514,169.6143513443543</t>
+          <t>-46.54219995523437,169.61435128782173</t>
         </is>
       </c>
       <c r="E149" t="inlineStr"/>
@@ -22117,7 +22117,7 @@
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-46.54217222067622,169.61417087842102</t>
+          <t>-46.54217222719437,169.61417092082038</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -22211,7 +22211,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-46.542158400005654,169.6140809776573</t>
+          <t>-46.542158402178394,169.61408099179042</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -22221,7 +22221,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>-46.543334653184004,169.61349935285136</t>
+          <t>-46.54333465970238,169.61349939525152</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -22279,7 +22279,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-46.54219283096686,169.61430494527042</t>
+          <t>-46.54219283748497,169.61430498766984</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -22357,7 +22357,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-46.54223787931762,169.6145979819232</t>
+          <t>-46.54223787062697,169.61459792539057</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>-46.543336484845895,169.61351126730327</t>
+          <t>-46.543336478327525,169.61351122490308</t>
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
@@ -22391,7 +22391,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-46.54228995536744,169.6149367399587</t>
+          <t>-46.5422899618853,169.61493678235826</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -22443,13 +22443,13 @@
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-46.54220495242226,169.61438379404126</t>
+          <t>-46.54220496111301,169.61438385057383</t>
         </is>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>-46.543322274767874,169.61341883492312</t>
+          <t>-46.54332228128629,169.61341887732328</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -22507,13 +22507,13 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-46.54215325064199,169.61404748218024</t>
+          <t>-46.54215325933289,169.61404753871267</t>
         </is>
       </c>
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>-46.54326223963561,169.61302832989412</t>
+          <t>-46.54326224615416,169.61302837229417</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -22647,7 +22647,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>-46.543352858936316,169.61361777660616</t>
+          <t>-46.543352865454665,169.61361781900638</t>
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
@@ -22675,7 +22675,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-46.542171966468636,169.61416922484577</t>
+          <t>-46.542171972986786,169.61416926724513</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -22717,7 +22717,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-46.54215558415228,169.6140626611424</t>
+          <t>-46.542155586325016,169.6140626752755</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -22727,7 +22727,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>-46.54326591609187,169.6130522435303</t>
+          <t>-46.543265922610416,169.6130522859304</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -22759,7 +22759,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>-46.54214905075296,169.6140201628785</t>
+          <t>-46.54214905509843,169.61402019114473</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -22769,7 +22769,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>-46.54329336550596,169.6132307903111</t>
+          <t>-46.5432933589875,169.613230747911</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -22825,7 +22825,7 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>-46.54324502410737,169.61291635137124</t>
+          <t>-46.54324501758879,169.6129163089712</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -22857,7 +22857,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-46.54219208573134,169.6143000976057</t>
+          <t>-46.542192094422134,169.61430015413825</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -22895,7 +22895,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-46.54223033365093,169.61454889746992</t>
+          <t>-46.54223034234159,169.61454895400252</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -22933,7 +22933,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-46.542253880929174,169.61470207267124</t>
+          <t>-46.542253885274484,169.6147021009376</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -22971,7 +22971,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-46.542163473314446,169.61411397848212</t>
+          <t>-46.54216346679629,169.6141139360828</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -23009,7 +23009,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-46.542209102253985,169.6144107883415</t>
+          <t>-46.542209106599365,169.6144108166078</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -23019,7 +23019,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>-46.543328799679806,169.61346127749118</t>
+          <t>-46.54332879316142,169.61346123509102</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -23051,7 +23051,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-46.542192296483115,169.6143014685196</t>
+          <t>-46.542192289965,169.61430142612022</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -23085,7 +23085,7 @@
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-46.54222503885311,169.61451445497576</t>
+          <t>-46.54222504319846,169.61451448324206</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -23119,7 +23119,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-46.54214247605608,169.61397739609666</t>
+          <t>-46.542142484747046,169.61397745262906</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -23227,7 +23227,7 @@
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-46.542172781236474,169.6141745247665</t>
+          <t>-46.54217277471832,169.61417448236713</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -23253,7 +23253,7 @@
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-46.54213523865673,169.6139303187301</t>
+          <t>-46.54213522996576,169.6139302621977</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -23263,7 +23263,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>-46.543319550074784,169.6134011116562</t>
+          <t>-46.54331954355638,169.61340106925604</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -23293,7 +23293,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>-46.543271385137366,169.61308781719063</t>
+          <t>-46.543271378618854,169.61308777479056</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -23325,7 +23325,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-46.54211195543771,169.61377886848885</t>
+          <t>-46.54211195978324,169.61377889675504</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -23335,7 +23335,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>-46.54319210572671,169.612572148274</t>
+          <t>-46.54319209920799,169.61257210587405</t>
         </is>
       </c>
       <c r="G188" t="inlineStr"/>
@@ -23359,7 +23359,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-46.542119497084315,169.61382792444468</t>
+          <t>-46.54211948839329,169.61382786791233</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -23369,7 +23369,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>-46.5431903261182,169.61256057309006</t>
+          <t>-46.54319031959949,169.6125605306901</t>
         </is>
       </c>
       <c r="G189" t="inlineStr"/>
@@ -23397,7 +23397,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-46.5421309018571,169.61390210906274</t>
+          <t>-46.54213090837535,169.613902151462</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -23435,7 +23435,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-46.54212127874369,169.61383951358076</t>
+          <t>-46.54212128743471,169.61383957011313</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -23445,7 +23445,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>-46.54319297271504,169.61257778746645</t>
+          <t>-46.54319297923375,169.6125778298664</t>
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
@@ -23473,7 +23473,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-46.54219404333208,169.61431283155912</t>
+          <t>-46.542194049850174,169.6143128739585</t>
         </is>
       </c>
       <c r="E192" t="inlineStr"/>
@@ -23503,7 +23503,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-46.542112450827396,169.61378209083298</t>
+          <t>-46.54211244865464,169.6137820766999</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -23513,7 +23513,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>-46.54323250839621,169.61283494333006</t>
+          <t>-46.54323250187759,169.61283490093007</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -23545,7 +23545,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>-46.54214422293676,169.6139887591136</t>
+          <t>-46.542144225109496,169.61398877324672</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -23555,7 +23555,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>-46.543253380920255,169.6129707082213</t>
+          <t>-46.54325338743882,169.61297075062134</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -23587,7 +23587,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-46.542142658566064,169.6139785832775</t>
+          <t>-46.5421426607388,169.6139785974106</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -23597,7 +23597,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>-46.54325246180245,169.6129647298149</t>
+          <t>-46.543252468321015,169.61296477221495</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -23657,7 +23657,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>-46.54326135963205,169.61302260588596</t>
+          <t>-46.543261366150595,169.61302264828606</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-46.54219756092635,169.61433571310496</t>
+          <t>-46.54219756961712,169.6143357696375</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -23699,7 +23699,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>-46.54328490451896,169.61317575497293</t>
+          <t>-46.54328491103745,169.61317579737303</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -23723,13 +23723,13 @@
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-46.54216709306565,169.6141375242567</t>
+          <t>-46.542167084374775,169.61413746772425</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
         <is>
-          <t>-46.54330856001731,169.6133296250058</t>
+          <t>-46.54330855349888,169.61332958260564</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -23753,7 +23753,7 @@
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-46.54208864812063,169.61362726292418</t>
+          <t>-46.54208865029341,169.61362727705728</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -23763,7 +23763,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>-46.54325357647719,169.61297198022268</t>
+          <t>-46.543253582995746,169.61297202262273</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -23811,7 +23811,7 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>-46.54327822957707,169.61313233727702</t>
+          <t>-46.54327822305857,169.61313229487692</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -23863,7 +23863,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>-46.54331491548295,169.61337096514677</t>
+          <t>-46.54331490896453,169.61337092274664</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -23895,7 +23895,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-46.54216559606228,169.614127786538</t>
+          <t>-46.542165598235,169.61412780067113</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -23905,7 +23905,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>-46.54330269993903,169.61329150728506</t>
+          <t>-46.543302706457474,169.6132915496852</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -23937,7 +23937,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-46.54212023582126,169.61383272969613</t>
+          <t>-46.54212023147575,169.61383270142994</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-46.5420964744647,169.6136781702679</t>
+          <t>-46.54209647229193,169.6136781561348</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -23981,7 +23981,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>-46.543269116690745,169.61307306196466</t>
+          <t>-46.54326911017221,169.61307301956458</t>
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
@@ -24009,7 +24009,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-46.54215235765008,169.61404167347163</t>
+          <t>-46.542152359822815,169.61404168760473</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -24019,7 +24019,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>-46.54330907497354,169.61333297461684</t>
+          <t>-46.54330908149198,169.61333301701697</t>
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
@@ -24047,7 +24047,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-46.54214607193489,169.61400078638738</t>
+          <t>-46.54214606324394,169.61400072985495</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -24057,7 +24057,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>-46.543258810879415,169.6130060274635</t>
+          <t>-46.54325880436087,169.61300598506347</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -24089,7 +24089,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-46.542173745921254,169.61418079987288</t>
+          <t>-46.54217375243938,169.61418084227228</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -24131,7 +24131,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-46.54218014889933,169.614222450191</t>
+          <t>-46.54218014672661,169.61422243605787</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -24141,7 +24141,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>-46.543303534300215,169.6132969345017</t>
+          <t>-46.54330352778177,169.61329689210157</t>
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
@@ -24169,7 +24169,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-46.542201819403786,169.6143634140542</t>
+          <t>-46.54220181288572,169.61436337165478</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -24211,7 +24211,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-46.54218901787922,169.61428014162303</t>
+          <t>-46.54218902439732,169.6142801840224</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -24253,7 +24253,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-46.542222940050664,169.61450080235187</t>
+          <t>-46.54222293135997,169.61450074581927</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -24263,7 +24263,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>-46.543387953393534,169.61384605951787</t>
+          <t>-46.54338794687527,169.6138460171176</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -24291,7 +24291,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-46.542230911580624,169.61455265688906</t>
+          <t>-46.54223090940796,169.6145526427559</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -24301,7 +24301,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>-46.54339995997516,169.61392416083987</t>
+          <t>-46.54339995345694,169.61392411843957</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -24333,7 +24333,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-46.54215135602135,169.6140351581077</t>
+          <t>-46.54215136253954,169.61403520050703</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -24375,7 +24375,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>-46.54215131473946,169.61403488957862</t>
+          <t>-46.54215132343039,169.61403494611105</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -24385,7 +24385,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>-46.54325862184139,169.61300479786192</t>
+          <t>-46.54325862835996,169.613004840262</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -24417,7 +24417,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-46.54217646615672,169.61419849454356</t>
+          <t>-46.54217647050215,169.6141985228098</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -24453,7 +24453,7 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>-46.54330393192538,169.61329952090972</t>
+          <t>-46.543303938443835,169.61329956330985</t>
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
@@ -24473,7 +24473,7 @@
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-46.542101915086086,169.6137135595023</t>
+          <t>-46.542101908567766,169.613713517103</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -24503,7 +24503,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-46.542122184782215,169.61384540708073</t>
+          <t>-46.54212218695498,169.61384542121382</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -24513,7 +24513,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>-46.543266678760375,169.61305720433825</t>
+          <t>-46.543266685278894,169.61305724673832</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -24655,7 +24655,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-46.542162041490776,169.6141046647583</t>
+          <t>-46.54216203931806,169.6141046506252</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -24665,7 +24665,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>-46.54328957175385,169.61320611344686</t>
+          <t>-46.54328956523536,169.61320607104676</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -24697,7 +24697,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-46.54216059663002,169.61409526623632</t>
+          <t>-46.542160592284574,169.61409523797008</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -24707,7 +24707,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>-46.543304577251334,169.61330371852276</t>
+          <t>-46.543304583769796,169.61330376092292</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -24739,7 +24739,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-46.54214766237644,169.61401113182217</t>
+          <t>-46.54214766672192,169.6140111600884</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -24769,7 +24769,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-46.542167312510195,169.61413895170173</t>
+          <t>-46.54216731902835,169.6141389941011</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -24807,7 +24807,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-46.5421423000643,169.6139762513151</t>
+          <t>-46.54214230875525,169.61397630784754</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -24879,7 +24879,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-46.54216420117597,169.61411871307638</t>
+          <t>-46.54216420986685,169.61411876960884</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -24911,7 +24911,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>-46.54320739857861,169.6126716185698</t>
+          <t>-46.54320739205993,169.61267157616984</t>
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
@@ -24931,7 +24931,7 @@
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-46.54219599875872,169.61432555138035</t>
+          <t>-46.54219600527681,169.61432559377977</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -24961,7 +24961,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-46.54226875919389,169.61479885663334</t>
+          <t>-46.5422687657118,169.61479889903285</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -24995,13 +24995,13 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-46.542182717039026,169.6142391555472</t>
+          <t>-46.5421827083482,169.61423909901472</t>
         </is>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>-46.54332138826516,169.61341306850113</t>
+          <t>-46.54332138174676,169.61341302610097</t>
         </is>
       </c>
       <c r="G237" t="inlineStr"/>
@@ -25027,7 +25027,7 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>-46.54336345771828,169.6136867193687</t>
+          <t>-46.54336346423658,169.61368676176892</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -25059,13 +25059,13 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-46.54220138052018,169.61436055916022</t>
+          <t>-46.54220138269287,169.61436057329334</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>-46.54330841009334,169.6133286498026</t>
+          <t>-46.543308416611765,169.61332869220274</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -25119,7 +25119,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>-46.54219622471904,169.61432702122644</t>
+          <t>-46.542196220373654,169.61432699296017</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -25129,7 +25129,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>-46.54331646686618,169.61338105638282</t>
+          <t>-46.54331647338461,169.61338109878292</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -25155,7 +25155,7 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>-46.543274729137195,169.61310956843133</t>
+          <t>-46.543274722618676,169.61310952603122</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -25231,7 +25231,7 @@
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="inlineStr">
         <is>
-          <t>-46.54213137551592,169.61390519007827</t>
+          <t>-46.542131377688655,169.61390520421136</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -25241,7 +25241,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>-46.54328259697252,169.61316074533846</t>
+          <t>-46.54328260349103,169.61316078773854</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -25265,7 +25265,7 @@
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="inlineStr">
         <is>
-          <t>-46.54213829353251,169.61395018987147</t>
+          <t>-46.54213830005073,169.61395023227078</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -25307,7 +25307,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>-46.542168322823976,169.61414552360228</t>
+          <t>-46.542168316305826,169.6141454812029</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -25349,7 +25349,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>-46.54215211647704,169.61404010469633</t>
+          <t>-46.54215212516796,169.6140401612288</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -25383,7 +25383,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>-46.54214668030061,169.61400474365743</t>
+          <t>-46.54214668899155,169.61400480018986</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -25393,7 +25393,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>-46.54324489373568,169.6129155033706</t>
+          <t>-46.54324490025426,169.61291554577062</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -25425,7 +25425,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>-46.54218502445184,169.61425416492963</t>
+          <t>-46.54218501576102,169.61425410839712</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -25435,7 +25435,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>-46.543297511249705,169.6132577567856</t>
+          <t>-46.54329750473126,169.61325771438547</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -25467,7 +25467,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>-46.54221074263076,169.61442145886457</t>
+          <t>-46.54221074914882,169.614421501264</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -25535,7 +25535,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>-46.542207907276904,169.61440301511323</t>
+          <t>-46.54220791379497,169.61440305751267</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -25569,7 +25569,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>-46.54219288311161,169.61430528446564</t>
+          <t>-46.54219287659352,169.61430524206622</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -25605,7 +25605,7 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
         <is>
-          <t>-46.543236302227186,169.61285962013827</t>
+          <t>-46.543236295708574,169.61285957773822</t>
         </is>
       </c>
       <c r="G255" t="inlineStr"/>
@@ -25675,7 +25675,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>-46.54221432103869,169.61444473615367</t>
+          <t>-46.542214327556735,169.61444477855312</t>
         </is>
       </c>
       <c r="E257" t="inlineStr"/>
@@ -25705,7 +25705,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>-46.54218826612456,169.61427525155963</t>
+          <t>-46.54218826177917,169.6142752232934</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -25715,7 +25715,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>-46.5433167797501,169.61338309159012</t>
+          <t>-46.54331678626851,169.61338313399028</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -25747,7 +25747,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>-46.54218262795808,169.61423857608898</t>
+          <t>-46.54218263013078,169.6142385902221</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -25757,7 +25757,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>-46.54328709473073,169.61319000140693</t>
+          <t>-46.543287101249234,169.61319004380704</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -25789,7 +25789,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>-46.542144685729596,169.61399176946526</t>
+          <t>-46.542144694420536,169.6139918259977</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -25799,7 +25799,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>-46.54325324403039,169.61296981782036</t>
+          <t>-46.54325325054895,169.61296986022037</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -25831,7 +25831,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>-46.54215897795052,169.6140847370657</t>
+          <t>-46.542158969259624,169.61408468053324</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -25893,7 +25893,7 @@
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
         <is>
-          <t>-46.543206753229796,169.61266742097297</t>
+          <t>-46.54320674671112,169.612667378573</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -25945,7 +25945,7 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
         <is>
-          <t>-46.543199504452986,169.61262027221602</t>
+          <t>-46.543199510971675,169.61262031461598</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -25969,7 +25969,7 @@
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="inlineStr">
         <is>
-          <t>-46.5421969851623,169.61433196782392</t>
+          <t>-46.54219698298961,169.6143319536908</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -26037,7 +26037,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>-46.542186321555924,169.61426260240793</t>
+          <t>-46.54218632590134,169.61426263067418</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -26047,7 +26047,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>-46.54330887290212,169.61333166021248</t>
+          <t>-46.54330886638368,169.61333161781238</t>
         </is>
       </c>
       <c r="G268" t="inlineStr"/>
@@ -26075,7 +26075,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>-46.54225684442174,169.61472135031335</t>
+          <t>-46.5422568379038,169.6147213079138</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
@@ -26109,7 +26109,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>-46.54214866183379,169.61401763305201</t>
+          <t>-46.542148664006525,169.61401764718514</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -26119,7 +26119,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>-46.54327921387128,169.61313873969044</t>
+          <t>-46.543279220389785,169.61313878209052</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -26151,7 +26151,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>-46.5421854959286,169.6142572318187</t>
+          <t>-46.54218550461942,169.61425728835118</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -26161,7 +26161,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>-46.543302993269165,169.6132934152909</t>
+          <t>-46.54330299978761,169.61329345769104</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -26227,7 +26227,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>-46.54216407081273,169.61411786508936</t>
+          <t>-46.54216407298545,169.61411787922248</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -26237,7 +26237,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>-46.54325025200734,169.61295035620043</t>
+          <t>-46.5432502585259,169.61295039860047</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -26311,7 +26311,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>-46.54222722673346,169.61452868706007</t>
+          <t>-46.542227233251474,169.61452872945952</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -26353,7 +26353,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>-46.54217108217369,169.6141634726653</t>
+          <t>-46.542171073482834,169.6141634161328</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -26391,7 +26391,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>-46.54223819000833,169.61460000296492</t>
+          <t>-46.54223818349034,169.61459996056544</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -26501,7 +26501,7 @@
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr">
         <is>
-          <t>-46.5421905626692,169.61429019027972</t>
+          <t>-46.54219056918731,169.6142902326791</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -26591,7 +26591,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>-46.54215135167589,169.61403512984148</t>
+          <t>-46.54215134298496,169.61403507330905</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -26617,7 +26617,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>-46.54219067782229,169.61429093933575</t>
+          <t>-46.542190686513095,169.61429099586826</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -26627,7 +26627,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>-46.543462697095116,169.61433226417455</t>
+          <t>-46.54346270361318,169.61433230657497</t>
         </is>
       </c>
       <c r="G286" t="inlineStr"/>
@@ -26697,7 +26697,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>-46.54221476861094,169.6144476475817</t>
+          <t>-46.542214777301666,169.6144477041143</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -26707,7 +26707,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>-46.54336727092317,169.61371152350625</t>
+          <t>-46.54336727744147,169.61371156590647</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -26821,7 +26821,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>-46.54322670030461,169.61279716492473</t>
+          <t>-46.54322669378597,169.61279712252474</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -26851,7 +26851,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>-46.5432284472964,169.6128085281254</t>
+          <t>-46.54322845381504,169.61280857052543</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -26877,7 +26877,7 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr">
         <is>
-          <t>-46.54328644940066,169.6131858037968</t>
+          <t>-46.543286455919144,169.6131858461969</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -26903,7 +26903,7 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
         <is>
-          <t>-46.54333105504037,169.61347594795183</t>
+          <t>-46.543331061558746,169.61347599035201</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -26957,13 +26957,13 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>-46.542223600543544,169.61450509882965</t>
+          <t>-46.54222359619819,169.61450507056335</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr">
         <is>
-          <t>-46.54340827720722,169.61397826362335</t>
+          <t>-46.54340828372543,169.61397830602365</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -26987,7 +26987,7 @@
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>-46.542123236394914,169.61385224749827</t>
+          <t>-46.54212324291318,169.61385228989752</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -27071,7 +27071,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>-46.54213786115698,169.61394737738402</t>
+          <t>-46.54213786984795,169.61394743391642</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -27137,7 +27137,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>-46.54330592005034,169.6133124529503</t>
+          <t>-46.5433059135319,169.61331241055018</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -27169,7 +27169,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>-46.542174315172026,169.6141845027511</t>
+          <t>-46.542174319517464,169.61418453101734</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -27179,7 +27179,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>-46.543307269367105,169.61332122977845</t>
+          <t>-46.543307262848664,169.61332118737832</t>
         </is>
       </c>
       <c r="G302" t="inlineStr"/>
@@ -27207,7 +27207,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>-46.54219916002885,169.6143461150935</t>
+          <t>-46.542199153510765,169.61434607269408</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -27245,7 +27245,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>-46.54219121230637,169.61429441608632</t>
+          <t>-46.54219121447907,169.61429443021945</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -27275,7 +27275,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>-46.54224139685571,169.61462086350897</t>
+          <t>-46.542241390337736,169.6146208211095</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -27305,7 +27305,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>-46.54211257902034,169.61378292468518</t>
+          <t>-46.54211258553862,169.61378296708443</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -27347,7 +27347,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>-46.54218024015305,169.61422304378232</t>
+          <t>-46.542180244498475,169.61422307204856</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -27357,7 +27357,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>-46.543315189256546,169.61337274595311</t>
+          <t>-46.54331518273813,169.61337270355295</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -27381,7 +27381,7 @@
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
-          <t>-46.542143897026264,169.6139866391477</t>
+          <t>-46.5421438926808,169.61398661088148</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -27391,7 +27391,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>-46.54325044756449,169.61295162820167</t>
+          <t>-46.543250454083065,169.61295167060172</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -27417,7 +27417,7 @@
       <c r="E309" t="inlineStr"/>
       <c r="F309" t="inlineStr">
         <is>
-          <t>-46.54324485462417,169.61291524897038</t>
+          <t>-46.54324486114275,169.61291529137046</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -27521,7 +27521,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>-46.54216779050816,169.61414206098797</t>
+          <t>-46.54216778833544,169.61414204685485</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -27531,7 +27531,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>-46.543264970904126,169.61304609552067</t>
+          <t>-46.543264964385585,169.6130460531206</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -27555,7 +27555,7 @@
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
-          <t>-46.54217512993916,169.61418980267234</t>
+          <t>-46.54217512124831,169.61418974613983</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -27593,7 +27593,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>-46.54220634511518,169.61439285338446</t>
+          <t>-46.54220634946056,169.61439288165076</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -27621,7 +27621,7 @@
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr">
         <is>
-          <t>-46.54330758225207,169.61332326498504</t>
+          <t>-46.543307575733614,169.6133232225849</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -27653,7 +27653,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>-46.54214708877467,169.6140074006817</t>
+          <t>-46.542147080083744,169.61400734414926</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -27663,7 +27663,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>-46.54328086957069,169.61314950931356</t>
+          <t>-46.54328086305218,169.61314946691346</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -27695,7 +27695,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>-46.54220737062341,169.6143995242272</t>
+          <t>-46.54220736627803,169.61439949596092</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -27705,7 +27705,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>-46.543370008605464,169.61372933160732</t>
+          <t>-46.54337001512376,169.61372937400756</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -27809,7 +27809,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>-46.54217532765594,169.6141910887866</t>
+          <t>-46.542175336346794,169.6141911453191</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -27819,7 +27819,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>-46.54329024315709,169.61321048065798</t>
+          <t>-46.54329024967558,169.6132105230581</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -27889,7 +27889,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>-46.54220422239885,169.61437904530618</t>
+          <t>-46.54220421805348,169.6143790170399</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -27899,7 +27899,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>-46.54332540359871,169.61343918700234</t>
+          <t>-46.54332541011709,169.6134392294025</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -27931,7 +27931,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>-46.54220873941556,169.61440842810669</t>
+          <t>-46.542208735070176,169.6144083998404</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -27941,7 +27941,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>-46.54332493427431,169.6134361341903</t>
+          <t>-46.54332494079271,169.61343617659045</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -27973,7 +27973,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>-46.54216062487542,169.6140954499668</t>
+          <t>-46.54216063139359,169.61409549236615</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -28011,7 +28011,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>-46.54212148080986,169.61384082795843</t>
+          <t>-46.542121482982616,169.61384084209152</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -28021,7 +28021,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>-46.54328332052542,169.61316545174913</t>
+          <t>-46.54328332704392,169.61316549414923</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -28053,7 +28053,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>-46.54218730579028,169.61426900471588</t>
+          <t>-46.54218730361758,169.61426899058276</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -28063,7 +28063,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>-46.54342279971188,169.61407273153588</t>
+          <t>-46.54342279319372,169.61407268913555</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -28095,7 +28095,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>-46.54220617564557,169.61439175099946</t>
+          <t>-46.54220617347288,169.6143917368663</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -28105,7 +28105,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>-46.543364741823765,169.6136950722146</t>
+          <t>-46.54336473530547,169.61369502981435</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -28137,7 +28137,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>-46.5422320739577,169.6145602181271</t>
+          <t>-46.54223208264836,169.61456027465974</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -28147,7 +28147,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>-46.5433695392887,169.61372627878984</t>
+          <t>-46.54336954580699,169.61372632119011</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -28179,7 +28179,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>-46.54220214965279,169.61436556229128</t>
+          <t>-46.5422021453074,169.61436553402498</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -28189,7 +28189,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>-46.54332532537798,169.61343867820034</t>
+          <t>-46.543325331896376,169.61343872060047</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -28221,7 +28221,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>-46.54219114277999,169.61429396382607</t>
+          <t>-46.54219113626189,169.61429392142668</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -28259,7 +28259,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>-46.542187481779166,169.61427014949945</t>
+          <t>-46.54218747960647,169.61427013536633</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -28269,7 +28269,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>-46.54332496686629,169.61343634619112</t>
+          <t>-46.543324960347874,169.61343630379096</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -28295,7 +28295,7 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr">
         <is>
-          <t>-46.54324898088544,169.61294208819268</t>
+          <t>-46.54324898740403,169.61294213059273</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -28323,7 +28323,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>-46.54214022727147,169.61396276833344</t>
+          <t>-46.542140235962435,169.61396282486587</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -28333,7 +28333,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>-46.54332909952553,169.61346322789916</t>
+          <t>-46.54332910604392,169.61346327029935</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -28365,7 +28365,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>-46.54221236997047,169.61443204458945</t>
+          <t>-46.54221237214316,169.61443205872257</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -28375,7 +28375,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>-46.54334018727616,169.6135353506109</t>
+          <t>-46.54334019379452,169.61353539301112</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -28425,7 +28425,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>-46.54217948622329,169.6142181395875</t>
+          <t>-46.542179481877874,169.61421811132126</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -28435,7 +28435,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>-46.54333252167557,169.613485487992</t>
+          <t>-46.54333252819396,169.61348553039218</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -28501,7 +28501,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>-46.54220126971294,169.61435983837015</t>
+          <t>-46.54220126536755,169.61435981010388</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -28511,7 +28511,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>-46.54339024781492,169.61386098441474</t>
+          <t>-46.543390254333154,169.61386102681502</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -28603,7 +28603,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>-46.54214734950277,169.61400909665463</t>
+          <t>-46.542147353848236,169.61400912492084</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -28613,7 +28613,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>-46.54335359550737,169.61362256783042</t>
+          <t>-46.54335358898905,169.6136225254302</t>
         </is>
       </c>
       <c r="G341" t="inlineStr"/>
@@ -28641,7 +28641,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>-46.542116233602776,169.61380669654153</t>
+          <t>-46.54211624229382,169.61380675307387</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -28651,7 +28651,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>-46.54336517854986,169.6136979130303</t>
+          <t>-46.543365185068154,169.61369795543052</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -28675,7 +28675,7 @@
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>-46.54216087691134,169.6140970894082</t>
+          <t>-46.54216088560223,169.61409714594066</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -28755,7 +28755,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>-46.54221251988555,169.6144330197764</t>
+          <t>-46.54221252857628,169.61443307630898</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -28765,7 +28765,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>-46.54343919284183,169.61417936840584</t>
+          <t>-46.54343919935995,169.6141794108062</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -28797,7 +28797,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>-46.54222529522847,169.61451612268766</t>
+          <t>-46.542225297401146,169.61451613682084</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -28807,7 +28807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>-46.54348586872851,169.61448299766397</t>
+          <t>-46.54348587524651,169.6144830400644</t>
         </is>
       </c>
       <c r="G346" t="inlineStr">
@@ -28865,7 +28865,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>-46.54213397629241,169.61392210739854</t>
+          <t>-46.542133978465166,169.61392212153166</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -28875,7 +28875,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>-46.54321956891607,169.61275077933016</t>
+          <t>-46.54321957543472,169.61275082173015</t>
         </is>
       </c>
       <c r="G348" t="inlineStr"/>
@@ -28903,7 +28903,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>-46.54216139619217,169.61410046722284</t>
+          <t>-46.542161394019445,169.61410045308972</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -28913,7 +28913,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>-46.543275570025386,169.613115038042</t>
+          <t>-46.54327556350688,169.61311499564192</t>
         </is>
       </c>
       <c r="G349" t="inlineStr"/>
@@ -28941,7 +28941,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>-46.542130332597324,169.61389840619094</t>
+          <t>-46.54213034128831,169.6138984627233</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -28951,7 +28951,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>-46.543204745476984,169.61265436178354</t>
+          <t>-46.54320475199567,169.6126544041835</t>
         </is>
       </c>
       <c r="G350" t="inlineStr"/>
@@ -28979,7 +28979,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>-46.542163171306186,169.61411201397888</t>
+          <t>-46.542163173478905,169.614112028112</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -28989,7 +28989,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>-46.543258602285746,169.61300467066175</t>
+          <t>-46.543258608804294,169.61300471306183</t>
         </is>
       </c>
       <c r="G351" t="inlineStr"/>
@@ -29017,7 +29017,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>-46.54218553286458,169.6142574720819</t>
+          <t>-46.54218552417376,169.61425741554936</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -29027,7 +29027,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>-46.5432925050678,169.61322519349622</t>
+          <t>-46.54329249854933,169.61322515109612</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -29059,7 +29059,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>-46.54218439654025,169.61425008045538</t>
+          <t>-46.54218439002212,169.61425003805599</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -29143,7 +29143,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>-46.54224763020892,169.61466141155242</t>
+          <t>-46.54224762803627,169.61466139741927</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>-46.54343056283255,169.61412323033917</t>
+          <t>-46.54343055631439,169.61412318793882</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -29185,7 +29185,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>-46.542209323867866,169.61441222992207</t>
+          <t>-46.54220932169518,169.61441221578892</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -29195,7 +29195,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>-46.54336276677801,169.61368222494417</t>
+          <t>-46.543362760259704,169.61368218254395</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -29227,7 +29227,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>-46.54217136462665,169.61416530997107</t>
+          <t>-46.54217136679936,169.61416532410422</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -29237,7 +29237,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>-46.54326734365069,169.61306152914528</t>
+          <t>-46.54326735016923,169.61306157154536</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
@@ -29269,7 +29269,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>-46.542198927550686,169.61434460284784</t>
+          <t>-46.54219891885992,169.6143445463153</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -29279,7 +29279,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>-46.54327852290982,169.61313424528097</t>
+          <t>-46.54327851639131,169.61313420288087</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -29309,7 +29309,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>-46.54327459876691,169.61310872042966</t>
+          <t>-46.543274605285404,169.61310876282974</t>
         </is>
       </c>
       <c r="G359" t="inlineStr">
@@ -29341,7 +29341,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>-46.54218895487089,169.6142797317622</t>
+          <t>-46.5421889461801,169.61427967522968</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -29351,7 +29351,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>-46.54329140996429,169.61321807027753</t>
+          <t>-46.543291403445814,169.61321802787742</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
@@ -29383,7 +29383,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>-46.54222322901634,169.6145026820609</t>
+          <t>-46.542223224670984,169.6145026537946</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -29447,7 +29447,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>-46.54213640976528,169.61393793647176</t>
+          <t>-46.54213640324704,169.61393789407248</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -29507,7 +29507,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>-46.54219831050575,169.61434058903703</t>
+          <t>-46.54219831267846,169.61434060317012</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -29517,7 +29517,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>-46.54331404201471,169.61336528352678</t>
+          <t>-46.54331404853314,169.61336532592694</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
@@ -29579,7 +29579,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>-46.5422102624676,169.61441833543984</t>
+          <t>-46.542210260294915,169.61441832130672</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -29589,7 +29589,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>-46.54331450482255,169.61336829393736</t>
+          <t>-46.54331449830413,169.61336825153722</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
@@ -29621,7 +29621,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>-46.54216670414903,169.61413499442844</t>
+          <t>-46.542166712839915,169.6141350509609</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -29631,7 +29631,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>-46.543303775482705,169.61329850330657</t>
+          <t>-46.54330378200113,169.6132985457067</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
@@ -29663,7 +29663,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>-46.542156735697624,169.61407015169223</t>
+          <t>-46.542156740043076,169.61407017995845</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -29673,7 +29673,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>-46.54330799291351,169.61332593619372</t>
+          <t>-46.543307986395085,169.6133258937936</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -29753,7 +29753,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>-46.542087390080454,169.613619079874</t>
+          <t>-46.54208739877157,169.61361913640633</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -29763,7 +29763,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>-46.54320466725282,169.61265385298398</t>
+          <t>-46.543204673771505,169.61265389538391</t>
         </is>
       </c>
       <c r="G372" t="inlineStr"/>
@@ -29787,7 +29787,7 @@
       <c r="C373" t="inlineStr"/>
       <c r="D373" t="inlineStr">
         <is>
-          <t>-46.54216850533223,169.61414671078435</t>
+          <t>-46.542168511850385,169.61414675318372</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -29827,7 +29827,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>-46.54320628388511,169.61266436817533</t>
+          <t>-46.543206277366444,169.61266432577537</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
@@ -29855,7 +29855,7 @@
       <c r="C375" t="inlineStr"/>
       <c r="D375" t="inlineStr">
         <is>
-          <t>-46.542184707237006,169.6142521014928</t>
+          <t>-46.5421847028916,169.61425207322654</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -29911,7 +29911,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>-46.542128342359916,169.61388546027337</t>
+          <t>-46.542128346705425,169.61388548853955</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -29921,7 +29921,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>-46.54317798616377,169.61248031002395</t>
+          <t>-46.54317797964502,169.61248026762402</t>
         </is>
       </c>
       <c r="G377" t="inlineStr"/>
@@ -29949,7 +29949,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>-46.54215665747947,169.61406964290015</t>
+          <t>-46.54215666182491,169.61406967116636</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -29959,7 +29959,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>-46.543261724670614,169.61302498028934</t>
+          <t>-46.54326171815205,169.61302493788926</t>
         </is>
       </c>
       <c r="G378" t="inlineStr"/>
@@ -29987,7 +29987,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>-46.54215033918313,169.61402854381225</t>
+          <t>-46.54215034570132,169.61402858621162</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -30029,7 +30029,7 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>-46.54219134049563,169.61429524994114</t>
+          <t>-46.54219133180483,169.61429519340862</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -30039,7 +30039,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>-46.54337584898525,169.61376732222942</t>
+          <t>-46.54337584246698,169.61376727982918</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -30071,7 +30071,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>-46.54219122099716,169.61429447261884</t>
+          <t>-46.54219121447907,169.61429443021945</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -30113,7 +30113,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>-46.54217566442626,169.6141932794208</t>
+          <t>-46.542175668771684,169.614193307687</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -30123,7 +30123,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>-46.54333638707038,169.61351063130047</t>
+          <t>-46.54333638055201,169.6135105889003</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -30185,7 +30185,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>-46.54215976882222,169.61408988151945</t>
+          <t>-46.54215977099496,169.61408989565257</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -30195,7 +30195,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>-46.543342846765256,169.6135526498904</t>
+          <t>-46.5433428532836,169.6135526922906</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
@@ -30287,7 +30287,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>-46.54213469112529,169.61392675718866</t>
+          <t>-46.54213468243431,169.61392670065626</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
@@ -30297,7 +30297,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>-46.5433163430163,169.6133802507799</t>
+          <t>-46.543316336497895,169.61338020837977</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -30383,7 +30383,7 @@
       <c r="E390" t="inlineStr"/>
       <c r="F390" t="inlineStr">
         <is>
-          <t>-46.54330885334683,169.61333153301206</t>
+          <t>-46.54330884682839,169.61333149061193</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
@@ -30415,7 +30415,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>-46.542185004897505,169.61425403773148</t>
+          <t>-46.54218499620669,169.61425398119897</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -30449,7 +30449,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>-46.542136907323304,169.61394117295208</t>
+          <t>-46.54213691166879,169.6139412012183</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -30459,7 +30459,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>-46.54321631611022,169.612729621737</t>
+          <t>-46.54321630959156,169.612729579337</t>
         </is>
       </c>
       <c r="G392" t="inlineStr"/>
@@ -30487,7 +30487,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>-46.54214872484306,169.6140180429122</t>
+          <t>-46.54214872267031,169.61401802877907</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
@@ -30521,7 +30521,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>-46.54215067595651,169.6140307344443</t>
+          <t>-46.542150678129246,169.61403074857736</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -30531,7 +30531,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>-46.543286292956964,169.61318478619435</t>
+          <t>-46.54328629947546,169.61318482859446</t>
         </is>
       </c>
       <c r="G394" t="inlineStr"/>
@@ -30559,7 +30559,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>-46.54216335598749,169.6141132152938</t>
+          <t>-46.542163349469334,169.61411317289446</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
@@ -30601,7 +30601,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>-46.542174330381016,169.61418460168298</t>
+          <t>-46.54217433907188,169.61418465821544</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -30641,7 +30641,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>-46.5434031278267,169.6139447673838</t>
+          <t>-46.543403121308494,169.61394472498353</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -30673,7 +30673,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>-46.54216317782435,169.61411205637822</t>
+          <t>-46.542163173478905,169.614112028112</t>
         </is>
       </c>
       <c r="E398" t="inlineStr"/>
@@ -30703,7 +30703,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>-46.54222009819138,169.61448231619215</t>
+          <t>-46.54222009601871,169.614482302059</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -30713,7 +30713,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>-46.543412768241325,169.61400747743787</t>
+          <t>-46.543412761723154,169.61400743503754</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -30745,7 +30745,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>-46.5421660697151,169.6141308675578</t>
+          <t>-46.542166067542375,169.61413085342468</t>
         </is>
       </c>
       <c r="E400" t="inlineStr"/>
@@ -30771,7 +30771,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>-46.542212791470845,169.6144347864195</t>
+          <t>-46.54221278278012,169.6144347298869</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -30781,7 +30781,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>-46.54345181841832,169.61426149792325</t>
+          <t>-46.54345181190024,169.61426145552286</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -30851,7 +30851,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>-46.542194638651004,169.61431670403792</t>
+          <t>-46.542194636478314,169.61431668990477</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -30861,7 +30861,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>-46.54327738868968,169.61312686766573</t>
+          <t>-46.543277382171176,169.61312682526565</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
@@ -30893,7 +30893,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>-46.5421948950292,169.6143183717478</t>
+          <t>-46.542194890683795,169.61431834348156</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -30903,7 +30903,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>-46.54332919730131,169.61346386390179</t>
+          <t>-46.543329203819695,169.61346390630194</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
@@ -30935,7 +30935,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>-46.54215610995229,169.61406608135567</t>
+          <t>-46.54215611429774,169.6140661096219</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -30945,7 +30945,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>-46.54327422069304,169.61310626122494</t>
+          <t>-46.543274214174524,169.61310621882487</t>
         </is>
       </c>
       <c r="G405" t="inlineStr"/>
@@ -31011,7 +31011,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>-46.54220606483851,169.61439103020925</t>
+          <t>-46.542206056147755,169.6143909736767</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -31021,7 +31021,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>-46.54331116087119,169.6133465426622</t>
+          <t>-46.543311154352764,169.6133465002621</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
@@ -31053,7 +31053,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>-46.54214198501728,169.6139742020149</t>
+          <t>-46.54214197632634,169.6139741454825</t>
         </is>
       </c>
       <c r="E408" t="inlineStr"/>
@@ -31101,13 +31101,13 @@
       <c r="C410" t="inlineStr"/>
       <c r="D410" t="inlineStr">
         <is>
-          <t>-46.54213996002448,169.6139610299617</t>
+          <t>-46.542139962197226,169.61396104409476</t>
         </is>
       </c>
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="inlineStr">
         <is>
-          <t>-46.54329030182338,169.61321086225894</t>
+          <t>-46.54329030834187,169.61321090465904</t>
         </is>
       </c>
       <c r="G410" t="inlineStr"/>
@@ -31157,7 +31157,7 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>-46.54214195894442,169.61397403241767</t>
+          <t>-46.542141956771694,169.61397401828455</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -31167,7 +31167,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>-46.54336362719416,169.61368782177473</t>
+          <t>-46.54336362067586,169.6136877793745</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
@@ -31199,7 +31199,7 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>-46.54218496144342,169.61425375506892</t>
+          <t>-46.54218495709801,169.61425372680262</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -31209,7 +31209,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>-46.54336641050817,169.6137059266749</t>
+          <t>-46.54336641702646,169.6137059690751</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
@@ -31241,7 +31241,7 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>-46.54213398932888,169.61392219219718</t>
+          <t>-46.54213399801986,169.61392224872958</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -31251,7 +31251,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>-46.54327776676312,169.6131293268708</t>
+          <t>-46.543277773281616,169.61312936927087</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
@@ -31283,7 +31283,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>-46.542159992612824,169.61409133723026</t>
+          <t>-46.54215998609465,169.61409129483093</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -31317,7 +31317,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>-46.54212464868407,169.61386143400986</t>
+          <t>-46.542124650856806,169.61386144814293</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -31327,7 +31327,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>-46.543323506745445,169.61342684855398</t>
+          <t>-46.543323513263836,169.61342689095417</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">

--- a/data/nzd0543/nzd0543.xlsx
+++ b/data/nzd0543/nzd0543.xlsx
@@ -16597,13 +16597,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.025</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0218</v>
+        <v>0.0247</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0336</v>
+        <v>0.0318</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1739510876083342</v>
@@ -16675,13 +16675,13 @@
         <v>0.1999999999997186</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0194</v>
+        <v>0.0199</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0223</v>
+        <v>0.0256</v>
       </c>
       <c r="I3" t="n">
         <v>-0.2968983095797893</v>
@@ -16752,9 +16752,15 @@
       <c r="E4" t="n">
         <v>0.3999999999994372</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0259</v>
+      </c>
       <c r="I4" t="n">
         <v>-0.2766678798802349</v>
       </c>
@@ -16825,13 +16831,13 @@
         <v>0.5999999999991558</v>
       </c>
       <c r="F5" t="n">
-        <v>0.025</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0236</v>
+        <v>0.0197</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0276</v>
+        <v>0.0204</v>
       </c>
       <c r="I5" t="n">
         <v>-0.291100312611788</v>
@@ -16903,13 +16909,13 @@
         <v>0.7999999999970453</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0265</v>
+        <v>0.0148</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0376</v>
+        <v>0.0161</v>
       </c>
       <c r="I6" t="n">
         <v>-0.2762716924522091</v>
@@ -16981,13 +16987,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.025</v>
+        <v>0.015</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0203</v>
+        <v>0.0149</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0269</v>
+        <v>0.0159</v>
       </c>
       <c r="I7" t="n">
         <v>0.3665819840863597</v>

--- a/data/nzd0543/nzd0543.xlsx
+++ b/data/nzd0543/nzd0543.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H415"/>
+  <dimension ref="A1:H416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12839,7 +12839,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>265.49</v>
+        <v>269.97</v>
       </c>
       <c r="C415" t="n">
         <v>246.99</v>
@@ -12859,6 +12859,36 @@
       <c r="H415" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:15:16+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>269.67</v>
+      </c>
+      <c r="C416" t="n">
+        <v>245.19</v>
+      </c>
+      <c r="D416" t="n">
+        <v>227.98</v>
+      </c>
+      <c r="E416" t="n">
+        <v>222.23</v>
+      </c>
+      <c r="F416" t="n">
+        <v>196.5</v>
+      </c>
+      <c r="G416" t="n">
+        <v>209.45</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -12873,7 +12903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B509"/>
+  <dimension ref="A1:B510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17971,6 +18001,16 @@
       </c>
       <c r="B509" t="n">
         <v>0.06</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -18141,31 +18181,31 @@
         <v>0.0246</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0318</v>
+        <v>0.0317</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2905416579693422</v>
+        <v>-0.2919811973895616</v>
       </c>
       <c r="J2" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K2" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03490740366619782</v>
+        <v>0.03544784417431568</v>
       </c>
       <c r="M2" t="n">
-        <v>8.812179279612645</v>
+        <v>8.798479454039724</v>
       </c>
       <c r="N2" t="n">
-        <v>126.6029440986426</v>
+        <v>126.2197744176926</v>
       </c>
       <c r="O2" t="n">
-        <v>11.25179737191542</v>
+        <v>11.23475742585004</v>
       </c>
       <c r="P2" t="n">
-        <v>284.5747589557891</v>
+        <v>284.589205218637</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -18216,34 +18256,34 @@
         <v>0.025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02</v>
+        <v>0.0199</v>
       </c>
       <c r="H3" t="n">
         <v>0.0256</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.4800438439125244</v>
+        <v>-0.4850127392877925</v>
       </c>
       <c r="J3" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K3" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08756656703981447</v>
+        <v>0.08952040691719021</v>
       </c>
       <c r="M3" t="n">
-        <v>8.796579503261556</v>
+        <v>8.798745325127346</v>
       </c>
       <c r="N3" t="n">
-        <v>128.8835939748129</v>
+        <v>128.8121747293185</v>
       </c>
       <c r="O3" t="n">
-        <v>11.35269104551044</v>
+        <v>11.34954513314602</v>
       </c>
       <c r="P3" t="n">
-        <v>267.650517160962</v>
+        <v>267.7003878354477</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -18294,34 +18334,34 @@
         <v>0.025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0215</v>
+        <v>0.0211</v>
       </c>
       <c r="H4" t="n">
         <v>0.0259</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3506445950939969</v>
+        <v>-0.3555145996099311</v>
       </c>
       <c r="J4" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K4" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L4" t="n">
-        <v>0.051498814050287</v>
+        <v>0.05304090619723967</v>
       </c>
       <c r="M4" t="n">
-        <v>8.440298874931079</v>
+        <v>8.440755014877219</v>
       </c>
       <c r="N4" t="n">
-        <v>122.857809811756</v>
+        <v>122.7943939564458</v>
       </c>
       <c r="O4" t="n">
-        <v>11.08412422394101</v>
+        <v>11.08126319317639</v>
       </c>
       <c r="P4" t="n">
-        <v>246.9548661118515</v>
+        <v>247.0034367543544</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -18372,34 +18412,34 @@
         <v>0.02</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0197</v>
+        <v>0.0196</v>
       </c>
       <c r="H5" t="n">
         <v>0.0204</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3787231156907341</v>
+        <v>-0.3781524463932994</v>
       </c>
       <c r="J5" t="n">
+        <v>415</v>
+      </c>
+      <c r="K5" t="n">
         <v>414</v>
       </c>
-      <c r="K5" t="n">
-        <v>413</v>
-      </c>
       <c r="L5" t="n">
-        <v>0.04692082657144059</v>
+        <v>0.04703026167354929</v>
       </c>
       <c r="M5" t="n">
-        <v>10.00925015039438</v>
+        <v>9.987578013907529</v>
       </c>
       <c r="N5" t="n">
-        <v>157.1230966548433</v>
+        <v>156.7467777666636</v>
       </c>
       <c r="O5" t="n">
-        <v>12.53487521496896</v>
+        <v>12.51985534128344</v>
       </c>
       <c r="P5" t="n">
-        <v>230.8983870046568</v>
+        <v>230.8926861312807</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -18453,31 +18493,31 @@
         <v>0.0148</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0162</v>
+        <v>0.0161</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.400307638772509</v>
+        <v>-0.4022513127812847</v>
       </c>
       <c r="J6" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K6" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03846240518498012</v>
+        <v>0.0390223225501023</v>
       </c>
       <c r="M6" t="n">
-        <v>10.97987465047555</v>
+        <v>10.96302956243656</v>
       </c>
       <c r="N6" t="n">
-        <v>212.8816536848001</v>
+        <v>212.4025892939825</v>
       </c>
       <c r="O6" t="n">
-        <v>14.59046447803496</v>
+        <v>14.57403819447385</v>
       </c>
       <c r="P6" t="n">
-        <v>210.7742742401023</v>
+        <v>210.7938918521348</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -18534,28 +18574,28 @@
         <v>0.016</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04359310314267536</v>
+        <v>-0.0457147673468532</v>
       </c>
       <c r="J7" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K7" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000846684957596211</v>
+        <v>0.0009358022466795513</v>
       </c>
       <c r="M7" t="n">
-        <v>8.312130115168973</v>
+        <v>8.303511595990893</v>
       </c>
       <c r="N7" t="n">
-        <v>120.7964394801672</v>
+        <v>120.5495715407468</v>
       </c>
       <c r="O7" t="n">
-        <v>10.99074335430353</v>
+        <v>10.97950688968985</v>
       </c>
       <c r="P7" t="n">
-        <v>214.8808180943875</v>
+        <v>214.9020106128909</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -18593,7 +18633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H415"/>
+  <dimension ref="A1:H416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35925,7 +35965,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>-46.54101138788436,169.61485299014043</t>
+          <t>-46.54102014794164,169.6149099738028</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -35956,6 +35996,48 @@
       <c r="H415" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:15:16+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>-46.54101956133154,169.61490615793196</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>-46.541578465582205,169.61442514537308</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>-46.54215157763989,169.61403659968494</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>-46.542747091860335,169.61379381994706</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>-46.54330352778177,169.61329689210157</t>
+        </is>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>-46.54393559618281,169.61329197405158</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
